--- a/folder/ДИСПЕТЧЕРА.xlsx
+++ b/folder/ДИСПЕТЧЕРА.xlsx
@@ -163,9 +163,6 @@
     <t>ПЕШКОВА ОКСАНА ВЯЧЕСЛАВОВНА</t>
   </si>
   <si>
-    <t>ПОНАМАРЕВ ИВАН ВИКТОРОВИЧ</t>
-  </si>
-  <si>
     <t>ПРОХОРОВА КРИСТИНА ПАВЛОВНА</t>
   </si>
   <si>
@@ -464,6 +461,9 @@
   </si>
   <si>
     <t>СИНЕЛЬЦЕВА ЛЮДМИЛА АНАТОЛЬЕВНА</t>
+  </si>
+  <si>
+    <t>ПОНОМАРЕВ ИВАН ВИКТОРОВИЧ</t>
   </si>
 </sst>
 </file>
@@ -693,24 +693,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -721,6 +703,24 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1019,7 +1019,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1061,43 +1063,43 @@
       <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="26" t="s">
+      <c r="N2" s="32" t="s">
         <v>22</v>
       </c>
       <c r="O2" s="27" t="s">
@@ -1111,19 +1113,19 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
       <c r="O3" s="27"/>
       <c r="P3" s="27"/>
     </row>
@@ -1148,7 +1150,7 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -1168,7 +1170,7 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -1308,7 +1310,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="9" t="s">
-        <v>44</v>
+        <v>144</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -1328,7 +1330,7 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -1348,7 +1350,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -1368,7 +1370,7 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -1388,7 +1390,7 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -1408,27 +1410,69 @@
     </row>
     <row r="18" spans="1:16" ht="30">
       <c r="A18" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
+        <v>48</v>
+      </c>
+      <c r="B18" s="9">
+        <f>SUM(B5:B17)</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="9">
+        <f>SUM(C5:C17)</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="9">
+        <f>SUM(D5:D17)</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="9">
+        <f>SUM(E5:E17)</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="9">
+        <f>SUM(F5:F17)</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="9" t="e">
+        <f>AVERAGE(G5:G17)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H18" s="9" t="e">
+        <f>AVERAGE(H5:H17)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I18" s="9" t="e">
+        <f>AVERAGE(I5:I17)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J18" s="9" t="e">
+        <f>AVERAGE(J5:J17)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K18" s="9">
+        <f>SUM(K5:K17)</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="9">
+        <f>SUM(L5:L17)</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="9" t="e">
+        <f>AVERAGE(M5:M17)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
+      <c r="O18" s="9">
+        <f>SUM(O5:O17)</f>
+        <v>0</v>
+      </c>
+      <c r="P18" s="9" t="e">
+        <f>AVERAGE(P5:P17)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -1448,7 +1492,7 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -1468,7 +1512,7 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -1488,7 +1532,7 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -1508,7 +1552,7 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -1528,7 +1572,7 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -1548,7 +1592,7 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -1568,7 +1612,7 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -1588,7 +1632,7 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -1608,7 +1652,7 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -1628,7 +1672,7 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -1648,7 +1692,7 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -1668,7 +1712,7 @@
     </row>
     <row r="31" spans="1:16" ht="30">
       <c r="A31" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -1688,7 +1732,7 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -1708,7 +1752,7 @@
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -1728,7 +1772,7 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -1748,7 +1792,7 @@
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -1768,7 +1812,7 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -1788,7 +1832,7 @@
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -1808,7 +1852,7 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -1828,7 +1872,7 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -1848,7 +1892,7 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -1868,7 +1912,7 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -1888,7 +1932,7 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -1908,7 +1952,7 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -1928,7 +1972,7 @@
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -1948,7 +1992,7 @@
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -1968,7 +2012,7 @@
     </row>
     <row r="46" spans="1:16" ht="30">
       <c r="A46" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -1988,7 +2032,7 @@
     </row>
     <row r="47" spans="1:16">
       <c r="A47" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -2008,7 +2052,7 @@
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -2028,7 +2072,7 @@
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -2048,7 +2092,7 @@
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
@@ -2068,7 +2112,7 @@
     </row>
     <row r="51" spans="1:16">
       <c r="A51" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -2088,7 +2132,7 @@
     </row>
     <row r="52" spans="1:16">
       <c r="A52" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -2108,7 +2152,7 @@
     </row>
     <row r="53" spans="1:16">
       <c r="A53" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -2128,7 +2172,7 @@
     </row>
     <row r="54" spans="1:16">
       <c r="A54" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
@@ -2148,7 +2192,7 @@
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
@@ -2168,7 +2212,7 @@
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -2188,7 +2232,7 @@
     </row>
     <row r="57" spans="1:16">
       <c r="A57" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
@@ -2208,7 +2252,7 @@
     </row>
     <row r="58" spans="1:16">
       <c r="A58" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
@@ -2228,7 +2272,7 @@
     </row>
     <row r="59" spans="1:16" ht="30">
       <c r="A59" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
@@ -2288,7 +2332,7 @@
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
@@ -2308,7 +2352,7 @@
     </row>
     <row r="63" spans="1:16">
       <c r="A63" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
@@ -2328,7 +2372,7 @@
     </row>
     <row r="64" spans="1:16">
       <c r="A64" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
@@ -2348,7 +2392,7 @@
     </row>
     <row r="65" spans="1:16">
       <c r="A65" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
@@ -2368,7 +2412,7 @@
     </row>
     <row r="66" spans="1:16">
       <c r="A66" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
@@ -2388,7 +2432,7 @@
     </row>
     <row r="67" spans="1:16">
       <c r="A67" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
@@ -2408,7 +2452,7 @@
     </row>
     <row r="68" spans="1:16">
       <c r="A68" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
@@ -2428,7 +2472,7 @@
     </row>
     <row r="69" spans="1:16" ht="30">
       <c r="A69" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
@@ -2448,7 +2492,7 @@
     </row>
     <row r="70" spans="1:16">
       <c r="A70" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
@@ -2468,7 +2512,7 @@
     </row>
     <row r="71" spans="1:16">
       <c r="A71" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
@@ -2488,7 +2532,7 @@
     </row>
     <row r="72" spans="1:16">
       <c r="A72" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
@@ -2508,7 +2552,7 @@
     </row>
     <row r="73" spans="1:16">
       <c r="A73" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
@@ -2528,7 +2572,7 @@
     </row>
     <row r="74" spans="1:16">
       <c r="A74" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
@@ -2548,7 +2592,7 @@
     </row>
     <row r="75" spans="1:16">
       <c r="A75" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
@@ -2568,7 +2612,7 @@
     </row>
     <row r="76" spans="1:16">
       <c r="A76" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
@@ -2588,7 +2632,7 @@
     </row>
     <row r="77" spans="1:16" ht="30">
       <c r="A77" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
@@ -2608,7 +2652,7 @@
     </row>
     <row r="78" spans="1:16">
       <c r="A78" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
@@ -2628,7 +2672,7 @@
     </row>
     <row r="79" spans="1:16">
       <c r="A79" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
@@ -2648,7 +2692,7 @@
     </row>
     <row r="80" spans="1:16">
       <c r="A80" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
@@ -2668,7 +2712,7 @@
     </row>
     <row r="81" spans="1:16">
       <c r="A81" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
@@ -2688,7 +2732,7 @@
     </row>
     <row r="82" spans="1:16">
       <c r="A82" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
@@ -2708,7 +2752,7 @@
     </row>
     <row r="83" spans="1:16">
       <c r="A83" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
@@ -2728,7 +2772,7 @@
     </row>
     <row r="84" spans="1:16">
       <c r="A84" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
@@ -2748,7 +2792,7 @@
     </row>
     <row r="85" spans="1:16" ht="30">
       <c r="A85" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
@@ -2768,7 +2812,7 @@
     </row>
     <row r="86" spans="1:16">
       <c r="A86" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
@@ -2788,7 +2832,7 @@
     </row>
     <row r="87" spans="1:16">
       <c r="A87" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
@@ -2808,7 +2852,7 @@
     </row>
     <row r="88" spans="1:16">
       <c r="A88" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
@@ -2828,7 +2872,7 @@
     </row>
     <row r="89" spans="1:16">
       <c r="A89" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
@@ -2848,7 +2892,7 @@
     </row>
     <row r="90" spans="1:16">
       <c r="A90" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
@@ -2868,7 +2912,7 @@
     </row>
     <row r="91" spans="1:16">
       <c r="A91" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
@@ -2888,7 +2932,7 @@
     </row>
     <row r="92" spans="1:16">
       <c r="A92" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
@@ -2908,7 +2952,7 @@
     </row>
     <row r="93" spans="1:16" ht="30">
       <c r="A93" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
@@ -2968,7 +3012,7 @@
     </row>
     <row r="96" spans="1:16">
       <c r="A96" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
@@ -2988,7 +3032,7 @@
     </row>
     <row r="97" spans="1:16">
       <c r="A97" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
@@ -3008,7 +3052,7 @@
     </row>
     <row r="98" spans="1:16">
       <c r="A98" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
@@ -3028,7 +3072,7 @@
     </row>
     <row r="99" spans="1:16">
       <c r="A99" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
@@ -3048,7 +3092,7 @@
     </row>
     <row r="100" spans="1:16">
       <c r="A100" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
@@ -3068,7 +3112,7 @@
     </row>
     <row r="101" spans="1:16">
       <c r="A101" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
@@ -3088,7 +3132,7 @@
     </row>
     <row r="102" spans="1:16">
       <c r="A102" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
@@ -3108,7 +3152,7 @@
     </row>
     <row r="103" spans="1:16">
       <c r="A103" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
@@ -3128,7 +3172,7 @@
     </row>
     <row r="104" spans="1:16">
       <c r="A104" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
@@ -3148,7 +3192,7 @@
     </row>
     <row r="105" spans="1:16">
       <c r="A105" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
@@ -3168,7 +3212,7 @@
     </row>
     <row r="106" spans="1:16" ht="30">
       <c r="A106" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
@@ -3188,7 +3232,7 @@
     </row>
     <row r="107" spans="1:16">
       <c r="A107" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
@@ -3208,7 +3252,7 @@
     </row>
     <row r="108" spans="1:16">
       <c r="A108" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
@@ -3228,7 +3272,7 @@
     </row>
     <row r="109" spans="1:16">
       <c r="A109" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
@@ -3248,7 +3292,7 @@
     </row>
     <row r="110" spans="1:16">
       <c r="A110" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
@@ -3268,7 +3312,7 @@
     </row>
     <row r="111" spans="1:16">
       <c r="A111" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
@@ -3288,7 +3332,7 @@
     </row>
     <row r="112" spans="1:16">
       <c r="A112" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
@@ -3308,7 +3352,7 @@
     </row>
     <row r="113" spans="1:16">
       <c r="A113" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
@@ -3328,7 +3372,7 @@
     </row>
     <row r="114" spans="1:16">
       <c r="A114" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
@@ -3348,7 +3392,7 @@
     </row>
     <row r="115" spans="1:16">
       <c r="A115" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
@@ -3368,7 +3412,7 @@
     </row>
     <row r="116" spans="1:16">
       <c r="A116" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
@@ -3388,7 +3432,7 @@
     </row>
     <row r="117" spans="1:16" ht="30">
       <c r="A117" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
@@ -3436,11 +3480,6 @@
     <sortCondition ref="A48"/>
   </sortState>
   <mergeCells count="15">
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="G2:G3"/>
@@ -3451,6 +3490,11 @@
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="N2:N3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/folder/ДИСПЕТЧЕРА.xlsx
+++ b/folder/ДИСПЕТЧЕРА.xlsx
@@ -639,7 +639,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -723,6 +723,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1020,7 +1024,7 @@
   <dimension ref="A1:P119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1133,9 +1137,9 @@
       <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
       <c r="E4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
@@ -1152,9 +1156,9 @@
       <c r="A5" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -1172,9 +1176,9 @@
       <c r="A6" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
@@ -1192,9 +1196,9 @@
       <c r="A7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -1212,9 +1216,9 @@
       <c r="A8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -1232,9 +1236,9 @@
       <c r="A9" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
@@ -1252,9 +1256,9 @@
       <c r="A10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -1272,9 +1276,9 @@
       <c r="A11" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
@@ -1292,9 +1296,9 @@
       <c r="A12" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -1312,9 +1316,9 @@
       <c r="A13" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -1332,9 +1336,9 @@
       <c r="A14" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -1352,9 +1356,9 @@
       <c r="A15" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
@@ -1372,9 +1376,9 @@
       <c r="A16" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -1392,9 +1396,9 @@
       <c r="A17" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -1412,15 +1416,15 @@
       <c r="A18" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="33">
         <f>SUM(B5:B17)</f>
         <v>0</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="35">
         <f>SUM(C5:C17)</f>
         <v>0</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="35">
         <f>SUM(D5:D17)</f>
         <v>0</v>
       </c>
@@ -1474,9 +1478,9 @@
       <c r="A19" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
@@ -1494,9 +1498,9 @@
       <c r="A20" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -1514,9 +1518,9 @@
       <c r="A21" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
@@ -1534,9 +1538,9 @@
       <c r="A22" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -1554,9 +1558,9 @@
       <c r="A23" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
@@ -1574,9 +1578,9 @@
       <c r="A24" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
@@ -1594,9 +1598,9 @@
       <c r="A25" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -1614,9 +1618,9 @@
       <c r="A26" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -1634,9 +1638,9 @@
       <c r="A27" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
@@ -1654,9 +1658,9 @@
       <c r="A28" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
@@ -1674,9 +1678,9 @@
       <c r="A29" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
@@ -1694,9 +1698,9 @@
       <c r="A30" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
@@ -1714,9 +1718,9 @@
       <c r="A31" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
@@ -1734,9 +1738,9 @@
       <c r="A32" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
@@ -1754,9 +1758,9 @@
       <c r="A33" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
@@ -1774,9 +1778,9 @@
       <c r="A34" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
@@ -1794,9 +1798,9 @@
       <c r="A35" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
@@ -1814,9 +1818,9 @@
       <c r="A36" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
@@ -1834,9 +1838,9 @@
       <c r="A37" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
@@ -1854,9 +1858,9 @@
       <c r="A38" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
@@ -1874,9 +1878,9 @@
       <c r="A39" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
@@ -1894,9 +1898,9 @@
       <c r="A40" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
@@ -1914,9 +1918,9 @@
       <c r="A41" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
@@ -1934,9 +1938,9 @@
       <c r="A42" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
@@ -1954,9 +1958,9 @@
       <c r="A43" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
@@ -1974,9 +1978,9 @@
       <c r="A44" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
@@ -1994,9 +1998,9 @@
       <c r="A45" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
@@ -2014,9 +2018,9 @@
       <c r="A46" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
@@ -2034,9 +2038,9 @@
       <c r="A47" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
@@ -2054,9 +2058,9 @@
       <c r="A48" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
@@ -2074,9 +2078,9 @@
       <c r="A49" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
@@ -2094,9 +2098,9 @@
       <c r="A50" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
@@ -2114,9 +2118,9 @@
       <c r="A51" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
@@ -2134,9 +2138,9 @@
       <c r="A52" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
@@ -2154,9 +2158,9 @@
       <c r="A53" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
@@ -2174,9 +2178,9 @@
       <c r="A54" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
@@ -2194,9 +2198,9 @@
       <c r="A55" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="35"/>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
@@ -2214,9 +2218,9 @@
       <c r="A56" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
@@ -2234,9 +2238,9 @@
       <c r="A57" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="35"/>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
@@ -2254,9 +2258,9 @@
       <c r="A58" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
@@ -2274,9 +2278,9 @@
       <c r="A59" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
@@ -2294,9 +2298,9 @@
       <c r="A60" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="35"/>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
@@ -2314,9 +2318,9 @@
       <c r="A61" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B61" s="9"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="35"/>
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
@@ -2334,9 +2338,9 @@
       <c r="A62" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
@@ -2354,9 +2358,9 @@
       <c r="A63" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="B63" s="9"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
+      <c r="B63" s="33"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="35"/>
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
       <c r="G63" s="9"/>
@@ -2374,9 +2378,9 @@
       <c r="A64" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="35"/>
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
       <c r="G64" s="9"/>
@@ -2394,9 +2398,9 @@
       <c r="A65" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
+      <c r="B65" s="33"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
       <c r="G65" s="9"/>
@@ -2414,9 +2418,9 @@
       <c r="A66" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="B66" s="9"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
+      <c r="B66" s="33"/>
+      <c r="C66" s="35"/>
+      <c r="D66" s="35"/>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
@@ -2434,9 +2438,9 @@
       <c r="A67" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="9"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
+      <c r="B67" s="33"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="35"/>
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
@@ -2454,9 +2458,9 @@
       <c r="A68" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
+      <c r="B68" s="33"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="35"/>
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
@@ -2474,9 +2478,9 @@
       <c r="A69" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
+      <c r="B69" s="33"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="35"/>
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
@@ -2494,9 +2498,9 @@
       <c r="A70" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
+      <c r="B70" s="33"/>
+      <c r="C70" s="35"/>
+      <c r="D70" s="35"/>
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
@@ -2514,9 +2518,9 @@
       <c r="A71" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
+      <c r="B71" s="33"/>
+      <c r="C71" s="35"/>
+      <c r="D71" s="35"/>
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
@@ -2534,9 +2538,9 @@
       <c r="A72" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="B72" s="9"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
+      <c r="B72" s="33"/>
+      <c r="C72" s="35"/>
+      <c r="D72" s="35"/>
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
@@ -2554,9 +2558,9 @@
       <c r="A73" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="B73" s="9"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
+      <c r="B73" s="33"/>
+      <c r="C73" s="35"/>
+      <c r="D73" s="35"/>
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
@@ -2574,9 +2578,9 @@
       <c r="A74" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="B74" s="9"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
+      <c r="B74" s="33"/>
+      <c r="C74" s="35"/>
+      <c r="D74" s="35"/>
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
@@ -2594,9 +2598,9 @@
       <c r="A75" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="B75" s="9"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
+      <c r="B75" s="33"/>
+      <c r="C75" s="35"/>
+      <c r="D75" s="35"/>
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
@@ -2614,9 +2618,9 @@
       <c r="A76" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="B76" s="9"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
+      <c r="B76" s="33"/>
+      <c r="C76" s="35"/>
+      <c r="D76" s="35"/>
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
@@ -2634,9 +2638,9 @@
       <c r="A77" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="B77" s="9"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
+      <c r="B77" s="33"/>
+      <c r="C77" s="35"/>
+      <c r="D77" s="35"/>
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
@@ -2654,9 +2658,9 @@
       <c r="A78" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B78" s="9"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
+      <c r="B78" s="33"/>
+      <c r="C78" s="35"/>
+      <c r="D78" s="35"/>
       <c r="E78" s="9"/>
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
@@ -2674,9 +2678,9 @@
       <c r="A79" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
+      <c r="B79" s="33"/>
+      <c r="C79" s="35"/>
+      <c r="D79" s="35"/>
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
@@ -2694,9 +2698,9 @@
       <c r="A80" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="B80" s="9"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
+      <c r="B80" s="33"/>
+      <c r="C80" s="35"/>
+      <c r="D80" s="35"/>
       <c r="E80" s="9"/>
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
@@ -2714,9 +2718,9 @@
       <c r="A81" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="B81" s="9"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
+      <c r="B81" s="33"/>
+      <c r="C81" s="35"/>
+      <c r="D81" s="35"/>
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
@@ -2734,9 +2738,9 @@
       <c r="A82" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="B82" s="9"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
+      <c r="B82" s="33"/>
+      <c r="C82" s="35"/>
+      <c r="D82" s="35"/>
       <c r="E82" s="9"/>
       <c r="F82" s="9"/>
       <c r="G82" s="9"/>
@@ -2754,9 +2758,9 @@
       <c r="A83" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="B83" s="9"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
+      <c r="B83" s="33"/>
+      <c r="C83" s="35"/>
+      <c r="D83" s="35"/>
       <c r="E83" s="9"/>
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
@@ -2774,9 +2778,9 @@
       <c r="A84" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="B84" s="9"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
+      <c r="B84" s="33"/>
+      <c r="C84" s="35"/>
+      <c r="D84" s="35"/>
       <c r="E84" s="9"/>
       <c r="F84" s="9"/>
       <c r="G84" s="9"/>
@@ -2794,9 +2798,9 @@
       <c r="A85" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="B85" s="9"/>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
+      <c r="B85" s="33"/>
+      <c r="C85" s="35"/>
+      <c r="D85" s="35"/>
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
       <c r="G85" s="9"/>
@@ -2814,9 +2818,9 @@
       <c r="A86" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B86" s="9"/>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
+      <c r="B86" s="33"/>
+      <c r="C86" s="35"/>
+      <c r="D86" s="35"/>
       <c r="E86" s="9"/>
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
@@ -2834,9 +2838,9 @@
       <c r="A87" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="B87" s="9"/>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
+      <c r="B87" s="33"/>
+      <c r="C87" s="35"/>
+      <c r="D87" s="35"/>
       <c r="E87" s="9"/>
       <c r="F87" s="9"/>
       <c r="G87" s="9"/>
@@ -2854,9 +2858,9 @@
       <c r="A88" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="B88" s="9"/>
-      <c r="C88" s="9"/>
-      <c r="D88" s="9"/>
+      <c r="B88" s="33"/>
+      <c r="C88" s="35"/>
+      <c r="D88" s="35"/>
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
       <c r="G88" s="9"/>
@@ -2874,9 +2878,9 @@
       <c r="A89" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="B89" s="9"/>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
+      <c r="B89" s="33"/>
+      <c r="C89" s="35"/>
+      <c r="D89" s="35"/>
       <c r="E89" s="9"/>
       <c r="F89" s="9"/>
       <c r="G89" s="9"/>
@@ -2894,9 +2898,9 @@
       <c r="A90" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="B90" s="9"/>
-      <c r="C90" s="9"/>
-      <c r="D90" s="9"/>
+      <c r="B90" s="33"/>
+      <c r="C90" s="35"/>
+      <c r="D90" s="35"/>
       <c r="E90" s="9"/>
       <c r="F90" s="9"/>
       <c r="G90" s="9"/>
@@ -2914,9 +2918,9 @@
       <c r="A91" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="B91" s="9"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
+      <c r="B91" s="33"/>
+      <c r="C91" s="35"/>
+      <c r="D91" s="35"/>
       <c r="E91" s="9"/>
       <c r="F91" s="9"/>
       <c r="G91" s="9"/>
@@ -2934,9 +2938,9 @@
       <c r="A92" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="B92" s="9"/>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
+      <c r="B92" s="33"/>
+      <c r="C92" s="35"/>
+      <c r="D92" s="35"/>
       <c r="E92" s="9"/>
       <c r="F92" s="9"/>
       <c r="G92" s="9"/>
@@ -2954,9 +2958,9 @@
       <c r="A93" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B93" s="9"/>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
+      <c r="B93" s="33"/>
+      <c r="C93" s="35"/>
+      <c r="D93" s="35"/>
       <c r="E93" s="9"/>
       <c r="F93" s="9"/>
       <c r="G93" s="9"/>
@@ -2974,9 +2978,9 @@
       <c r="A94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B94" s="9"/>
-      <c r="C94" s="9"/>
-      <c r="D94" s="9"/>
+      <c r="B94" s="33"/>
+      <c r="C94" s="35"/>
+      <c r="D94" s="35"/>
       <c r="E94" s="9"/>
       <c r="F94" s="9"/>
       <c r="G94" s="9"/>
@@ -2994,9 +2998,9 @@
       <c r="A95" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B95" s="9"/>
-      <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
+      <c r="B95" s="33"/>
+      <c r="C95" s="35"/>
+      <c r="D95" s="35"/>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
       <c r="G95" s="9"/>
@@ -3014,9 +3018,9 @@
       <c r="A96" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B96" s="9"/>
-      <c r="C96" s="9"/>
-      <c r="D96" s="9"/>
+      <c r="B96" s="33"/>
+      <c r="C96" s="35"/>
+      <c r="D96" s="35"/>
       <c r="E96" s="9"/>
       <c r="F96" s="9"/>
       <c r="G96" s="9"/>
@@ -3034,9 +3038,9 @@
       <c r="A97" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B97" s="9"/>
-      <c r="C97" s="9"/>
-      <c r="D97" s="9"/>
+      <c r="B97" s="33"/>
+      <c r="C97" s="35"/>
+      <c r="D97" s="35"/>
       <c r="E97" s="9"/>
       <c r="F97" s="9"/>
       <c r="G97" s="9"/>
@@ -3054,9 +3058,9 @@
       <c r="A98" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B98" s="9"/>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
+      <c r="B98" s="33"/>
+      <c r="C98" s="35"/>
+      <c r="D98" s="35"/>
       <c r="E98" s="9"/>
       <c r="F98" s="9"/>
       <c r="G98" s="9"/>
@@ -3074,9 +3078,9 @@
       <c r="A99" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B99" s="9"/>
-      <c r="C99" s="9"/>
-      <c r="D99" s="9"/>
+      <c r="B99" s="33"/>
+      <c r="C99" s="35"/>
+      <c r="D99" s="35"/>
       <c r="E99" s="9"/>
       <c r="F99" s="9"/>
       <c r="G99" s="9"/>
@@ -3094,9 +3098,9 @@
       <c r="A100" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B100" s="9"/>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
+      <c r="B100" s="33"/>
+      <c r="C100" s="35"/>
+      <c r="D100" s="35"/>
       <c r="E100" s="9"/>
       <c r="F100" s="9"/>
       <c r="G100" s="9"/>
@@ -3114,9 +3118,9 @@
       <c r="A101" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B101" s="9"/>
-      <c r="C101" s="9"/>
-      <c r="D101" s="9"/>
+      <c r="B101" s="33"/>
+      <c r="C101" s="35"/>
+      <c r="D101" s="35"/>
       <c r="E101" s="9"/>
       <c r="F101" s="9"/>
       <c r="G101" s="9"/>
@@ -3134,9 +3138,9 @@
       <c r="A102" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B102" s="9"/>
-      <c r="C102" s="9"/>
-      <c r="D102" s="9"/>
+      <c r="B102" s="33"/>
+      <c r="C102" s="35"/>
+      <c r="D102" s="35"/>
       <c r="E102" s="9"/>
       <c r="F102" s="9"/>
       <c r="G102" s="9"/>
@@ -3154,9 +3158,9 @@
       <c r="A103" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B103" s="9"/>
-      <c r="C103" s="9"/>
-      <c r="D103" s="9"/>
+      <c r="B103" s="33"/>
+      <c r="C103" s="35"/>
+      <c r="D103" s="35"/>
       <c r="E103" s="9"/>
       <c r="F103" s="9"/>
       <c r="G103" s="9"/>
@@ -3174,9 +3178,9 @@
       <c r="A104" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B104" s="9"/>
-      <c r="C104" s="9"/>
-      <c r="D104" s="9"/>
+      <c r="B104" s="33"/>
+      <c r="C104" s="35"/>
+      <c r="D104" s="35"/>
       <c r="E104" s="9"/>
       <c r="F104" s="9"/>
       <c r="G104" s="9"/>
@@ -3194,9 +3198,9 @@
       <c r="A105" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B105" s="9"/>
-      <c r="C105" s="9"/>
-      <c r="D105" s="9"/>
+      <c r="B105" s="33"/>
+      <c r="C105" s="35"/>
+      <c r="D105" s="35"/>
       <c r="E105" s="9"/>
       <c r="F105" s="9"/>
       <c r="G105" s="9"/>
@@ -3214,9 +3218,9 @@
       <c r="A106" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="B106" s="9"/>
-      <c r="C106" s="9"/>
-      <c r="D106" s="9"/>
+      <c r="B106" s="33"/>
+      <c r="C106" s="35"/>
+      <c r="D106" s="35"/>
       <c r="E106" s="9"/>
       <c r="F106" s="9"/>
       <c r="G106" s="9"/>
@@ -3234,9 +3238,9 @@
       <c r="A107" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B107" s="9"/>
-      <c r="C107" s="9"/>
-      <c r="D107" s="9"/>
+      <c r="B107" s="33"/>
+      <c r="C107" s="35"/>
+      <c r="D107" s="35"/>
       <c r="E107" s="9"/>
       <c r="F107" s="9"/>
       <c r="G107" s="9"/>
@@ -3254,9 +3258,9 @@
       <c r="A108" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B108" s="9"/>
-      <c r="C108" s="9"/>
-      <c r="D108" s="9"/>
+      <c r="B108" s="33"/>
+      <c r="C108" s="35"/>
+      <c r="D108" s="35"/>
       <c r="E108" s="9"/>
       <c r="F108" s="9"/>
       <c r="G108" s="9"/>
@@ -3274,9 +3278,9 @@
       <c r="A109" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B109" s="9"/>
-      <c r="C109" s="9"/>
-      <c r="D109" s="9"/>
+      <c r="B109" s="33"/>
+      <c r="C109" s="35"/>
+      <c r="D109" s="35"/>
       <c r="E109" s="9"/>
       <c r="F109" s="9"/>
       <c r="G109" s="9"/>
@@ -3294,9 +3298,9 @@
       <c r="A110" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="B110" s="9"/>
-      <c r="C110" s="9"/>
-      <c r="D110" s="9"/>
+      <c r="B110" s="33"/>
+      <c r="C110" s="35"/>
+      <c r="D110" s="35"/>
       <c r="E110" s="9"/>
       <c r="F110" s="9"/>
       <c r="G110" s="9"/>
@@ -3314,9 +3318,9 @@
       <c r="A111" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="B111" s="9"/>
-      <c r="C111" s="9"/>
-      <c r="D111" s="9"/>
+      <c r="B111" s="33"/>
+      <c r="C111" s="35"/>
+      <c r="D111" s="35"/>
       <c r="E111" s="9"/>
       <c r="F111" s="9"/>
       <c r="G111" s="9"/>
@@ -3334,9 +3338,9 @@
       <c r="A112" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B112" s="9"/>
-      <c r="C112" s="9"/>
-      <c r="D112" s="9"/>
+      <c r="B112" s="33"/>
+      <c r="C112" s="35"/>
+      <c r="D112" s="35"/>
       <c r="E112" s="9"/>
       <c r="F112" s="9"/>
       <c r="G112" s="9"/>
@@ -3354,9 +3358,9 @@
       <c r="A113" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B113" s="9"/>
-      <c r="C113" s="9"/>
-      <c r="D113" s="9"/>
+      <c r="B113" s="33"/>
+      <c r="C113" s="35"/>
+      <c r="D113" s="35"/>
       <c r="E113" s="9"/>
       <c r="F113" s="9"/>
       <c r="G113" s="9"/>
@@ -3374,9 +3378,9 @@
       <c r="A114" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="B114" s="9"/>
-      <c r="C114" s="9"/>
-      <c r="D114" s="9"/>
+      <c r="B114" s="33"/>
+      <c r="C114" s="35"/>
+      <c r="D114" s="35"/>
       <c r="E114" s="9"/>
       <c r="F114" s="9"/>
       <c r="G114" s="9"/>
@@ -3394,9 +3398,9 @@
       <c r="A115" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="B115" s="9"/>
-      <c r="C115" s="9"/>
-      <c r="D115" s="9"/>
+      <c r="B115" s="33"/>
+      <c r="C115" s="35"/>
+      <c r="D115" s="35"/>
       <c r="E115" s="9"/>
       <c r="F115" s="9"/>
       <c r="G115" s="9"/>
@@ -3414,9 +3418,9 @@
       <c r="A116" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="B116" s="9"/>
-      <c r="C116" s="9"/>
-      <c r="D116" s="9"/>
+      <c r="B116" s="33"/>
+      <c r="C116" s="35"/>
+      <c r="D116" s="35"/>
       <c r="E116" s="9"/>
       <c r="F116" s="9"/>
       <c r="G116" s="9"/>
@@ -3434,9 +3438,9 @@
       <c r="A117" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="B117" s="9"/>
-      <c r="C117" s="9"/>
-      <c r="D117" s="9"/>
+      <c r="B117" s="33"/>
+      <c r="C117" s="35"/>
+      <c r="D117" s="35"/>
       <c r="E117" s="9"/>
       <c r="F117" s="9"/>
       <c r="G117" s="9"/>
@@ -3454,9 +3458,9 @@
       <c r="A118" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B118" s="9"/>
-      <c r="C118" s="9"/>
-      <c r="D118" s="9"/>
+      <c r="B118" s="33"/>
+      <c r="C118" s="35"/>
+      <c r="D118" s="35"/>
       <c r="E118" s="9"/>
       <c r="F118" s="9"/>
       <c r="G118" s="9"/>
@@ -3474,6 +3478,9 @@
       <c r="A119" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="B119" s="34"/>
+      <c r="C119" s="36"/>
+      <c r="D119" s="36"/>
     </row>
   </sheetData>
   <sortState ref="A48:A58">
@@ -3497,6 +3504,7 @@
     <mergeCell ref="E2:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/folder/ДИСПЕТЧЕРА.xlsx
+++ b/folder/ДИСПЕТЧЕРА.xlsx
@@ -693,6 +693,10 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -723,10 +727,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1023,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1067,49 +1067,49 @@
       <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="30" t="s">
+      <c r="L2" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="32" t="s">
+      <c r="M2" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="32" t="s">
+      <c r="N2" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="27" t="s">
+      <c r="O2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="27" t="s">
+      <c r="P2" s="31" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1117,29 +1117,29 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
       <c r="E4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
@@ -1156,9 +1156,9 @@
       <c r="A5" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -1176,9 +1176,9 @@
       <c r="A6" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
@@ -1196,9 +1196,9 @@
       <c r="A7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -1216,9 +1216,9 @@
       <c r="A8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -1236,9 +1236,9 @@
       <c r="A9" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
@@ -1256,9 +1256,9 @@
       <c r="A10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -1276,9 +1276,9 @@
       <c r="A11" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
@@ -1296,9 +1296,9 @@
       <c r="A12" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -1316,9 +1316,9 @@
       <c r="A13" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -1336,9 +1336,9 @@
       <c r="A14" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -1356,9 +1356,9 @@
       <c r="A15" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
@@ -1376,9 +1376,9 @@
       <c r="A16" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -1396,9 +1396,9 @@
       <c r="A17" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -1416,40 +1416,40 @@
       <c r="A18" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="33">
+      <c r="B18" s="23">
         <f>SUM(B5:B17)</f>
         <v>0</v>
       </c>
-      <c r="C18" s="35">
-        <f>SUM(C5:C17)</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="35">
-        <f>SUM(D5:D17)</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="9">
-        <f>SUM(E5:E17)</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="9">
-        <f>SUM(F5:F17)</f>
-        <v>0</v>
+      <c r="C18" s="25" t="e">
+        <f t="shared" ref="C18:J18" si="0">AVERAGE(C5:C17)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D18" s="25" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E18" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F18" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="G18" s="9" t="e">
-        <f>AVERAGE(G5:G17)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H18" s="9" t="e">
-        <f>AVERAGE(H5:H17)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I18" s="9" t="e">
-        <f>AVERAGE(I5:I17)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J18" s="9" t="e">
-        <f>AVERAGE(J5:J17)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K18" s="9">
@@ -1464,7 +1464,10 @@
         <f>AVERAGE(M5:M17)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N18" s="9"/>
+      <c r="N18" s="9" t="e">
+        <f>AVERAGE(N5:N17)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O18" s="9">
         <f>SUM(O5:O17)</f>
         <v>0</v>
@@ -1478,9 +1481,9 @@
       <c r="A19" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
@@ -1498,9 +1501,9 @@
       <c r="A20" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -1518,9 +1521,9 @@
       <c r="A21" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
@@ -1538,9 +1541,9 @@
       <c r="A22" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -1558,9 +1561,9 @@
       <c r="A23" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
@@ -1578,9 +1581,9 @@
       <c r="A24" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
@@ -1598,9 +1601,9 @@
       <c r="A25" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -1618,9 +1621,9 @@
       <c r="A26" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -1638,9 +1641,9 @@
       <c r="A27" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
@@ -1658,9 +1661,9 @@
       <c r="A28" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
@@ -1678,9 +1681,9 @@
       <c r="A29" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
@@ -1698,9 +1701,9 @@
       <c r="A30" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B30" s="33"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
@@ -1718,9 +1721,9 @@
       <c r="A31" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="33"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
@@ -1738,9 +1741,9 @@
       <c r="A32" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="33"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
@@ -1758,9 +1761,9 @@
       <c r="A33" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
@@ -1778,9 +1781,9 @@
       <c r="A34" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B34" s="33"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
@@ -1798,9 +1801,9 @@
       <c r="A35" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B35" s="33"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
@@ -1818,9 +1821,9 @@
       <c r="A36" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B36" s="33"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
@@ -1838,9 +1841,9 @@
       <c r="A37" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B37" s="33"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
@@ -1858,9 +1861,9 @@
       <c r="A38" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
@@ -1878,9 +1881,9 @@
       <c r="A39" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B39" s="33"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
@@ -1898,9 +1901,9 @@
       <c r="A40" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B40" s="33"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
@@ -1918,9 +1921,9 @@
       <c r="A41" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B41" s="33"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
@@ -1938,9 +1941,9 @@
       <c r="A42" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="33"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
@@ -1958,9 +1961,9 @@
       <c r="A43" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B43" s="33"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
@@ -1978,9 +1981,9 @@
       <c r="A44" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B44" s="33"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
@@ -1998,9 +2001,9 @@
       <c r="A45" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B45" s="33"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
@@ -2018,9 +2021,9 @@
       <c r="A46" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B46" s="33"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
@@ -2038,9 +2041,9 @@
       <c r="A47" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B47" s="33"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
@@ -2058,9 +2061,9 @@
       <c r="A48" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B48" s="33"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
@@ -2078,9 +2081,9 @@
       <c r="A49" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B49" s="33"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
@@ -2098,9 +2101,9 @@
       <c r="A50" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="B50" s="33"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
@@ -2118,9 +2121,9 @@
       <c r="A51" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B51" s="33"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
@@ -2138,9 +2141,9 @@
       <c r="A52" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B52" s="33"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
@@ -2158,9 +2161,9 @@
       <c r="A53" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B53" s="33"/>
-      <c r="C53" s="35"/>
-      <c r="D53" s="35"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
@@ -2178,9 +2181,9 @@
       <c r="A54" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B54" s="33"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
@@ -2198,9 +2201,9 @@
       <c r="A55" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B55" s="33"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="35"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
@@ -2218,9 +2221,9 @@
       <c r="A56" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B56" s="33"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="35"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
@@ -2238,9 +2241,9 @@
       <c r="A57" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B57" s="33"/>
-      <c r="C57" s="35"/>
-      <c r="D57" s="35"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
@@ -2258,9 +2261,9 @@
       <c r="A58" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B58" s="33"/>
-      <c r="C58" s="35"/>
-      <c r="D58" s="35"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
@@ -2278,9 +2281,9 @@
       <c r="A59" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B59" s="33"/>
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="25"/>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
@@ -2298,9 +2301,9 @@
       <c r="A60" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B60" s="33"/>
-      <c r="C60" s="35"/>
-      <c r="D60" s="35"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="25"/>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
@@ -2318,9 +2321,9 @@
       <c r="A61" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B61" s="33"/>
-      <c r="C61" s="35"/>
-      <c r="D61" s="35"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="25"/>
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
@@ -2338,9 +2341,9 @@
       <c r="A62" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B62" s="33"/>
-      <c r="C62" s="35"/>
-      <c r="D62" s="35"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
@@ -2358,9 +2361,9 @@
       <c r="A63" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="B63" s="33"/>
-      <c r="C63" s="35"/>
-      <c r="D63" s="35"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
       <c r="G63" s="9"/>
@@ -2378,9 +2381,9 @@
       <c r="A64" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="B64" s="33"/>
-      <c r="C64" s="35"/>
-      <c r="D64" s="35"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="25"/>
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
       <c r="G64" s="9"/>
@@ -2398,9 +2401,9 @@
       <c r="A65" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="B65" s="33"/>
-      <c r="C65" s="35"/>
-      <c r="D65" s="35"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="25"/>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
       <c r="G65" s="9"/>
@@ -2418,9 +2421,9 @@
       <c r="A66" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="B66" s="33"/>
-      <c r="C66" s="35"/>
-      <c r="D66" s="35"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="25"/>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
@@ -2438,9 +2441,9 @@
       <c r="A67" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="33"/>
-      <c r="C67" s="35"/>
-      <c r="D67" s="35"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="25"/>
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
@@ -2458,9 +2461,9 @@
       <c r="A68" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="B68" s="33"/>
-      <c r="C68" s="35"/>
-      <c r="D68" s="35"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
@@ -2478,9 +2481,9 @@
       <c r="A69" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="B69" s="33"/>
-      <c r="C69" s="35"/>
-      <c r="D69" s="35"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="25"/>
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
@@ -2498,9 +2501,9 @@
       <c r="A70" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B70" s="33"/>
-      <c r="C70" s="35"/>
-      <c r="D70" s="35"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="25"/>
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
@@ -2518,9 +2521,9 @@
       <c r="A71" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="B71" s="33"/>
-      <c r="C71" s="35"/>
-      <c r="D71" s="35"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="25"/>
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
@@ -2538,9 +2541,9 @@
       <c r="A72" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="B72" s="33"/>
-      <c r="C72" s="35"/>
-      <c r="D72" s="35"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="25"/>
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
@@ -2558,9 +2561,9 @@
       <c r="A73" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="B73" s="33"/>
-      <c r="C73" s="35"/>
-      <c r="D73" s="35"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="25"/>
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
@@ -2578,9 +2581,9 @@
       <c r="A74" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="B74" s="33"/>
-      <c r="C74" s="35"/>
-      <c r="D74" s="35"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="25"/>
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
@@ -2598,9 +2601,9 @@
       <c r="A75" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="B75" s="33"/>
-      <c r="C75" s="35"/>
-      <c r="D75" s="35"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="25"/>
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
@@ -2618,9 +2621,9 @@
       <c r="A76" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="B76" s="33"/>
-      <c r="C76" s="35"/>
-      <c r="D76" s="35"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="25"/>
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
@@ -2638,9 +2641,9 @@
       <c r="A77" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="B77" s="33"/>
-      <c r="C77" s="35"/>
-      <c r="D77" s="35"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="25"/>
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
@@ -2658,9 +2661,9 @@
       <c r="A78" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B78" s="33"/>
-      <c r="C78" s="35"/>
-      <c r="D78" s="35"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="25"/>
       <c r="E78" s="9"/>
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
@@ -2678,9 +2681,9 @@
       <c r="A79" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="B79" s="33"/>
-      <c r="C79" s="35"/>
-      <c r="D79" s="35"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="25"/>
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
@@ -2698,9 +2701,9 @@
       <c r="A80" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="B80" s="33"/>
-      <c r="C80" s="35"/>
-      <c r="D80" s="35"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="25"/>
       <c r="E80" s="9"/>
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
@@ -2718,9 +2721,9 @@
       <c r="A81" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="B81" s="33"/>
-      <c r="C81" s="35"/>
-      <c r="D81" s="35"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="25"/>
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
@@ -2738,9 +2741,9 @@
       <c r="A82" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="B82" s="33"/>
-      <c r="C82" s="35"/>
-      <c r="D82" s="35"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="25"/>
       <c r="E82" s="9"/>
       <c r="F82" s="9"/>
       <c r="G82" s="9"/>
@@ -2758,9 +2761,9 @@
       <c r="A83" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="B83" s="33"/>
-      <c r="C83" s="35"/>
-      <c r="D83" s="35"/>
+      <c r="B83" s="23"/>
+      <c r="C83" s="25"/>
+      <c r="D83" s="25"/>
       <c r="E83" s="9"/>
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
@@ -2778,9 +2781,9 @@
       <c r="A84" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="B84" s="33"/>
-      <c r="C84" s="35"/>
-      <c r="D84" s="35"/>
+      <c r="B84" s="23"/>
+      <c r="C84" s="25"/>
+      <c r="D84" s="25"/>
       <c r="E84" s="9"/>
       <c r="F84" s="9"/>
       <c r="G84" s="9"/>
@@ -2798,9 +2801,9 @@
       <c r="A85" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="B85" s="33"/>
-      <c r="C85" s="35"/>
-      <c r="D85" s="35"/>
+      <c r="B85" s="23"/>
+      <c r="C85" s="25"/>
+      <c r="D85" s="25"/>
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
       <c r="G85" s="9"/>
@@ -2818,9 +2821,9 @@
       <c r="A86" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B86" s="33"/>
-      <c r="C86" s="35"/>
-      <c r="D86" s="35"/>
+      <c r="B86" s="23"/>
+      <c r="C86" s="25"/>
+      <c r="D86" s="25"/>
       <c r="E86" s="9"/>
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
@@ -2838,9 +2841,9 @@
       <c r="A87" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="B87" s="33"/>
-      <c r="C87" s="35"/>
-      <c r="D87" s="35"/>
+      <c r="B87" s="23"/>
+      <c r="C87" s="25"/>
+      <c r="D87" s="25"/>
       <c r="E87" s="9"/>
       <c r="F87" s="9"/>
       <c r="G87" s="9"/>
@@ -2858,9 +2861,9 @@
       <c r="A88" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="B88" s="33"/>
-      <c r="C88" s="35"/>
-      <c r="D88" s="35"/>
+      <c r="B88" s="23"/>
+      <c r="C88" s="25"/>
+      <c r="D88" s="25"/>
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
       <c r="G88" s="9"/>
@@ -2878,9 +2881,9 @@
       <c r="A89" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="B89" s="33"/>
-      <c r="C89" s="35"/>
-      <c r="D89" s="35"/>
+      <c r="B89" s="23"/>
+      <c r="C89" s="25"/>
+      <c r="D89" s="25"/>
       <c r="E89" s="9"/>
       <c r="F89" s="9"/>
       <c r="G89" s="9"/>
@@ -2898,9 +2901,9 @@
       <c r="A90" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="B90" s="33"/>
-      <c r="C90" s="35"/>
-      <c r="D90" s="35"/>
+      <c r="B90" s="23"/>
+      <c r="C90" s="25"/>
+      <c r="D90" s="25"/>
       <c r="E90" s="9"/>
       <c r="F90" s="9"/>
       <c r="G90" s="9"/>
@@ -2918,9 +2921,9 @@
       <c r="A91" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="B91" s="33"/>
-      <c r="C91" s="35"/>
-      <c r="D91" s="35"/>
+      <c r="B91" s="23"/>
+      <c r="C91" s="25"/>
+      <c r="D91" s="25"/>
       <c r="E91" s="9"/>
       <c r="F91" s="9"/>
       <c r="G91" s="9"/>
@@ -2938,9 +2941,9 @@
       <c r="A92" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="B92" s="33"/>
-      <c r="C92" s="35"/>
-      <c r="D92" s="35"/>
+      <c r="B92" s="23"/>
+      <c r="C92" s="25"/>
+      <c r="D92" s="25"/>
       <c r="E92" s="9"/>
       <c r="F92" s="9"/>
       <c r="G92" s="9"/>
@@ -2958,9 +2961,9 @@
       <c r="A93" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B93" s="33"/>
-      <c r="C93" s="35"/>
-      <c r="D93" s="35"/>
+      <c r="B93" s="23"/>
+      <c r="C93" s="25"/>
+      <c r="D93" s="25"/>
       <c r="E93" s="9"/>
       <c r="F93" s="9"/>
       <c r="G93" s="9"/>
@@ -2978,9 +2981,9 @@
       <c r="A94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B94" s="33"/>
-      <c r="C94" s="35"/>
-      <c r="D94" s="35"/>
+      <c r="B94" s="23"/>
+      <c r="C94" s="25"/>
+      <c r="D94" s="25"/>
       <c r="E94" s="9"/>
       <c r="F94" s="9"/>
       <c r="G94" s="9"/>
@@ -2998,9 +3001,9 @@
       <c r="A95" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B95" s="33"/>
-      <c r="C95" s="35"/>
-      <c r="D95" s="35"/>
+      <c r="B95" s="23"/>
+      <c r="C95" s="25"/>
+      <c r="D95" s="25"/>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
       <c r="G95" s="9"/>
@@ -3018,9 +3021,9 @@
       <c r="A96" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B96" s="33"/>
-      <c r="C96" s="35"/>
-      <c r="D96" s="35"/>
+      <c r="B96" s="23"/>
+      <c r="C96" s="25"/>
+      <c r="D96" s="25"/>
       <c r="E96" s="9"/>
       <c r="F96" s="9"/>
       <c r="G96" s="9"/>
@@ -3038,9 +3041,9 @@
       <c r="A97" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B97" s="33"/>
-      <c r="C97" s="35"/>
-      <c r="D97" s="35"/>
+      <c r="B97" s="23"/>
+      <c r="C97" s="25"/>
+      <c r="D97" s="25"/>
       <c r="E97" s="9"/>
       <c r="F97" s="9"/>
       <c r="G97" s="9"/>
@@ -3058,9 +3061,9 @@
       <c r="A98" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B98" s="33"/>
-      <c r="C98" s="35"/>
-      <c r="D98" s="35"/>
+      <c r="B98" s="23"/>
+      <c r="C98" s="25"/>
+      <c r="D98" s="25"/>
       <c r="E98" s="9"/>
       <c r="F98" s="9"/>
       <c r="G98" s="9"/>
@@ -3078,9 +3081,9 @@
       <c r="A99" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B99" s="33"/>
-      <c r="C99" s="35"/>
-      <c r="D99" s="35"/>
+      <c r="B99" s="23"/>
+      <c r="C99" s="25"/>
+      <c r="D99" s="25"/>
       <c r="E99" s="9"/>
       <c r="F99" s="9"/>
       <c r="G99" s="9"/>
@@ -3098,9 +3101,9 @@
       <c r="A100" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B100" s="33"/>
-      <c r="C100" s="35"/>
-      <c r="D100" s="35"/>
+      <c r="B100" s="23"/>
+      <c r="C100" s="25"/>
+      <c r="D100" s="25"/>
       <c r="E100" s="9"/>
       <c r="F100" s="9"/>
       <c r="G100" s="9"/>
@@ -3118,9 +3121,9 @@
       <c r="A101" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B101" s="33"/>
-      <c r="C101" s="35"/>
-      <c r="D101" s="35"/>
+      <c r="B101" s="23"/>
+      <c r="C101" s="25"/>
+      <c r="D101" s="25"/>
       <c r="E101" s="9"/>
       <c r="F101" s="9"/>
       <c r="G101" s="9"/>
@@ -3138,9 +3141,9 @@
       <c r="A102" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B102" s="33"/>
-      <c r="C102" s="35"/>
-      <c r="D102" s="35"/>
+      <c r="B102" s="23"/>
+      <c r="C102" s="25"/>
+      <c r="D102" s="25"/>
       <c r="E102" s="9"/>
       <c r="F102" s="9"/>
       <c r="G102" s="9"/>
@@ -3158,9 +3161,9 @@
       <c r="A103" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B103" s="33"/>
-      <c r="C103" s="35"/>
-      <c r="D103" s="35"/>
+      <c r="B103" s="23"/>
+      <c r="C103" s="25"/>
+      <c r="D103" s="25"/>
       <c r="E103" s="9"/>
       <c r="F103" s="9"/>
       <c r="G103" s="9"/>
@@ -3178,9 +3181,9 @@
       <c r="A104" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B104" s="33"/>
-      <c r="C104" s="35"/>
-      <c r="D104" s="35"/>
+      <c r="B104" s="23"/>
+      <c r="C104" s="25"/>
+      <c r="D104" s="25"/>
       <c r="E104" s="9"/>
       <c r="F104" s="9"/>
       <c r="G104" s="9"/>
@@ -3198,9 +3201,9 @@
       <c r="A105" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B105" s="33"/>
-      <c r="C105" s="35"/>
-      <c r="D105" s="35"/>
+      <c r="B105" s="23"/>
+      <c r="C105" s="25"/>
+      <c r="D105" s="25"/>
       <c r="E105" s="9"/>
       <c r="F105" s="9"/>
       <c r="G105" s="9"/>
@@ -3218,9 +3221,9 @@
       <c r="A106" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="B106" s="33"/>
-      <c r="C106" s="35"/>
-      <c r="D106" s="35"/>
+      <c r="B106" s="23"/>
+      <c r="C106" s="25"/>
+      <c r="D106" s="25"/>
       <c r="E106" s="9"/>
       <c r="F106" s="9"/>
       <c r="G106" s="9"/>
@@ -3238,9 +3241,9 @@
       <c r="A107" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B107" s="33"/>
-      <c r="C107" s="35"/>
-      <c r="D107" s="35"/>
+      <c r="B107" s="23"/>
+      <c r="C107" s="25"/>
+      <c r="D107" s="25"/>
       <c r="E107" s="9"/>
       <c r="F107" s="9"/>
       <c r="G107" s="9"/>
@@ -3258,9 +3261,9 @@
       <c r="A108" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B108" s="33"/>
-      <c r="C108" s="35"/>
-      <c r="D108" s="35"/>
+      <c r="B108" s="23"/>
+      <c r="C108" s="25"/>
+      <c r="D108" s="25"/>
       <c r="E108" s="9"/>
       <c r="F108" s="9"/>
       <c r="G108" s="9"/>
@@ -3278,9 +3281,9 @@
       <c r="A109" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B109" s="33"/>
-      <c r="C109" s="35"/>
-      <c r="D109" s="35"/>
+      <c r="B109" s="23"/>
+      <c r="C109" s="25"/>
+      <c r="D109" s="25"/>
       <c r="E109" s="9"/>
       <c r="F109" s="9"/>
       <c r="G109" s="9"/>
@@ -3298,9 +3301,9 @@
       <c r="A110" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="B110" s="33"/>
-      <c r="C110" s="35"/>
-      <c r="D110" s="35"/>
+      <c r="B110" s="23"/>
+      <c r="C110" s="25"/>
+      <c r="D110" s="25"/>
       <c r="E110" s="9"/>
       <c r="F110" s="9"/>
       <c r="G110" s="9"/>
@@ -3318,9 +3321,9 @@
       <c r="A111" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="B111" s="33"/>
-      <c r="C111" s="35"/>
-      <c r="D111" s="35"/>
+      <c r="B111" s="23"/>
+      <c r="C111" s="25"/>
+      <c r="D111" s="25"/>
       <c r="E111" s="9"/>
       <c r="F111" s="9"/>
       <c r="G111" s="9"/>
@@ -3338,9 +3341,9 @@
       <c r="A112" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B112" s="33"/>
-      <c r="C112" s="35"/>
-      <c r="D112" s="35"/>
+      <c r="B112" s="23"/>
+      <c r="C112" s="25"/>
+      <c r="D112" s="25"/>
       <c r="E112" s="9"/>
       <c r="F112" s="9"/>
       <c r="G112" s="9"/>
@@ -3358,9 +3361,9 @@
       <c r="A113" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B113" s="33"/>
-      <c r="C113" s="35"/>
-      <c r="D113" s="35"/>
+      <c r="B113" s="23"/>
+      <c r="C113" s="25"/>
+      <c r="D113" s="25"/>
       <c r="E113" s="9"/>
       <c r="F113" s="9"/>
       <c r="G113" s="9"/>
@@ -3378,9 +3381,9 @@
       <c r="A114" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="B114" s="33"/>
-      <c r="C114" s="35"/>
-      <c r="D114" s="35"/>
+      <c r="B114" s="23"/>
+      <c r="C114" s="25"/>
+      <c r="D114" s="25"/>
       <c r="E114" s="9"/>
       <c r="F114" s="9"/>
       <c r="G114" s="9"/>
@@ -3398,9 +3401,9 @@
       <c r="A115" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="B115" s="33"/>
-      <c r="C115" s="35"/>
-      <c r="D115" s="35"/>
+      <c r="B115" s="23"/>
+      <c r="C115" s="25"/>
+      <c r="D115" s="25"/>
       <c r="E115" s="9"/>
       <c r="F115" s="9"/>
       <c r="G115" s="9"/>
@@ -3418,9 +3421,9 @@
       <c r="A116" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="B116" s="33"/>
-      <c r="C116" s="35"/>
-      <c r="D116" s="35"/>
+      <c r="B116" s="23"/>
+      <c r="C116" s="25"/>
+      <c r="D116" s="25"/>
       <c r="E116" s="9"/>
       <c r="F116" s="9"/>
       <c r="G116" s="9"/>
@@ -3438,9 +3441,9 @@
       <c r="A117" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="B117" s="33"/>
-      <c r="C117" s="35"/>
-      <c r="D117" s="35"/>
+      <c r="B117" s="23"/>
+      <c r="C117" s="25"/>
+      <c r="D117" s="25"/>
       <c r="E117" s="9"/>
       <c r="F117" s="9"/>
       <c r="G117" s="9"/>
@@ -3458,9 +3461,9 @@
       <c r="A118" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B118" s="33"/>
-      <c r="C118" s="35"/>
-      <c r="D118" s="35"/>
+      <c r="B118" s="23"/>
+      <c r="C118" s="25"/>
+      <c r="D118" s="25"/>
       <c r="E118" s="9"/>
       <c r="F118" s="9"/>
       <c r="G118" s="9"/>
@@ -3478,9 +3481,9 @@
       <c r="A119" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B119" s="34"/>
-      <c r="C119" s="36"/>
-      <c r="D119" s="36"/>
+      <c r="B119" s="24"/>
+      <c r="C119" s="26"/>
+      <c r="D119" s="26"/>
     </row>
   </sheetData>
   <sortState ref="A48:A58">

--- a/folder/ДИСПЕТЧЕРА.xlsx
+++ b/folder/ДИСПЕТЧЕРА.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="330" windowWidth="19320" windowHeight="10515"/>
@@ -11,7 +11,7 @@
     <sheet name="Комментарии к расчету" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -469,11 +469,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -697,18 +697,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -727,12 +715,29 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -811,6 +816,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -845,6 +851,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1020,20 +1027,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F3"/>
+      <selection activeCell="L2" sqref="L2:L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="116.25" customHeight="1">
+    <row r="1" spans="1:16" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -1063,86 +1070,87 @@
       <c r="O1" s="9"/>
       <c r="P1" s="9"/>
     </row>
-    <row r="2" spans="1:16" ht="37.5" customHeight="1">
+    <row r="2" spans="1:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="34" t="s">
+      <c r="K2" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="34" t="s">
+      <c r="L2" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="36" t="s">
+      <c r="M2" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="36" t="s">
+      <c r="N2" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="31" t="s">
+      <c r="O2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="31" t="s">
+      <c r="P2" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="48" customHeight="1">
+    <row r="3" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="23"/>
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
-      <c r="E4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
@@ -1150,19 +1158,19 @@
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="P4" s="25"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>47</v>
       </c>
       <c r="B5" s="23"/>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
@@ -1170,19 +1178,19 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="P5" s="25"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>138</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -1190,19 +1198,19 @@
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="P6" s="25"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B7" s="23"/>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -1210,19 +1218,19 @@
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="P7" s="25"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="23"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -1230,19 +1238,19 @@
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="P8" s="25"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B9" s="23"/>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
@@ -1250,19 +1258,19 @@
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="P9" s="25"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
@@ -1270,19 +1278,19 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="P10" s="25"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
@@ -1290,19 +1298,19 @@
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="P11" s="25"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>43</v>
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
@@ -1310,19 +1318,19 @@
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="P12" s="25"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>144</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="25"/>
       <c r="D13" s="25"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
@@ -1330,19 +1338,19 @@
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="P13" s="25"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>44</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
@@ -1350,19 +1358,19 @@
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="P14" s="25"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>139</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
@@ -1370,19 +1378,19 @@
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="P15" s="25"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>45</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
@@ -1390,19 +1398,19 @@
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="P16" s="25"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>46</v>
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
@@ -1410,9 +1418,9 @@
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-    </row>
-    <row r="18" spans="1:16" ht="30">
+      <c r="P17" s="25"/>
+    </row>
+    <row r="18" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>48</v>
       </c>
@@ -1428,19 +1436,19 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E18" s="9" t="e">
+      <c r="E18" s="25" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F18" s="9" t="e">
+      <c r="F18" s="25" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G18" s="9" t="e">
+      <c r="G18" s="25" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="9" t="e">
+      <c r="H18" s="25" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -1472,22 +1480,22 @@
         <f>SUM(O5:O17)</f>
         <v>0</v>
       </c>
-      <c r="P18" s="9" t="e">
+      <c r="P18" s="25" t="e">
         <f>AVERAGE(P5:P17)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
@@ -1495,19 +1503,19 @@
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="P19" s="25"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>140</v>
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
@@ -1515,19 +1523,19 @@
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="P20" s="25"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>49</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
@@ -1535,19 +1543,19 @@
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-    </row>
-    <row r="22" spans="1:16">
+      <c r="P21" s="25"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>50</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
@@ -1555,19 +1563,19 @@
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-    </row>
-    <row r="23" spans="1:16">
+      <c r="P22" s="25"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>51</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
@@ -1575,19 +1583,19 @@
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-    </row>
-    <row r="24" spans="1:16">
+      <c r="P23" s="25"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>52</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
@@ -1595,19 +1603,19 @@
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-    </row>
-    <row r="25" spans="1:16">
+      <c r="P24" s="25"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
@@ -1615,19 +1623,19 @@
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-    </row>
-    <row r="26" spans="1:16">
+      <c r="P25" s="25"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
@@ -1635,19 +1643,19 @@
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
       <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-    </row>
-    <row r="27" spans="1:16">
+      <c r="P26" s="25"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="23"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
@@ -1655,19 +1663,19 @@
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
       <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-    </row>
-    <row r="28" spans="1:16">
+      <c r="P27" s="25"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>56</v>
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
@@ -1675,19 +1683,19 @@
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
       <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-    </row>
-    <row r="29" spans="1:16">
+      <c r="P28" s="25"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>57</v>
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
@@ -1695,19 +1703,19 @@
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
       <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-    </row>
-    <row r="30" spans="1:16">
+      <c r="P29" s="25"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>141</v>
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
@@ -1715,19 +1723,19 @@
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
       <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-    </row>
-    <row r="31" spans="1:16" ht="30">
+      <c r="P30" s="25"/>
+    </row>
+    <row r="31" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>59</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
@@ -1735,19 +1743,19 @@
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
       <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-    </row>
-    <row r="32" spans="1:16">
+      <c r="P31" s="25"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>71</v>
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
@@ -1755,19 +1763,19 @@
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
       <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-    </row>
-    <row r="33" spans="1:16">
+      <c r="P32" s="25"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>60</v>
       </c>
       <c r="B33" s="23"/>
       <c r="C33" s="25"/>
       <c r="D33" s="25"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
@@ -1775,19 +1783,19 @@
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
       <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-    </row>
-    <row r="34" spans="1:16">
+      <c r="P33" s="25"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>61</v>
       </c>
       <c r="B34" s="23"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
@@ -1795,19 +1803,19 @@
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
       <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-    </row>
-    <row r="35" spans="1:16">
+      <c r="P34" s="25"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>62</v>
       </c>
       <c r="B35" s="23"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
@@ -1815,19 +1823,19 @@
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
       <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-    </row>
-    <row r="36" spans="1:16">
+      <c r="P35" s="25"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>63</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
@@ -1835,19 +1843,19 @@
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-    </row>
-    <row r="37" spans="1:16">
+      <c r="P36" s="25"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>64</v>
       </c>
       <c r="B37" s="23"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
@@ -1855,19 +1863,19 @@
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-    </row>
-    <row r="38" spans="1:16">
+      <c r="P37" s="25"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>65</v>
       </c>
       <c r="B38" s="23"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
@@ -1875,19 +1883,19 @@
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-    </row>
-    <row r="39" spans="1:16">
+      <c r="P38" s="25"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>65</v>
       </c>
       <c r="B39" s="23"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
@@ -1895,19 +1903,19 @@
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
       <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-    </row>
-    <row r="40" spans="1:16">
+      <c r="P39" s="25"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>66</v>
       </c>
       <c r="B40" s="23"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
@@ -1915,19 +1923,19 @@
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
       <c r="O40" s="9"/>
-      <c r="P40" s="9"/>
-    </row>
-    <row r="41" spans="1:16">
+      <c r="P40" s="25"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>67</v>
       </c>
       <c r="B41" s="23"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
@@ -1935,19 +1943,19 @@
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
       <c r="O41" s="9"/>
-      <c r="P41" s="9"/>
-    </row>
-    <row r="42" spans="1:16">
+      <c r="P41" s="25"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>67</v>
       </c>
       <c r="B42" s="23"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
@@ -1955,19 +1963,19 @@
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
       <c r="O42" s="9"/>
-      <c r="P42" s="9"/>
-    </row>
-    <row r="43" spans="1:16">
+      <c r="P42" s="25"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>68</v>
       </c>
       <c r="B43" s="23"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
@@ -1975,19 +1983,19 @@
       <c r="M43" s="9"/>
       <c r="N43" s="9"/>
       <c r="O43" s="9"/>
-      <c r="P43" s="9"/>
-    </row>
-    <row r="44" spans="1:16">
+      <c r="P43" s="25"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>69</v>
       </c>
       <c r="B44" s="23"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
@@ -1995,19 +2003,19 @@
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
       <c r="O44" s="9"/>
-      <c r="P44" s="9"/>
-    </row>
-    <row r="45" spans="1:16">
+      <c r="P44" s="25"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B45" s="23"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
@@ -2015,19 +2023,19 @@
       <c r="M45" s="9"/>
       <c r="N45" s="9"/>
       <c r="O45" s="9"/>
-      <c r="P45" s="9"/>
-    </row>
-    <row r="46" spans="1:16" ht="30">
+      <c r="P45" s="25"/>
+    </row>
+    <row r="46" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
         <v>72</v>
       </c>
       <c r="B46" s="23"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
@@ -2035,19 +2043,19 @@
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
       <c r="O46" s="9"/>
-      <c r="P46" s="9"/>
-    </row>
-    <row r="47" spans="1:16">
+      <c r="P46" s="25"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
         <v>82</v>
       </c>
       <c r="B47" s="23"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
@@ -2055,19 +2063,19 @@
       <c r="M47" s="9"/>
       <c r="N47" s="9"/>
       <c r="O47" s="9"/>
-      <c r="P47" s="9"/>
-    </row>
-    <row r="48" spans="1:16">
+      <c r="P47" s="25"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>73</v>
       </c>
       <c r="B48" s="23"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
@@ -2075,19 +2083,19 @@
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
       <c r="O48" s="9"/>
-      <c r="P48" s="9"/>
-    </row>
-    <row r="49" spans="1:16">
+      <c r="P48" s="25"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>74</v>
       </c>
       <c r="B49" s="23"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
@@ -2095,19 +2103,19 @@
       <c r="M49" s="9"/>
       <c r="N49" s="9"/>
       <c r="O49" s="9"/>
-      <c r="P49" s="9"/>
-    </row>
-    <row r="50" spans="1:16">
+      <c r="P49" s="25"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>142</v>
       </c>
       <c r="B50" s="23"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
@@ -2115,19 +2123,19 @@
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
       <c r="O50" s="9"/>
-      <c r="P50" s="9"/>
-    </row>
-    <row r="51" spans="1:16">
+      <c r="P50" s="25"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>75</v>
       </c>
       <c r="B51" s="23"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
@@ -2135,19 +2143,19 @@
       <c r="M51" s="9"/>
       <c r="N51" s="9"/>
       <c r="O51" s="9"/>
-      <c r="P51" s="9"/>
-    </row>
-    <row r="52" spans="1:16">
+      <c r="P51" s="25"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>76</v>
       </c>
       <c r="B52" s="23"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
@@ -2155,19 +2163,19 @@
       <c r="M52" s="9"/>
       <c r="N52" s="9"/>
       <c r="O52" s="9"/>
-      <c r="P52" s="9"/>
-    </row>
-    <row r="53" spans="1:16">
+      <c r="P52" s="25"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>77</v>
       </c>
       <c r="B53" s="23"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
@@ -2175,19 +2183,19 @@
       <c r="M53" s="9"/>
       <c r="N53" s="9"/>
       <c r="O53" s="9"/>
-      <c r="P53" s="9"/>
-    </row>
-    <row r="54" spans="1:16">
+      <c r="P53" s="25"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>143</v>
       </c>
       <c r="B54" s="23"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
@@ -2195,19 +2203,19 @@
       <c r="M54" s="9"/>
       <c r="N54" s="9"/>
       <c r="O54" s="9"/>
-      <c r="P54" s="9"/>
-    </row>
-    <row r="55" spans="1:16">
+      <c r="P54" s="25"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>78</v>
       </c>
       <c r="B55" s="23"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
@@ -2215,19 +2223,19 @@
       <c r="M55" s="9"/>
       <c r="N55" s="9"/>
       <c r="O55" s="9"/>
-      <c r="P55" s="9"/>
-    </row>
-    <row r="56" spans="1:16">
+      <c r="P55" s="25"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>79</v>
       </c>
       <c r="B56" s="23"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
@@ -2235,19 +2243,19 @@
       <c r="M56" s="9"/>
       <c r="N56" s="9"/>
       <c r="O56" s="9"/>
-      <c r="P56" s="9"/>
-    </row>
-    <row r="57" spans="1:16">
+      <c r="P56" s="25"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>80</v>
       </c>
       <c r="B57" s="23"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
@@ -2255,19 +2263,19 @@
       <c r="M57" s="9"/>
       <c r="N57" s="9"/>
       <c r="O57" s="9"/>
-      <c r="P57" s="9"/>
-    </row>
-    <row r="58" spans="1:16">
+      <c r="P57" s="25"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>81</v>
       </c>
       <c r="B58" s="23"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
@@ -2275,19 +2283,19 @@
       <c r="M58" s="9"/>
       <c r="N58" s="9"/>
       <c r="O58" s="9"/>
-      <c r="P58" s="9"/>
-    </row>
-    <row r="59" spans="1:16" ht="30">
+      <c r="P58" s="25"/>
+    </row>
+    <row r="59" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
         <v>83</v>
       </c>
       <c r="B59" s="23"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
@@ -2295,19 +2303,19 @@
       <c r="M59" s="9"/>
       <c r="N59" s="9"/>
       <c r="O59" s="9"/>
-      <c r="P59" s="9"/>
-    </row>
-    <row r="60" spans="1:16">
+      <c r="P59" s="25"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B60" s="23"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
@@ -2315,19 +2323,19 @@
       <c r="M60" s="9"/>
       <c r="N60" s="9"/>
       <c r="O60" s="9"/>
-      <c r="P60" s="9"/>
-    </row>
-    <row r="61" spans="1:16">
+      <c r="P60" s="25"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B61" s="23"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
@@ -2335,19 +2343,19 @@
       <c r="M61" s="9"/>
       <c r="N61" s="9"/>
       <c r="O61" s="9"/>
-      <c r="P61" s="9"/>
-    </row>
-    <row r="62" spans="1:16">
+      <c r="P61" s="25"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B62" s="23"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
@@ -2355,19 +2363,19 @@
       <c r="M62" s="9"/>
       <c r="N62" s="9"/>
       <c r="O62" s="9"/>
-      <c r="P62" s="9"/>
-    </row>
-    <row r="63" spans="1:16">
+      <c r="P62" s="25"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="20" t="s">
         <v>84</v>
       </c>
       <c r="B63" s="23"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="25"/>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
@@ -2375,19 +2383,19 @@
       <c r="M63" s="9"/>
       <c r="N63" s="9"/>
       <c r="O63" s="9"/>
-      <c r="P63" s="9"/>
-    </row>
-    <row r="64" spans="1:16">
+      <c r="P63" s="25"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="21" t="s">
         <v>85</v>
       </c>
       <c r="B64" s="23"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
@@ -2395,19 +2403,19 @@
       <c r="M64" s="9"/>
       <c r="N64" s="9"/>
       <c r="O64" s="9"/>
-      <c r="P64" s="9"/>
-    </row>
-    <row r="65" spans="1:16">
+      <c r="P64" s="25"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="21" t="s">
         <v>86</v>
       </c>
       <c r="B65" s="23"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="25"/>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
@@ -2415,19 +2423,19 @@
       <c r="M65" s="9"/>
       <c r="N65" s="9"/>
       <c r="O65" s="9"/>
-      <c r="P65" s="9"/>
-    </row>
-    <row r="66" spans="1:16">
+      <c r="P65" s="25"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="21" t="s">
         <v>87</v>
       </c>
       <c r="B66" s="23"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
@@ -2435,19 +2443,19 @@
       <c r="M66" s="9"/>
       <c r="N66" s="9"/>
       <c r="O66" s="9"/>
-      <c r="P66" s="9"/>
-    </row>
-    <row r="67" spans="1:16">
+      <c r="P66" s="25"/>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="21" t="s">
         <v>88</v>
       </c>
       <c r="B67" s="23"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
@@ -2455,19 +2463,19 @@
       <c r="M67" s="9"/>
       <c r="N67" s="9"/>
       <c r="O67" s="9"/>
-      <c r="P67" s="9"/>
-    </row>
-    <row r="68" spans="1:16">
+      <c r="P67" s="25"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="20" t="s">
         <v>89</v>
       </c>
       <c r="B68" s="23"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="25"/>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
@@ -2475,19 +2483,19 @@
       <c r="M68" s="9"/>
       <c r="N68" s="9"/>
       <c r="O68" s="9"/>
-      <c r="P68" s="9"/>
-    </row>
-    <row r="69" spans="1:16" ht="30">
+      <c r="P68" s="25"/>
+    </row>
+    <row r="69" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
         <v>91</v>
       </c>
       <c r="B69" s="23"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
@@ -2495,19 +2503,19 @@
       <c r="M69" s="9"/>
       <c r="N69" s="9"/>
       <c r="O69" s="9"/>
-      <c r="P69" s="9"/>
-    </row>
-    <row r="70" spans="1:16">
+      <c r="P69" s="25"/>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B70" s="23"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
@@ -2515,19 +2523,19 @@
       <c r="M70" s="9"/>
       <c r="N70" s="9"/>
       <c r="O70" s="9"/>
-      <c r="P70" s="9"/>
-    </row>
-    <row r="71" spans="1:16">
+      <c r="P70" s="25"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="21" t="s">
         <v>93</v>
       </c>
       <c r="B71" s="23"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="25"/>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
@@ -2535,19 +2543,19 @@
       <c r="M71" s="9"/>
       <c r="N71" s="9"/>
       <c r="O71" s="9"/>
-      <c r="P71" s="9"/>
-    </row>
-    <row r="72" spans="1:16">
+      <c r="P71" s="25"/>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="21" t="s">
         <v>94</v>
       </c>
       <c r="B72" s="23"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="25"/>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
@@ -2555,19 +2563,19 @@
       <c r="M72" s="9"/>
       <c r="N72" s="9"/>
       <c r="O72" s="9"/>
-      <c r="P72" s="9"/>
-    </row>
-    <row r="73" spans="1:16">
+      <c r="P72" s="25"/>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="21" t="s">
         <v>95</v>
       </c>
       <c r="B73" s="23"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="25"/>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
@@ -2575,19 +2583,19 @@
       <c r="M73" s="9"/>
       <c r="N73" s="9"/>
       <c r="O73" s="9"/>
-      <c r="P73" s="9"/>
-    </row>
-    <row r="74" spans="1:16">
+      <c r="P73" s="25"/>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="22" t="s">
         <v>96</v>
       </c>
       <c r="B74" s="23"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="25"/>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
@@ -2595,19 +2603,19 @@
       <c r="M74" s="9"/>
       <c r="N74" s="9"/>
       <c r="O74" s="9"/>
-      <c r="P74" s="9"/>
-    </row>
-    <row r="75" spans="1:16">
+      <c r="P74" s="25"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="21" t="s">
         <v>97</v>
       </c>
       <c r="B75" s="23"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
@@ -2615,19 +2623,19 @@
       <c r="M75" s="9"/>
       <c r="N75" s="9"/>
       <c r="O75" s="9"/>
-      <c r="P75" s="9"/>
-    </row>
-    <row r="76" spans="1:16">
+      <c r="P75" s="25"/>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="20" t="s">
         <v>98</v>
       </c>
       <c r="B76" s="23"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="9"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
@@ -2635,19 +2643,19 @@
       <c r="M76" s="9"/>
       <c r="N76" s="9"/>
       <c r="O76" s="9"/>
-      <c r="P76" s="9"/>
-    </row>
-    <row r="77" spans="1:16" ht="30">
+      <c r="P76" s="25"/>
+    </row>
+    <row r="77" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
         <v>99</v>
       </c>
       <c r="B77" s="23"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
+      <c r="E77" s="25"/>
+      <c r="F77" s="25"/>
+      <c r="G77" s="25"/>
+      <c r="H77" s="25"/>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
@@ -2655,19 +2663,19 @@
       <c r="M77" s="9"/>
       <c r="N77" s="9"/>
       <c r="O77" s="9"/>
-      <c r="P77" s="9"/>
-    </row>
-    <row r="78" spans="1:16">
+      <c r="P77" s="25"/>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B78" s="23"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
@@ -2675,19 +2683,19 @@
       <c r="M78" s="9"/>
       <c r="N78" s="9"/>
       <c r="O78" s="9"/>
-      <c r="P78" s="9"/>
-    </row>
-    <row r="79" spans="1:16">
+      <c r="P78" s="25"/>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="21" t="s">
         <v>101</v>
       </c>
       <c r="B79" s="23"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="25"/>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
@@ -2695,19 +2703,19 @@
       <c r="M79" s="9"/>
       <c r="N79" s="9"/>
       <c r="O79" s="9"/>
-      <c r="P79" s="9"/>
-    </row>
-    <row r="80" spans="1:16">
+      <c r="P79" s="25"/>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="21" t="s">
         <v>102</v>
       </c>
       <c r="B80" s="23"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="9"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="25"/>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
@@ -2715,19 +2723,19 @@
       <c r="M80" s="9"/>
       <c r="N80" s="9"/>
       <c r="O80" s="9"/>
-      <c r="P80" s="9"/>
-    </row>
-    <row r="81" spans="1:16">
+      <c r="P80" s="25"/>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="21" t="s">
         <v>103</v>
       </c>
       <c r="B81" s="23"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="9"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="25"/>
+      <c r="H81" s="25"/>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
@@ -2735,19 +2743,19 @@
       <c r="M81" s="9"/>
       <c r="N81" s="9"/>
       <c r="O81" s="9"/>
-      <c r="P81" s="9"/>
-    </row>
-    <row r="82" spans="1:16">
+      <c r="P81" s="25"/>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="21" t="s">
         <v>104</v>
       </c>
       <c r="B82" s="23"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="9"/>
+      <c r="E82" s="25"/>
+      <c r="F82" s="25"/>
+      <c r="G82" s="25"/>
+      <c r="H82" s="25"/>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
@@ -2755,19 +2763,19 @@
       <c r="M82" s="9"/>
       <c r="N82" s="9"/>
       <c r="O82" s="9"/>
-      <c r="P82" s="9"/>
-    </row>
-    <row r="83" spans="1:16">
+      <c r="P82" s="25"/>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="20" t="s">
         <v>105</v>
       </c>
       <c r="B83" s="23"/>
       <c r="C83" s="25"/>
       <c r="D83" s="25"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="9"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="25"/>
+      <c r="H83" s="25"/>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
@@ -2775,19 +2783,19 @@
       <c r="M83" s="9"/>
       <c r="N83" s="9"/>
       <c r="O83" s="9"/>
-      <c r="P83" s="9"/>
-    </row>
-    <row r="84" spans="1:16">
+      <c r="P83" s="25"/>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="20" t="s">
         <v>106</v>
       </c>
       <c r="B84" s="23"/>
       <c r="C84" s="25"/>
       <c r="D84" s="25"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
-      <c r="H84" s="9"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
@@ -2795,19 +2803,19 @@
       <c r="M84" s="9"/>
       <c r="N84" s="9"/>
       <c r="O84" s="9"/>
-      <c r="P84" s="9"/>
-    </row>
-    <row r="85" spans="1:16" ht="30">
+      <c r="P84" s="25"/>
+    </row>
+    <row r="85" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="16" t="s">
         <v>107</v>
       </c>
       <c r="B85" s="23"/>
       <c r="C85" s="25"/>
       <c r="D85" s="25"/>
-      <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9"/>
-      <c r="H85" s="9"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="25"/>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
@@ -2815,19 +2823,19 @@
       <c r="M85" s="9"/>
       <c r="N85" s="9"/>
       <c r="O85" s="9"/>
-      <c r="P85" s="9"/>
-    </row>
-    <row r="86" spans="1:16">
+      <c r="P85" s="25"/>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B86" s="23"/>
       <c r="C86" s="25"/>
       <c r="D86" s="25"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
-      <c r="H86" s="9"/>
+      <c r="E86" s="25"/>
+      <c r="F86" s="25"/>
+      <c r="G86" s="25"/>
+      <c r="H86" s="25"/>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
@@ -2835,19 +2843,19 @@
       <c r="M86" s="9"/>
       <c r="N86" s="9"/>
       <c r="O86" s="9"/>
-      <c r="P86" s="9"/>
-    </row>
-    <row r="87" spans="1:16">
+      <c r="P86" s="25"/>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="21" t="s">
         <v>109</v>
       </c>
       <c r="B87" s="23"/>
       <c r="C87" s="25"/>
       <c r="D87" s="25"/>
-      <c r="E87" s="9"/>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9"/>
-      <c r="H87" s="9"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="25"/>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
@@ -2855,19 +2863,19 @@
       <c r="M87" s="9"/>
       <c r="N87" s="9"/>
       <c r="O87" s="9"/>
-      <c r="P87" s="9"/>
-    </row>
-    <row r="88" spans="1:16">
+      <c r="P87" s="25"/>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="21" t="s">
         <v>110</v>
       </c>
       <c r="B88" s="23"/>
       <c r="C88" s="25"/>
       <c r="D88" s="25"/>
-      <c r="E88" s="9"/>
-      <c r="F88" s="9"/>
-      <c r="G88" s="9"/>
-      <c r="H88" s="9"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="25"/>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
@@ -2875,19 +2883,19 @@
       <c r="M88" s="9"/>
       <c r="N88" s="9"/>
       <c r="O88" s="9"/>
-      <c r="P88" s="9"/>
-    </row>
-    <row r="89" spans="1:16">
+      <c r="P88" s="25"/>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="21" t="s">
         <v>111</v>
       </c>
       <c r="B89" s="23"/>
       <c r="C89" s="25"/>
       <c r="D89" s="25"/>
-      <c r="E89" s="9"/>
-      <c r="F89" s="9"/>
-      <c r="G89" s="9"/>
-      <c r="H89" s="9"/>
+      <c r="E89" s="25"/>
+      <c r="F89" s="25"/>
+      <c r="G89" s="25"/>
+      <c r="H89" s="25"/>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
@@ -2895,19 +2903,19 @@
       <c r="M89" s="9"/>
       <c r="N89" s="9"/>
       <c r="O89" s="9"/>
-      <c r="P89" s="9"/>
-    </row>
-    <row r="90" spans="1:16">
+      <c r="P89" s="25"/>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="21" t="s">
         <v>112</v>
       </c>
       <c r="B90" s="23"/>
       <c r="C90" s="25"/>
       <c r="D90" s="25"/>
-      <c r="E90" s="9"/>
-      <c r="F90" s="9"/>
-      <c r="G90" s="9"/>
-      <c r="H90" s="9"/>
+      <c r="E90" s="25"/>
+      <c r="F90" s="25"/>
+      <c r="G90" s="25"/>
+      <c r="H90" s="25"/>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
@@ -2915,19 +2923,19 @@
       <c r="M90" s="9"/>
       <c r="N90" s="9"/>
       <c r="O90" s="9"/>
-      <c r="P90" s="9"/>
-    </row>
-    <row r="91" spans="1:16">
+      <c r="P90" s="25"/>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="20" t="s">
         <v>113</v>
       </c>
       <c r="B91" s="23"/>
       <c r="C91" s="25"/>
       <c r="D91" s="25"/>
-      <c r="E91" s="9"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
-      <c r="H91" s="9"/>
+      <c r="E91" s="25"/>
+      <c r="F91" s="25"/>
+      <c r="G91" s="25"/>
+      <c r="H91" s="25"/>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
@@ -2935,19 +2943,19 @@
       <c r="M91" s="9"/>
       <c r="N91" s="9"/>
       <c r="O91" s="9"/>
-      <c r="P91" s="9"/>
-    </row>
-    <row r="92" spans="1:16">
+      <c r="P91" s="25"/>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="21" t="s">
         <v>114</v>
       </c>
       <c r="B92" s="23"/>
       <c r="C92" s="25"/>
       <c r="D92" s="25"/>
-      <c r="E92" s="9"/>
-      <c r="F92" s="9"/>
-      <c r="G92" s="9"/>
-      <c r="H92" s="9"/>
+      <c r="E92" s="25"/>
+      <c r="F92" s="25"/>
+      <c r="G92" s="25"/>
+      <c r="H92" s="25"/>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
@@ -2955,19 +2963,19 @@
       <c r="M92" s="9"/>
       <c r="N92" s="9"/>
       <c r="O92" s="9"/>
-      <c r="P92" s="9"/>
-    </row>
-    <row r="93" spans="1:16" ht="30">
+      <c r="P92" s="25"/>
+    </row>
+    <row r="93" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="16" t="s">
         <v>115</v>
       </c>
       <c r="B93" s="23"/>
       <c r="C93" s="25"/>
       <c r="D93" s="25"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="9"/>
-      <c r="G93" s="9"/>
-      <c r="H93" s="9"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="25"/>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
@@ -2975,19 +2983,19 @@
       <c r="M93" s="9"/>
       <c r="N93" s="9"/>
       <c r="O93" s="9"/>
-      <c r="P93" s="9"/>
-    </row>
-    <row r="94" spans="1:16">
+      <c r="P93" s="25"/>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B94" s="23"/>
       <c r="C94" s="25"/>
       <c r="D94" s="25"/>
-      <c r="E94" s="9"/>
-      <c r="F94" s="9"/>
-      <c r="G94" s="9"/>
-      <c r="H94" s="9"/>
+      <c r="E94" s="25"/>
+      <c r="F94" s="25"/>
+      <c r="G94" s="25"/>
+      <c r="H94" s="25"/>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
@@ -2995,19 +3003,19 @@
       <c r="M94" s="9"/>
       <c r="N94" s="9"/>
       <c r="O94" s="9"/>
-      <c r="P94" s="9"/>
-    </row>
-    <row r="95" spans="1:16">
+      <c r="P94" s="25"/>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B95" s="23"/>
       <c r="C95" s="25"/>
       <c r="D95" s="25"/>
-      <c r="E95" s="9"/>
-      <c r="F95" s="9"/>
-      <c r="G95" s="9"/>
-      <c r="H95" s="9"/>
+      <c r="E95" s="25"/>
+      <c r="F95" s="25"/>
+      <c r="G95" s="25"/>
+      <c r="H95" s="25"/>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
@@ -3015,19 +3023,19 @@
       <c r="M95" s="9"/>
       <c r="N95" s="9"/>
       <c r="O95" s="9"/>
-      <c r="P95" s="9"/>
-    </row>
-    <row r="96" spans="1:16">
+      <c r="P95" s="25"/>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>116</v>
       </c>
       <c r="B96" s="23"/>
       <c r="C96" s="25"/>
       <c r="D96" s="25"/>
-      <c r="E96" s="9"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="9"/>
-      <c r="H96" s="9"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="25"/>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
@@ -3035,19 +3043,19 @@
       <c r="M96" s="9"/>
       <c r="N96" s="9"/>
       <c r="O96" s="9"/>
-      <c r="P96" s="9"/>
-    </row>
-    <row r="97" spans="1:16">
+      <c r="P96" s="25"/>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
         <v>117</v>
       </c>
       <c r="B97" s="23"/>
       <c r="C97" s="25"/>
       <c r="D97" s="25"/>
-      <c r="E97" s="9"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="9"/>
-      <c r="H97" s="9"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="25"/>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
@@ -3055,19 +3063,19 @@
       <c r="M97" s="9"/>
       <c r="N97" s="9"/>
       <c r="O97" s="9"/>
-      <c r="P97" s="9"/>
-    </row>
-    <row r="98" spans="1:16">
+      <c r="P97" s="25"/>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B98" s="23"/>
       <c r="C98" s="25"/>
       <c r="D98" s="25"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="9"/>
-      <c r="G98" s="9"/>
-      <c r="H98" s="9"/>
+      <c r="E98" s="25"/>
+      <c r="F98" s="25"/>
+      <c r="G98" s="25"/>
+      <c r="H98" s="25"/>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
@@ -3075,19 +3083,19 @@
       <c r="M98" s="9"/>
       <c r="N98" s="9"/>
       <c r="O98" s="9"/>
-      <c r="P98" s="9"/>
-    </row>
-    <row r="99" spans="1:16">
+      <c r="P98" s="25"/>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
         <v>119</v>
       </c>
       <c r="B99" s="23"/>
       <c r="C99" s="25"/>
       <c r="D99" s="25"/>
-      <c r="E99" s="9"/>
-      <c r="F99" s="9"/>
-      <c r="G99" s="9"/>
-      <c r="H99" s="9"/>
+      <c r="E99" s="25"/>
+      <c r="F99" s="25"/>
+      <c r="G99" s="25"/>
+      <c r="H99" s="25"/>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
@@ -3095,19 +3103,19 @@
       <c r="M99" s="9"/>
       <c r="N99" s="9"/>
       <c r="O99" s="9"/>
-      <c r="P99" s="9"/>
-    </row>
-    <row r="100" spans="1:16">
+      <c r="P99" s="25"/>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
         <v>120</v>
       </c>
       <c r="B100" s="23"/>
       <c r="C100" s="25"/>
       <c r="D100" s="25"/>
-      <c r="E100" s="9"/>
-      <c r="F100" s="9"/>
-      <c r="G100" s="9"/>
-      <c r="H100" s="9"/>
+      <c r="E100" s="25"/>
+      <c r="F100" s="25"/>
+      <c r="G100" s="25"/>
+      <c r="H100" s="25"/>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
@@ -3115,19 +3123,19 @@
       <c r="M100" s="9"/>
       <c r="N100" s="9"/>
       <c r="O100" s="9"/>
-      <c r="P100" s="9"/>
-    </row>
-    <row r="101" spans="1:16">
+      <c r="P100" s="25"/>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
         <v>121</v>
       </c>
       <c r="B101" s="23"/>
       <c r="C101" s="25"/>
       <c r="D101" s="25"/>
-      <c r="E101" s="9"/>
-      <c r="F101" s="9"/>
-      <c r="G101" s="9"/>
-      <c r="H101" s="9"/>
+      <c r="E101" s="25"/>
+      <c r="F101" s="25"/>
+      <c r="G101" s="25"/>
+      <c r="H101" s="25"/>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
@@ -3135,19 +3143,19 @@
       <c r="M101" s="9"/>
       <c r="N101" s="9"/>
       <c r="O101" s="9"/>
-      <c r="P101" s="9"/>
-    </row>
-    <row r="102" spans="1:16">
+      <c r="P101" s="25"/>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
         <v>122</v>
       </c>
       <c r="B102" s="23"/>
       <c r="C102" s="25"/>
       <c r="D102" s="25"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="9"/>
-      <c r="G102" s="9"/>
-      <c r="H102" s="9"/>
+      <c r="E102" s="25"/>
+      <c r="F102" s="25"/>
+      <c r="G102" s="25"/>
+      <c r="H102" s="25"/>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
@@ -3155,19 +3163,19 @@
       <c r="M102" s="9"/>
       <c r="N102" s="9"/>
       <c r="O102" s="9"/>
-      <c r="P102" s="9"/>
-    </row>
-    <row r="103" spans="1:16">
+      <c r="P102" s="25"/>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
         <v>123</v>
       </c>
       <c r="B103" s="23"/>
       <c r="C103" s="25"/>
       <c r="D103" s="25"/>
-      <c r="E103" s="9"/>
-      <c r="F103" s="9"/>
-      <c r="G103" s="9"/>
-      <c r="H103" s="9"/>
+      <c r="E103" s="25"/>
+      <c r="F103" s="25"/>
+      <c r="G103" s="25"/>
+      <c r="H103" s="25"/>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
@@ -3175,19 +3183,19 @@
       <c r="M103" s="9"/>
       <c r="N103" s="9"/>
       <c r="O103" s="9"/>
-      <c r="P103" s="9"/>
-    </row>
-    <row r="104" spans="1:16">
+      <c r="P103" s="25"/>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
         <v>124</v>
       </c>
       <c r="B104" s="23"/>
       <c r="C104" s="25"/>
       <c r="D104" s="25"/>
-      <c r="E104" s="9"/>
-      <c r="F104" s="9"/>
-      <c r="G104" s="9"/>
-      <c r="H104" s="9"/>
+      <c r="E104" s="25"/>
+      <c r="F104" s="25"/>
+      <c r="G104" s="25"/>
+      <c r="H104" s="25"/>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
@@ -3195,19 +3203,19 @@
       <c r="M104" s="9"/>
       <c r="N104" s="9"/>
       <c r="O104" s="9"/>
-      <c r="P104" s="9"/>
-    </row>
-    <row r="105" spans="1:16">
+      <c r="P104" s="25"/>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
         <v>125</v>
       </c>
       <c r="B105" s="23"/>
       <c r="C105" s="25"/>
       <c r="D105" s="25"/>
-      <c r="E105" s="9"/>
-      <c r="F105" s="9"/>
-      <c r="G105" s="9"/>
-      <c r="H105" s="9"/>
+      <c r="E105" s="25"/>
+      <c r="F105" s="25"/>
+      <c r="G105" s="25"/>
+      <c r="H105" s="25"/>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
@@ -3215,19 +3223,19 @@
       <c r="M105" s="9"/>
       <c r="N105" s="9"/>
       <c r="O105" s="9"/>
-      <c r="P105" s="9"/>
-    </row>
-    <row r="106" spans="1:16" ht="30">
+      <c r="P105" s="25"/>
+    </row>
+    <row r="106" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="16" t="s">
         <v>126</v>
       </c>
       <c r="B106" s="23"/>
       <c r="C106" s="25"/>
       <c r="D106" s="25"/>
-      <c r="E106" s="9"/>
-      <c r="F106" s="9"/>
-      <c r="G106" s="9"/>
-      <c r="H106" s="9"/>
+      <c r="E106" s="25"/>
+      <c r="F106" s="25"/>
+      <c r="G106" s="25"/>
+      <c r="H106" s="25"/>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
@@ -3235,19 +3243,19 @@
       <c r="M106" s="9"/>
       <c r="N106" s="9"/>
       <c r="O106" s="9"/>
-      <c r="P106" s="9"/>
-    </row>
-    <row r="107" spans="1:16">
+      <c r="P106" s="25"/>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>127</v>
       </c>
       <c r="B107" s="23"/>
       <c r="C107" s="25"/>
       <c r="D107" s="25"/>
-      <c r="E107" s="9"/>
-      <c r="F107" s="9"/>
-      <c r="G107" s="9"/>
-      <c r="H107" s="9"/>
+      <c r="E107" s="25"/>
+      <c r="F107" s="25"/>
+      <c r="G107" s="25"/>
+      <c r="H107" s="25"/>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
@@ -3255,19 +3263,19 @@
       <c r="M107" s="9"/>
       <c r="N107" s="9"/>
       <c r="O107" s="9"/>
-      <c r="P107" s="9"/>
-    </row>
-    <row r="108" spans="1:16">
+      <c r="P107" s="25"/>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
         <v>128</v>
       </c>
       <c r="B108" s="23"/>
       <c r="C108" s="25"/>
       <c r="D108" s="25"/>
-      <c r="E108" s="9"/>
-      <c r="F108" s="9"/>
-      <c r="G108" s="9"/>
-      <c r="H108" s="9"/>
+      <c r="E108" s="25"/>
+      <c r="F108" s="25"/>
+      <c r="G108" s="25"/>
+      <c r="H108" s="25"/>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
@@ -3275,19 +3283,19 @@
       <c r="M108" s="9"/>
       <c r="N108" s="9"/>
       <c r="O108" s="9"/>
-      <c r="P108" s="9"/>
-    </row>
-    <row r="109" spans="1:16">
+      <c r="P108" s="25"/>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
         <v>129</v>
       </c>
       <c r="B109" s="23"/>
       <c r="C109" s="25"/>
       <c r="D109" s="25"/>
-      <c r="E109" s="9"/>
-      <c r="F109" s="9"/>
-      <c r="G109" s="9"/>
-      <c r="H109" s="9"/>
+      <c r="E109" s="25"/>
+      <c r="F109" s="25"/>
+      <c r="G109" s="25"/>
+      <c r="H109" s="25"/>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
@@ -3295,19 +3303,19 @@
       <c r="M109" s="9"/>
       <c r="N109" s="9"/>
       <c r="O109" s="9"/>
-      <c r="P109" s="9"/>
-    </row>
-    <row r="110" spans="1:16">
+      <c r="P109" s="25"/>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
         <v>130</v>
       </c>
       <c r="B110" s="23"/>
       <c r="C110" s="25"/>
       <c r="D110" s="25"/>
-      <c r="E110" s="9"/>
-      <c r="F110" s="9"/>
-      <c r="G110" s="9"/>
-      <c r="H110" s="9"/>
+      <c r="E110" s="25"/>
+      <c r="F110" s="25"/>
+      <c r="G110" s="25"/>
+      <c r="H110" s="25"/>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
@@ -3315,19 +3323,19 @@
       <c r="M110" s="9"/>
       <c r="N110" s="9"/>
       <c r="O110" s="9"/>
-      <c r="P110" s="9"/>
-    </row>
-    <row r="111" spans="1:16">
+      <c r="P110" s="25"/>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="s">
         <v>131</v>
       </c>
       <c r="B111" s="23"/>
       <c r="C111" s="25"/>
       <c r="D111" s="25"/>
-      <c r="E111" s="9"/>
-      <c r="F111" s="9"/>
-      <c r="G111" s="9"/>
-      <c r="H111" s="9"/>
+      <c r="E111" s="25"/>
+      <c r="F111" s="25"/>
+      <c r="G111" s="25"/>
+      <c r="H111" s="25"/>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
@@ -3335,19 +3343,19 @@
       <c r="M111" s="9"/>
       <c r="N111" s="9"/>
       <c r="O111" s="9"/>
-      <c r="P111" s="9"/>
-    </row>
-    <row r="112" spans="1:16">
+      <c r="P111" s="25"/>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
         <v>132</v>
       </c>
       <c r="B112" s="23"/>
       <c r="C112" s="25"/>
       <c r="D112" s="25"/>
-      <c r="E112" s="9"/>
-      <c r="F112" s="9"/>
-      <c r="G112" s="9"/>
-      <c r="H112" s="9"/>
+      <c r="E112" s="25"/>
+      <c r="F112" s="25"/>
+      <c r="G112" s="25"/>
+      <c r="H112" s="25"/>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
@@ -3355,19 +3363,19 @@
       <c r="M112" s="9"/>
       <c r="N112" s="9"/>
       <c r="O112" s="9"/>
-      <c r="P112" s="9"/>
-    </row>
-    <row r="113" spans="1:16">
+      <c r="P112" s="25"/>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
         <v>133</v>
       </c>
       <c r="B113" s="23"/>
       <c r="C113" s="25"/>
       <c r="D113" s="25"/>
-      <c r="E113" s="9"/>
-      <c r="F113" s="9"/>
-      <c r="G113" s="9"/>
-      <c r="H113" s="9"/>
+      <c r="E113" s="25"/>
+      <c r="F113" s="25"/>
+      <c r="G113" s="25"/>
+      <c r="H113" s="25"/>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
@@ -3375,19 +3383,19 @@
       <c r="M113" s="9"/>
       <c r="N113" s="9"/>
       <c r="O113" s="9"/>
-      <c r="P113" s="9"/>
-    </row>
-    <row r="114" spans="1:16">
+      <c r="P113" s="25"/>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
         <v>134</v>
       </c>
       <c r="B114" s="23"/>
       <c r="C114" s="25"/>
       <c r="D114" s="25"/>
-      <c r="E114" s="9"/>
-      <c r="F114" s="9"/>
-      <c r="G114" s="9"/>
-      <c r="H114" s="9"/>
+      <c r="E114" s="25"/>
+      <c r="F114" s="25"/>
+      <c r="G114" s="25"/>
+      <c r="H114" s="25"/>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
@@ -3395,19 +3403,19 @@
       <c r="M114" s="9"/>
       <c r="N114" s="9"/>
       <c r="O114" s="9"/>
-      <c r="P114" s="9"/>
-    </row>
-    <row r="115" spans="1:16">
+      <c r="P114" s="25"/>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="s">
         <v>135</v>
       </c>
       <c r="B115" s="23"/>
       <c r="C115" s="25"/>
       <c r="D115" s="25"/>
-      <c r="E115" s="9"/>
-      <c r="F115" s="9"/>
-      <c r="G115" s="9"/>
-      <c r="H115" s="9"/>
+      <c r="E115" s="25"/>
+      <c r="F115" s="25"/>
+      <c r="G115" s="25"/>
+      <c r="H115" s="25"/>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
@@ -3415,19 +3423,19 @@
       <c r="M115" s="9"/>
       <c r="N115" s="9"/>
       <c r="O115" s="9"/>
-      <c r="P115" s="9"/>
-    </row>
-    <row r="116" spans="1:16">
+      <c r="P115" s="25"/>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
         <v>136</v>
       </c>
       <c r="B116" s="23"/>
       <c r="C116" s="25"/>
       <c r="D116" s="25"/>
-      <c r="E116" s="9"/>
-      <c r="F116" s="9"/>
-      <c r="G116" s="9"/>
-      <c r="H116" s="9"/>
+      <c r="E116" s="25"/>
+      <c r="F116" s="25"/>
+      <c r="G116" s="25"/>
+      <c r="H116" s="25"/>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
@@ -3435,19 +3443,19 @@
       <c r="M116" s="9"/>
       <c r="N116" s="9"/>
       <c r="O116" s="9"/>
-      <c r="P116" s="9"/>
-    </row>
-    <row r="117" spans="1:16" ht="30">
+      <c r="P116" s="25"/>
+    </row>
+    <row r="117" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="16" t="s">
         <v>137</v>
       </c>
       <c r="B117" s="23"/>
       <c r="C117" s="25"/>
       <c r="D117" s="25"/>
-      <c r="E117" s="9"/>
-      <c r="F117" s="9"/>
-      <c r="G117" s="9"/>
-      <c r="H117" s="9"/>
+      <c r="E117" s="25"/>
+      <c r="F117" s="25"/>
+      <c r="G117" s="25"/>
+      <c r="H117" s="25"/>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
@@ -3455,19 +3463,19 @@
       <c r="M117" s="9"/>
       <c r="N117" s="9"/>
       <c r="O117" s="9"/>
-      <c r="P117" s="9"/>
-    </row>
-    <row r="118" spans="1:16">
+      <c r="P117" s="25"/>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B118" s="23"/>
       <c r="C118" s="25"/>
       <c r="D118" s="25"/>
-      <c r="E118" s="9"/>
-      <c r="F118" s="9"/>
-      <c r="G118" s="9"/>
-      <c r="H118" s="9"/>
+      <c r="E118" s="25"/>
+      <c r="F118" s="25"/>
+      <c r="G118" s="25"/>
+      <c r="H118" s="25"/>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
@@ -3475,9 +3483,9 @@
       <c r="M118" s="9"/>
       <c r="N118" s="9"/>
       <c r="O118" s="9"/>
-      <c r="P118" s="9"/>
-    </row>
-    <row r="119" spans="1:16">
+      <c r="P118" s="25"/>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>7</v>
       </c>
@@ -3490,6 +3498,11 @@
     <sortCondition ref="A48"/>
   </sortState>
   <mergeCells count="15">
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="G2:G3"/>
@@ -3500,11 +3513,6 @@
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="N2:N3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -3512,21 +3520,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.140625" customWidth="1"/>
     <col min="2" max="2" width="33.5703125" customWidth="1"/>
     <col min="3" max="3" width="74" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>27</v>
       </c>
@@ -3537,7 +3545,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="240">
+    <row r="2" spans="1:3" ht="240" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>24</v>
       </c>
@@ -3548,7 +3556,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30" customHeight="1">
+    <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>30</v>
       </c>
@@ -3557,7 +3565,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="75">
+    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>33</v>
       </c>
@@ -3574,12 +3582,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/folder/ДИСПЕТЧЕРА.xlsx
+++ b/folder/ДИСПЕТЧЕРА.xlsx
@@ -470,8 +470,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -693,10 +694,20 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -715,18 +726,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1031,7 +1032,7 @@
   <dimension ref="A1:P119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L3"/>
+      <selection activeCell="N2" sqref="N2:N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1074,49 +1075,49 @@
       <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="30" t="s">
+      <c r="L2" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="32" t="s">
+      <c r="M2" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="32" t="s">
+      <c r="N2" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="27" t="s">
+      <c r="O2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="27" t="s">
+      <c r="P2" s="29" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1124,331 +1125,331 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
       <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
+      <c r="J4" s="23"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
-      <c r="P4" s="25"/>
+      <c r="P4" s="23"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
       <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
+      <c r="J5" s="23"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
-      <c r="P5" s="25"/>
+      <c r="P5" s="23"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
       <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
+      <c r="J6" s="23"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
-      <c r="P6" s="25"/>
+      <c r="P6" s="23"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
       <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
+      <c r="J7" s="23"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
-      <c r="P7" s="25"/>
+      <c r="P7" s="23"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
       <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
+      <c r="J8" s="23"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
-      <c r="P8" s="25"/>
+      <c r="P8" s="23"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
       <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
+      <c r="J9" s="23"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
-      <c r="P9" s="25"/>
+      <c r="P9" s="23"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
       <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
+      <c r="J10" s="23"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
-      <c r="P10" s="25"/>
+      <c r="P10" s="23"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
       <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
+      <c r="J11" s="23"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
-      <c r="P11" s="25"/>
+      <c r="P11" s="23"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
       <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
+      <c r="J12" s="23"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
-      <c r="P12" s="25"/>
+      <c r="P12" s="23"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
       <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
+      <c r="J13" s="23"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
-      <c r="P13" s="25"/>
+      <c r="P13" s="23"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
       <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
+      <c r="J14" s="23"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
-      <c r="P14" s="25"/>
+      <c r="P14" s="23"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
       <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
+      <c r="J15" s="23"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
-      <c r="P15" s="25"/>
+      <c r="P15" s="23"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
       <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
+      <c r="J16" s="23"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
-      <c r="P16" s="25"/>
+      <c r="P16" s="23"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
       <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
+      <c r="J17" s="23"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
-      <c r="P17" s="25"/>
+      <c r="P17" s="23"/>
     </row>
     <row r="18" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="35">
         <f>SUM(B5:B17)</f>
         <v>0</v>
       </c>
-      <c r="C18" s="25" t="e">
+      <c r="C18" s="23" t="e">
         <f t="shared" ref="C18:J18" si="0">AVERAGE(C5:C17)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D18" s="25" t="e">
+      <c r="D18" s="23" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E18" s="25" t="e">
+      <c r="E18" s="23" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F18" s="25" t="e">
+      <c r="F18" s="23" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G18" s="25" t="e">
+      <c r="G18" s="23" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="25" t="e">
+      <c r="H18" s="23" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -1456,7 +1457,7 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J18" s="9" t="e">
+      <c r="J18" s="23" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -1480,7 +1481,7 @@
         <f>SUM(O5:O17)</f>
         <v>0</v>
       </c>
-      <c r="P18" s="25" t="e">
+      <c r="P18" s="23" t="e">
         <f>AVERAGE(P5:P17)</f>
         <v>#DIV/0!</v>
       </c>
@@ -1489,2020 +1490,2015 @@
       <c r="A19" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
       <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
+      <c r="J19" s="23"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
-      <c r="P19" s="25"/>
+      <c r="P19" s="23"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
+      <c r="J20" s="23"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
-      <c r="P20" s="25"/>
+      <c r="P20" s="23"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
       <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
+      <c r="J21" s="23"/>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
-      <c r="P21" s="25"/>
+      <c r="P21" s="23"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
       <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
+      <c r="J22" s="23"/>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
-      <c r="P22" s="25"/>
+      <c r="P22" s="23"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
       <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
+      <c r="J23" s="23"/>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
-      <c r="P23" s="25"/>
+      <c r="P23" s="23"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
       <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
+      <c r="J24" s="23"/>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
-      <c r="P24" s="25"/>
+      <c r="P24" s="23"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
       <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
+      <c r="J25" s="23"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
-      <c r="P25" s="25"/>
+      <c r="P25" s="23"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
       <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
+      <c r="J26" s="23"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
       <c r="O26" s="9"/>
-      <c r="P26" s="25"/>
+      <c r="P26" s="23"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
       <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
+      <c r="J27" s="23"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
       <c r="O27" s="9"/>
-      <c r="P27" s="25"/>
+      <c r="P27" s="23"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
       <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
+      <c r="J28" s="23"/>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
       <c r="O28" s="9"/>
-      <c r="P28" s="25"/>
+      <c r="P28" s="23"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
       <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
+      <c r="J29" s="23"/>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
       <c r="O29" s="9"/>
-      <c r="P29" s="25"/>
+      <c r="P29" s="23"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
       <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
+      <c r="J30" s="23"/>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
       <c r="O30" s="9"/>
-      <c r="P30" s="25"/>
+      <c r="P30" s="23"/>
     </row>
     <row r="31" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
       <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
+      <c r="J31" s="23"/>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
       <c r="O31" s="9"/>
-      <c r="P31" s="25"/>
+      <c r="P31" s="23"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
       <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
+      <c r="J32" s="23"/>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
       <c r="O32" s="9"/>
-      <c r="P32" s="25"/>
+      <c r="P32" s="23"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
       <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
+      <c r="J33" s="23"/>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
       <c r="O33" s="9"/>
-      <c r="P33" s="25"/>
+      <c r="P33" s="23"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
       <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
+      <c r="J34" s="23"/>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
       <c r="O34" s="9"/>
-      <c r="P34" s="25"/>
+      <c r="P34" s="23"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
       <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
+      <c r="J35" s="23"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
       <c r="O35" s="9"/>
-      <c r="P35" s="25"/>
+      <c r="P35" s="23"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
       <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
+      <c r="J36" s="23"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
-      <c r="P36" s="25"/>
+      <c r="P36" s="23"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
       <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
+      <c r="J37" s="23"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
-      <c r="P37" s="25"/>
+      <c r="P37" s="23"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B38" s="23"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
       <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
+      <c r="J38" s="23"/>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
-      <c r="P38" s="25"/>
+      <c r="P38" s="23"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
       <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
+      <c r="J39" s="23"/>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
       <c r="O39" s="9"/>
-      <c r="P39" s="25"/>
+      <c r="P39" s="23"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B40" s="23"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
       <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
+      <c r="J40" s="23"/>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
       <c r="O40" s="9"/>
-      <c r="P40" s="25"/>
+      <c r="P40" s="23"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B41" s="23"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
       <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
+      <c r="J41" s="23"/>
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
       <c r="O41" s="9"/>
-      <c r="P41" s="25"/>
+      <c r="P41" s="23"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="23"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
       <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
+      <c r="J42" s="23"/>
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
       <c r="O42" s="9"/>
-      <c r="P42" s="25"/>
+      <c r="P42" s="23"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B43" s="23"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
       <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
+      <c r="J43" s="23"/>
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
       <c r="M43" s="9"/>
       <c r="N43" s="9"/>
       <c r="O43" s="9"/>
-      <c r="P43" s="25"/>
+      <c r="P43" s="23"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B44" s="23"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
       <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
+      <c r="J44" s="23"/>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
       <c r="O44" s="9"/>
-      <c r="P44" s="25"/>
+      <c r="P44" s="23"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B45" s="23"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
       <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
+      <c r="J45" s="23"/>
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
       <c r="M45" s="9"/>
       <c r="N45" s="9"/>
       <c r="O45" s="9"/>
-      <c r="P45" s="25"/>
+      <c r="P45" s="23"/>
     </row>
     <row r="46" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B46" s="23"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
       <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
+      <c r="J46" s="23"/>
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
       <c r="O46" s="9"/>
-      <c r="P46" s="25"/>
+      <c r="P46" s="23"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B47" s="23"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
       <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
+      <c r="J47" s="23"/>
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
       <c r="N47" s="9"/>
       <c r="O47" s="9"/>
-      <c r="P47" s="25"/>
+      <c r="P47" s="23"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B48" s="23"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
       <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
+      <c r="J48" s="23"/>
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
       <c r="O48" s="9"/>
-      <c r="P48" s="25"/>
+      <c r="P48" s="23"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B49" s="23"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
       <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
+      <c r="J49" s="23"/>
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
       <c r="M49" s="9"/>
       <c r="N49" s="9"/>
       <c r="O49" s="9"/>
-      <c r="P49" s="25"/>
+      <c r="P49" s="23"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="B50" s="23"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
       <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
+      <c r="J50" s="23"/>
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
       <c r="O50" s="9"/>
-      <c r="P50" s="25"/>
+      <c r="P50" s="23"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B51" s="23"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
       <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
+      <c r="J51" s="23"/>
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
       <c r="M51" s="9"/>
       <c r="N51" s="9"/>
       <c r="O51" s="9"/>
-      <c r="P51" s="25"/>
+      <c r="P51" s="23"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B52" s="23"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="23"/>
       <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
+      <c r="J52" s="23"/>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
       <c r="M52" s="9"/>
       <c r="N52" s="9"/>
       <c r="O52" s="9"/>
-      <c r="P52" s="25"/>
+      <c r="P52" s="23"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B53" s="23"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="25"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
       <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
+      <c r="J53" s="23"/>
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
       <c r="M53" s="9"/>
       <c r="N53" s="9"/>
       <c r="O53" s="9"/>
-      <c r="P53" s="25"/>
+      <c r="P53" s="23"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B54" s="23"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="25"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
       <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
+      <c r="J54" s="23"/>
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
       <c r="M54" s="9"/>
       <c r="N54" s="9"/>
       <c r="O54" s="9"/>
-      <c r="P54" s="25"/>
+      <c r="P54" s="23"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B55" s="23"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="25"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
       <c r="I55" s="9"/>
-      <c r="J55" s="9"/>
+      <c r="J55" s="23"/>
       <c r="K55" s="9"/>
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
       <c r="N55" s="9"/>
       <c r="O55" s="9"/>
-      <c r="P55" s="25"/>
+      <c r="P55" s="23"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="25"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
       <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
+      <c r="J56" s="23"/>
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
       <c r="M56" s="9"/>
       <c r="N56" s="9"/>
       <c r="O56" s="9"/>
-      <c r="P56" s="25"/>
+      <c r="P56" s="23"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B57" s="23"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
       <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
+      <c r="J57" s="23"/>
       <c r="K57" s="9"/>
       <c r="L57" s="9"/>
       <c r="M57" s="9"/>
       <c r="N57" s="9"/>
       <c r="O57" s="9"/>
-      <c r="P57" s="25"/>
+      <c r="P57" s="23"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B58" s="23"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="23"/>
       <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
+      <c r="J58" s="23"/>
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
       <c r="M58" s="9"/>
       <c r="N58" s="9"/>
       <c r="O58" s="9"/>
-      <c r="P58" s="25"/>
+      <c r="P58" s="23"/>
     </row>
     <row r="59" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B59" s="23"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="25"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="23"/>
       <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
+      <c r="J59" s="23"/>
       <c r="K59" s="9"/>
       <c r="L59" s="9"/>
       <c r="M59" s="9"/>
       <c r="N59" s="9"/>
       <c r="O59" s="9"/>
-      <c r="P59" s="25"/>
+      <c r="P59" s="23"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B60" s="23"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="23"/>
       <c r="I60" s="9"/>
-      <c r="J60" s="9"/>
+      <c r="J60" s="23"/>
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
       <c r="M60" s="9"/>
       <c r="N60" s="9"/>
       <c r="O60" s="9"/>
-      <c r="P60" s="25"/>
+      <c r="P60" s="23"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B61" s="23"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="23"/>
       <c r="I61" s="9"/>
-      <c r="J61" s="9"/>
+      <c r="J61" s="23"/>
       <c r="K61" s="9"/>
       <c r="L61" s="9"/>
       <c r="M61" s="9"/>
       <c r="N61" s="9"/>
       <c r="O61" s="9"/>
-      <c r="P61" s="25"/>
+      <c r="P61" s="23"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B62" s="23"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="23"/>
       <c r="I62" s="9"/>
-      <c r="J62" s="9"/>
+      <c r="J62" s="23"/>
       <c r="K62" s="9"/>
       <c r="L62" s="9"/>
       <c r="M62" s="9"/>
       <c r="N62" s="9"/>
       <c r="O62" s="9"/>
-      <c r="P62" s="25"/>
+      <c r="P62" s="23"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="B63" s="23"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="25"/>
-      <c r="F63" s="25"/>
-      <c r="G63" s="25"/>
-      <c r="H63" s="25"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="23"/>
       <c r="I63" s="9"/>
-      <c r="J63" s="9"/>
+      <c r="J63" s="23"/>
       <c r="K63" s="9"/>
       <c r="L63" s="9"/>
       <c r="M63" s="9"/>
       <c r="N63" s="9"/>
       <c r="O63" s="9"/>
-      <c r="P63" s="25"/>
+      <c r="P63" s="23"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="B64" s="23"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="25"/>
-      <c r="F64" s="25"/>
-      <c r="G64" s="25"/>
-      <c r="H64" s="25"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="23"/>
       <c r="I64" s="9"/>
-      <c r="J64" s="9"/>
+      <c r="J64" s="23"/>
       <c r="K64" s="9"/>
       <c r="L64" s="9"/>
       <c r="M64" s="9"/>
       <c r="N64" s="9"/>
       <c r="O64" s="9"/>
-      <c r="P64" s="25"/>
+      <c r="P64" s="23"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="B65" s="23"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="25"/>
-      <c r="H65" s="25"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="23"/>
       <c r="I65" s="9"/>
-      <c r="J65" s="9"/>
+      <c r="J65" s="23"/>
       <c r="K65" s="9"/>
       <c r="L65" s="9"/>
       <c r="M65" s="9"/>
       <c r="N65" s="9"/>
       <c r="O65" s="9"/>
-      <c r="P65" s="25"/>
+      <c r="P65" s="23"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="B66" s="23"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
+      <c r="B66" s="35"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
       <c r="I66" s="9"/>
-      <c r="J66" s="9"/>
+      <c r="J66" s="23"/>
       <c r="K66" s="9"/>
       <c r="L66" s="9"/>
       <c r="M66" s="9"/>
       <c r="N66" s="9"/>
       <c r="O66" s="9"/>
-      <c r="P66" s="25"/>
+      <c r="P66" s="23"/>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="23"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
+      <c r="B67" s="35"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="23"/>
       <c r="I67" s="9"/>
-      <c r="J67" s="9"/>
+      <c r="J67" s="23"/>
       <c r="K67" s="9"/>
       <c r="L67" s="9"/>
       <c r="M67" s="9"/>
       <c r="N67" s="9"/>
       <c r="O67" s="9"/>
-      <c r="P67" s="25"/>
+      <c r="P67" s="23"/>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="B68" s="23"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="25"/>
-      <c r="H68" s="25"/>
+      <c r="B68" s="35"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="23"/>
       <c r="I68" s="9"/>
-      <c r="J68" s="9"/>
+      <c r="J68" s="23"/>
       <c r="K68" s="9"/>
       <c r="L68" s="9"/>
       <c r="M68" s="9"/>
       <c r="N68" s="9"/>
       <c r="O68" s="9"/>
-      <c r="P68" s="25"/>
+      <c r="P68" s="23"/>
     </row>
     <row r="69" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="B69" s="23"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
+      <c r="B69" s="35"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="23"/>
+      <c r="H69" s="23"/>
       <c r="I69" s="9"/>
-      <c r="J69" s="9"/>
+      <c r="J69" s="23"/>
       <c r="K69" s="9"/>
       <c r="L69" s="9"/>
       <c r="M69" s="9"/>
       <c r="N69" s="9"/>
       <c r="O69" s="9"/>
-      <c r="P69" s="25"/>
+      <c r="P69" s="23"/>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B70" s="23"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
+      <c r="B70" s="35"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="23"/>
+      <c r="H70" s="23"/>
       <c r="I70" s="9"/>
-      <c r="J70" s="9"/>
+      <c r="J70" s="23"/>
       <c r="K70" s="9"/>
       <c r="L70" s="9"/>
       <c r="M70" s="9"/>
       <c r="N70" s="9"/>
       <c r="O70" s="9"/>
-      <c r="P70" s="25"/>
+      <c r="P70" s="23"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="B71" s="23"/>
-      <c r="C71" s="25"/>
-      <c r="D71" s="25"/>
-      <c r="E71" s="25"/>
-      <c r="F71" s="25"/>
-      <c r="G71" s="25"/>
-      <c r="H71" s="25"/>
+      <c r="B71" s="35"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="23"/>
+      <c r="H71" s="23"/>
       <c r="I71" s="9"/>
-      <c r="J71" s="9"/>
+      <c r="J71" s="23"/>
       <c r="K71" s="9"/>
       <c r="L71" s="9"/>
       <c r="M71" s="9"/>
       <c r="N71" s="9"/>
       <c r="O71" s="9"/>
-      <c r="P71" s="25"/>
+      <c r="P71" s="23"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="B72" s="23"/>
-      <c r="C72" s="25"/>
-      <c r="D72" s="25"/>
-      <c r="E72" s="25"/>
-      <c r="F72" s="25"/>
-      <c r="G72" s="25"/>
-      <c r="H72" s="25"/>
+      <c r="B72" s="35"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="23"/>
+      <c r="H72" s="23"/>
       <c r="I72" s="9"/>
-      <c r="J72" s="9"/>
+      <c r="J72" s="23"/>
       <c r="K72" s="9"/>
       <c r="L72" s="9"/>
       <c r="M72" s="9"/>
       <c r="N72" s="9"/>
       <c r="O72" s="9"/>
-      <c r="P72" s="25"/>
+      <c r="P72" s="23"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="B73" s="23"/>
-      <c r="C73" s="25"/>
-      <c r="D73" s="25"/>
-      <c r="E73" s="25"/>
-      <c r="F73" s="25"/>
-      <c r="G73" s="25"/>
-      <c r="H73" s="25"/>
+      <c r="B73" s="35"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="23"/>
       <c r="I73" s="9"/>
-      <c r="J73" s="9"/>
+      <c r="J73" s="23"/>
       <c r="K73" s="9"/>
       <c r="L73" s="9"/>
       <c r="M73" s="9"/>
       <c r="N73" s="9"/>
       <c r="O73" s="9"/>
-      <c r="P73" s="25"/>
+      <c r="P73" s="23"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="B74" s="23"/>
-      <c r="C74" s="25"/>
-      <c r="D74" s="25"/>
-      <c r="E74" s="25"/>
-      <c r="F74" s="25"/>
-      <c r="G74" s="25"/>
-      <c r="H74" s="25"/>
+      <c r="B74" s="35"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="23"/>
+      <c r="H74" s="23"/>
       <c r="I74" s="9"/>
-      <c r="J74" s="9"/>
+      <c r="J74" s="23"/>
       <c r="K74" s="9"/>
       <c r="L74" s="9"/>
       <c r="M74" s="9"/>
       <c r="N74" s="9"/>
       <c r="O74" s="9"/>
-      <c r="P74" s="25"/>
+      <c r="P74" s="23"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="B75" s="23"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="25"/>
+      <c r="B75" s="35"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="23"/>
       <c r="I75" s="9"/>
-      <c r="J75" s="9"/>
+      <c r="J75" s="23"/>
       <c r="K75" s="9"/>
       <c r="L75" s="9"/>
       <c r="M75" s="9"/>
       <c r="N75" s="9"/>
       <c r="O75" s="9"/>
-      <c r="P75" s="25"/>
+      <c r="P75" s="23"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="B76" s="23"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="25"/>
-      <c r="H76" s="25"/>
+      <c r="B76" s="35"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="23"/>
+      <c r="H76" s="23"/>
       <c r="I76" s="9"/>
-      <c r="J76" s="9"/>
+      <c r="J76" s="23"/>
       <c r="K76" s="9"/>
       <c r="L76" s="9"/>
       <c r="M76" s="9"/>
       <c r="N76" s="9"/>
       <c r="O76" s="9"/>
-      <c r="P76" s="25"/>
+      <c r="P76" s="23"/>
     </row>
     <row r="77" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="B77" s="23"/>
-      <c r="C77" s="25"/>
-      <c r="D77" s="25"/>
-      <c r="E77" s="25"/>
-      <c r="F77" s="25"/>
-      <c r="G77" s="25"/>
-      <c r="H77" s="25"/>
+      <c r="B77" s="35"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="23"/>
+      <c r="H77" s="23"/>
       <c r="I77" s="9"/>
-      <c r="J77" s="9"/>
+      <c r="J77" s="23"/>
       <c r="K77" s="9"/>
       <c r="L77" s="9"/>
       <c r="M77" s="9"/>
       <c r="N77" s="9"/>
       <c r="O77" s="9"/>
-      <c r="P77" s="25"/>
+      <c r="P77" s="23"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B78" s="23"/>
-      <c r="C78" s="25"/>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="25"/>
-      <c r="H78" s="25"/>
+      <c r="B78" s="35"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="23"/>
+      <c r="H78" s="23"/>
       <c r="I78" s="9"/>
-      <c r="J78" s="9"/>
+      <c r="J78" s="23"/>
       <c r="K78" s="9"/>
       <c r="L78" s="9"/>
       <c r="M78" s="9"/>
       <c r="N78" s="9"/>
       <c r="O78" s="9"/>
-      <c r="P78" s="25"/>
+      <c r="P78" s="23"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="B79" s="23"/>
-      <c r="C79" s="25"/>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="25"/>
-      <c r="H79" s="25"/>
+      <c r="B79" s="35"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="23"/>
+      <c r="H79" s="23"/>
       <c r="I79" s="9"/>
-      <c r="J79" s="9"/>
+      <c r="J79" s="23"/>
       <c r="K79" s="9"/>
       <c r="L79" s="9"/>
       <c r="M79" s="9"/>
       <c r="N79" s="9"/>
       <c r="O79" s="9"/>
-      <c r="P79" s="25"/>
+      <c r="P79" s="23"/>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="B80" s="23"/>
-      <c r="C80" s="25"/>
-      <c r="D80" s="25"/>
-      <c r="E80" s="25"/>
-      <c r="F80" s="25"/>
-      <c r="G80" s="25"/>
-      <c r="H80" s="25"/>
+      <c r="B80" s="35"/>
+      <c r="C80" s="23"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="23"/>
+      <c r="H80" s="23"/>
       <c r="I80" s="9"/>
-      <c r="J80" s="9"/>
+      <c r="J80" s="23"/>
       <c r="K80" s="9"/>
       <c r="L80" s="9"/>
       <c r="M80" s="9"/>
       <c r="N80" s="9"/>
       <c r="O80" s="9"/>
-      <c r="P80" s="25"/>
+      <c r="P80" s="23"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="B81" s="23"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="25"/>
-      <c r="E81" s="25"/>
-      <c r="F81" s="25"/>
-      <c r="G81" s="25"/>
-      <c r="H81" s="25"/>
+      <c r="B81" s="35"/>
+      <c r="C81" s="23"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="23"/>
+      <c r="H81" s="23"/>
       <c r="I81" s="9"/>
-      <c r="J81" s="9"/>
+      <c r="J81" s="23"/>
       <c r="K81" s="9"/>
       <c r="L81" s="9"/>
       <c r="M81" s="9"/>
       <c r="N81" s="9"/>
       <c r="O81" s="9"/>
-      <c r="P81" s="25"/>
+      <c r="P81" s="23"/>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="B82" s="23"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="25"/>
-      <c r="E82" s="25"/>
-      <c r="F82" s="25"/>
-      <c r="G82" s="25"/>
-      <c r="H82" s="25"/>
+      <c r="B82" s="35"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="23"/>
+      <c r="E82" s="23"/>
+      <c r="F82" s="23"/>
+      <c r="G82" s="23"/>
+      <c r="H82" s="23"/>
       <c r="I82" s="9"/>
-      <c r="J82" s="9"/>
+      <c r="J82" s="23"/>
       <c r="K82" s="9"/>
       <c r="L82" s="9"/>
       <c r="M82" s="9"/>
       <c r="N82" s="9"/>
       <c r="O82" s="9"/>
-      <c r="P82" s="25"/>
+      <c r="P82" s="23"/>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="B83" s="23"/>
-      <c r="C83" s="25"/>
-      <c r="D83" s="25"/>
-      <c r="E83" s="25"/>
-      <c r="F83" s="25"/>
-      <c r="G83" s="25"/>
-      <c r="H83" s="25"/>
+      <c r="B83" s="35"/>
+      <c r="C83" s="23"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="23"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="23"/>
+      <c r="H83" s="23"/>
       <c r="I83" s="9"/>
-      <c r="J83" s="9"/>
+      <c r="J83" s="23"/>
       <c r="K83" s="9"/>
       <c r="L83" s="9"/>
       <c r="M83" s="9"/>
       <c r="N83" s="9"/>
       <c r="O83" s="9"/>
-      <c r="P83" s="25"/>
+      <c r="P83" s="23"/>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="B84" s="23"/>
-      <c r="C84" s="25"/>
-      <c r="D84" s="25"/>
-      <c r="E84" s="25"/>
-      <c r="F84" s="25"/>
-      <c r="G84" s="25"/>
-      <c r="H84" s="25"/>
+      <c r="B84" s="35"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="23"/>
+      <c r="H84" s="23"/>
       <c r="I84" s="9"/>
-      <c r="J84" s="9"/>
+      <c r="J84" s="23"/>
       <c r="K84" s="9"/>
       <c r="L84" s="9"/>
       <c r="M84" s="9"/>
       <c r="N84" s="9"/>
       <c r="O84" s="9"/>
-      <c r="P84" s="25"/>
+      <c r="P84" s="23"/>
     </row>
     <row r="85" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="B85" s="23"/>
-      <c r="C85" s="25"/>
-      <c r="D85" s="25"/>
-      <c r="E85" s="25"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="25"/>
-      <c r="H85" s="25"/>
+      <c r="B85" s="35"/>
+      <c r="C85" s="23"/>
+      <c r="D85" s="23"/>
+      <c r="E85" s="23"/>
+      <c r="F85" s="23"/>
+      <c r="G85" s="23"/>
+      <c r="H85" s="23"/>
       <c r="I85" s="9"/>
-      <c r="J85" s="9"/>
+      <c r="J85" s="23"/>
       <c r="K85" s="9"/>
       <c r="L85" s="9"/>
       <c r="M85" s="9"/>
       <c r="N85" s="9"/>
       <c r="O85" s="9"/>
-      <c r="P85" s="25"/>
+      <c r="P85" s="23"/>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B86" s="23"/>
-      <c r="C86" s="25"/>
-      <c r="D86" s="25"/>
-      <c r="E86" s="25"/>
-      <c r="F86" s="25"/>
-      <c r="G86" s="25"/>
-      <c r="H86" s="25"/>
+      <c r="B86" s="35"/>
+      <c r="C86" s="23"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="23"/>
+      <c r="F86" s="23"/>
+      <c r="G86" s="23"/>
+      <c r="H86" s="23"/>
       <c r="I86" s="9"/>
-      <c r="J86" s="9"/>
+      <c r="J86" s="23"/>
       <c r="K86" s="9"/>
       <c r="L86" s="9"/>
       <c r="M86" s="9"/>
       <c r="N86" s="9"/>
       <c r="O86" s="9"/>
-      <c r="P86" s="25"/>
+      <c r="P86" s="23"/>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="B87" s="23"/>
-      <c r="C87" s="25"/>
-      <c r="D87" s="25"/>
-      <c r="E87" s="25"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="25"/>
-      <c r="H87" s="25"/>
+      <c r="B87" s="35"/>
+      <c r="C87" s="23"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="23"/>
+      <c r="F87" s="23"/>
+      <c r="G87" s="23"/>
+      <c r="H87" s="23"/>
       <c r="I87" s="9"/>
-      <c r="J87" s="9"/>
+      <c r="J87" s="23"/>
       <c r="K87" s="9"/>
       <c r="L87" s="9"/>
       <c r="M87" s="9"/>
       <c r="N87" s="9"/>
       <c r="O87" s="9"/>
-      <c r="P87" s="25"/>
+      <c r="P87" s="23"/>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="B88" s="23"/>
-      <c r="C88" s="25"/>
-      <c r="D88" s="25"/>
-      <c r="E88" s="25"/>
-      <c r="F88" s="25"/>
-      <c r="G88" s="25"/>
-      <c r="H88" s="25"/>
+      <c r="B88" s="35"/>
+      <c r="C88" s="23"/>
+      <c r="D88" s="23"/>
+      <c r="E88" s="23"/>
+      <c r="F88" s="23"/>
+      <c r="G88" s="23"/>
+      <c r="H88" s="23"/>
       <c r="I88" s="9"/>
-      <c r="J88" s="9"/>
+      <c r="J88" s="23"/>
       <c r="K88" s="9"/>
       <c r="L88" s="9"/>
       <c r="M88" s="9"/>
       <c r="N88" s="9"/>
       <c r="O88" s="9"/>
-      <c r="P88" s="25"/>
+      <c r="P88" s="23"/>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="B89" s="23"/>
-      <c r="C89" s="25"/>
-      <c r="D89" s="25"/>
-      <c r="E89" s="25"/>
-      <c r="F89" s="25"/>
-      <c r="G89" s="25"/>
-      <c r="H89" s="25"/>
+      <c r="B89" s="35"/>
+      <c r="C89" s="23"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="23"/>
+      <c r="H89" s="23"/>
       <c r="I89" s="9"/>
-      <c r="J89" s="9"/>
+      <c r="J89" s="23"/>
       <c r="K89" s="9"/>
       <c r="L89" s="9"/>
       <c r="M89" s="9"/>
       <c r="N89" s="9"/>
       <c r="O89" s="9"/>
-      <c r="P89" s="25"/>
+      <c r="P89" s="23"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="B90" s="23"/>
-      <c r="C90" s="25"/>
-      <c r="D90" s="25"/>
-      <c r="E90" s="25"/>
-      <c r="F90" s="25"/>
-      <c r="G90" s="25"/>
-      <c r="H90" s="25"/>
+      <c r="B90" s="35"/>
+      <c r="C90" s="23"/>
+      <c r="D90" s="23"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="23"/>
+      <c r="G90" s="23"/>
+      <c r="H90" s="23"/>
       <c r="I90" s="9"/>
-      <c r="J90" s="9"/>
+      <c r="J90" s="23"/>
       <c r="K90" s="9"/>
       <c r="L90" s="9"/>
       <c r="M90" s="9"/>
       <c r="N90" s="9"/>
       <c r="O90" s="9"/>
-      <c r="P90" s="25"/>
+      <c r="P90" s="23"/>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="B91" s="23"/>
-      <c r="C91" s="25"/>
-      <c r="D91" s="25"/>
-      <c r="E91" s="25"/>
-      <c r="F91" s="25"/>
-      <c r="G91" s="25"/>
-      <c r="H91" s="25"/>
+      <c r="B91" s="35"/>
+      <c r="C91" s="23"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="23"/>
+      <c r="H91" s="23"/>
       <c r="I91" s="9"/>
-      <c r="J91" s="9"/>
+      <c r="J91" s="23"/>
       <c r="K91" s="9"/>
       <c r="L91" s="9"/>
       <c r="M91" s="9"/>
       <c r="N91" s="9"/>
       <c r="O91" s="9"/>
-      <c r="P91" s="25"/>
+      <c r="P91" s="23"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="B92" s="23"/>
-      <c r="C92" s="25"/>
-      <c r="D92" s="25"/>
-      <c r="E92" s="25"/>
-      <c r="F92" s="25"/>
-      <c r="G92" s="25"/>
-      <c r="H92" s="25"/>
+      <c r="B92" s="35"/>
+      <c r="C92" s="23"/>
+      <c r="D92" s="23"/>
+      <c r="E92" s="23"/>
+      <c r="F92" s="23"/>
+      <c r="G92" s="23"/>
+      <c r="H92" s="23"/>
       <c r="I92" s="9"/>
-      <c r="J92" s="9"/>
+      <c r="J92" s="23"/>
       <c r="K92" s="9"/>
       <c r="L92" s="9"/>
       <c r="M92" s="9"/>
       <c r="N92" s="9"/>
       <c r="O92" s="9"/>
-      <c r="P92" s="25"/>
+      <c r="P92" s="23"/>
     </row>
     <row r="93" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B93" s="23"/>
-      <c r="C93" s="25"/>
-      <c r="D93" s="25"/>
-      <c r="E93" s="25"/>
-      <c r="F93" s="25"/>
-      <c r="G93" s="25"/>
-      <c r="H93" s="25"/>
+      <c r="B93" s="35"/>
+      <c r="C93" s="23"/>
+      <c r="D93" s="23"/>
+      <c r="E93" s="23"/>
+      <c r="F93" s="23"/>
+      <c r="G93" s="23"/>
+      <c r="H93" s="23"/>
       <c r="I93" s="9"/>
-      <c r="J93" s="9"/>
+      <c r="J93" s="23"/>
       <c r="K93" s="9"/>
       <c r="L93" s="9"/>
       <c r="M93" s="9"/>
       <c r="N93" s="9"/>
       <c r="O93" s="9"/>
-      <c r="P93" s="25"/>
+      <c r="P93" s="23"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B94" s="23"/>
-      <c r="C94" s="25"/>
-      <c r="D94" s="25"/>
-      <c r="E94" s="25"/>
-      <c r="F94" s="25"/>
-      <c r="G94" s="25"/>
-      <c r="H94" s="25"/>
+      <c r="B94" s="35"/>
+      <c r="C94" s="23"/>
+      <c r="D94" s="23"/>
+      <c r="E94" s="23"/>
+      <c r="F94" s="23"/>
+      <c r="G94" s="23"/>
+      <c r="H94" s="23"/>
       <c r="I94" s="9"/>
-      <c r="J94" s="9"/>
+      <c r="J94" s="23"/>
       <c r="K94" s="9"/>
       <c r="L94" s="9"/>
       <c r="M94" s="9"/>
       <c r="N94" s="9"/>
       <c r="O94" s="9"/>
-      <c r="P94" s="25"/>
+      <c r="P94" s="23"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B95" s="23"/>
-      <c r="C95" s="25"/>
-      <c r="D95" s="25"/>
-      <c r="E95" s="25"/>
-      <c r="F95" s="25"/>
-      <c r="G95" s="25"/>
-      <c r="H95" s="25"/>
+      <c r="B95" s="35"/>
+      <c r="C95" s="23"/>
+      <c r="D95" s="23"/>
+      <c r="E95" s="23"/>
+      <c r="F95" s="23"/>
+      <c r="G95" s="23"/>
+      <c r="H95" s="23"/>
       <c r="I95" s="9"/>
-      <c r="J95" s="9"/>
+      <c r="J95" s="23"/>
       <c r="K95" s="9"/>
       <c r="L95" s="9"/>
       <c r="M95" s="9"/>
       <c r="N95" s="9"/>
       <c r="O95" s="9"/>
-      <c r="P95" s="25"/>
+      <c r="P95" s="23"/>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B96" s="23"/>
-      <c r="C96" s="25"/>
-      <c r="D96" s="25"/>
-      <c r="E96" s="25"/>
-      <c r="F96" s="25"/>
-      <c r="G96" s="25"/>
-      <c r="H96" s="25"/>
+      <c r="B96" s="35"/>
+      <c r="C96" s="23"/>
+      <c r="D96" s="23"/>
+      <c r="E96" s="23"/>
+      <c r="F96" s="23"/>
+      <c r="G96" s="23"/>
+      <c r="H96" s="23"/>
       <c r="I96" s="9"/>
-      <c r="J96" s="9"/>
+      <c r="J96" s="23"/>
       <c r="K96" s="9"/>
       <c r="L96" s="9"/>
       <c r="M96" s="9"/>
       <c r="N96" s="9"/>
       <c r="O96" s="9"/>
-      <c r="P96" s="25"/>
+      <c r="P96" s="23"/>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B97" s="23"/>
-      <c r="C97" s="25"/>
-      <c r="D97" s="25"/>
-      <c r="E97" s="25"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="25"/>
-      <c r="H97" s="25"/>
+      <c r="B97" s="35"/>
+      <c r="C97" s="23"/>
+      <c r="D97" s="23"/>
+      <c r="E97" s="23"/>
+      <c r="F97" s="23"/>
+      <c r="G97" s="23"/>
+      <c r="H97" s="23"/>
       <c r="I97" s="9"/>
-      <c r="J97" s="9"/>
+      <c r="J97" s="23"/>
       <c r="K97" s="9"/>
       <c r="L97" s="9"/>
       <c r="M97" s="9"/>
       <c r="N97" s="9"/>
       <c r="O97" s="9"/>
-      <c r="P97" s="25"/>
+      <c r="P97" s="23"/>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B98" s="23"/>
-      <c r="C98" s="25"/>
-      <c r="D98" s="25"/>
-      <c r="E98" s="25"/>
-      <c r="F98" s="25"/>
-      <c r="G98" s="25"/>
-      <c r="H98" s="25"/>
+      <c r="B98" s="35"/>
+      <c r="C98" s="23"/>
+      <c r="D98" s="23"/>
+      <c r="E98" s="23"/>
+      <c r="F98" s="23"/>
+      <c r="G98" s="23"/>
+      <c r="H98" s="23"/>
       <c r="I98" s="9"/>
-      <c r="J98" s="9"/>
+      <c r="J98" s="23"/>
       <c r="K98" s="9"/>
       <c r="L98" s="9"/>
       <c r="M98" s="9"/>
       <c r="N98" s="9"/>
       <c r="O98" s="9"/>
-      <c r="P98" s="25"/>
+      <c r="P98" s="23"/>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B99" s="23"/>
-      <c r="C99" s="25"/>
-      <c r="D99" s="25"/>
-      <c r="E99" s="25"/>
-      <c r="F99" s="25"/>
-      <c r="G99" s="25"/>
-      <c r="H99" s="25"/>
+      <c r="B99" s="35"/>
+      <c r="C99" s="23"/>
+      <c r="D99" s="23"/>
+      <c r="E99" s="23"/>
+      <c r="F99" s="23"/>
+      <c r="G99" s="23"/>
+      <c r="H99" s="23"/>
       <c r="I99" s="9"/>
-      <c r="J99" s="9"/>
+      <c r="J99" s="23"/>
       <c r="K99" s="9"/>
       <c r="L99" s="9"/>
       <c r="M99" s="9"/>
       <c r="N99" s="9"/>
       <c r="O99" s="9"/>
-      <c r="P99" s="25"/>
+      <c r="P99" s="23"/>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B100" s="23"/>
-      <c r="C100" s="25"/>
-      <c r="D100" s="25"/>
-      <c r="E100" s="25"/>
-      <c r="F100" s="25"/>
-      <c r="G100" s="25"/>
-      <c r="H100" s="25"/>
+      <c r="B100" s="35"/>
+      <c r="C100" s="23"/>
+      <c r="D100" s="23"/>
+      <c r="E100" s="23"/>
+      <c r="F100" s="23"/>
+      <c r="G100" s="23"/>
+      <c r="H100" s="23"/>
       <c r="I100" s="9"/>
-      <c r="J100" s="9"/>
+      <c r="J100" s="23"/>
       <c r="K100" s="9"/>
       <c r="L100" s="9"/>
       <c r="M100" s="9"/>
       <c r="N100" s="9"/>
       <c r="O100" s="9"/>
-      <c r="P100" s="25"/>
+      <c r="P100" s="23"/>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B101" s="23"/>
-      <c r="C101" s="25"/>
-      <c r="D101" s="25"/>
-      <c r="E101" s="25"/>
-      <c r="F101" s="25"/>
-      <c r="G101" s="25"/>
-      <c r="H101" s="25"/>
+      <c r="B101" s="35"/>
+      <c r="C101" s="23"/>
+      <c r="D101" s="23"/>
+      <c r="E101" s="23"/>
+      <c r="F101" s="23"/>
+      <c r="G101" s="23"/>
+      <c r="H101" s="23"/>
       <c r="I101" s="9"/>
-      <c r="J101" s="9"/>
+      <c r="J101" s="23"/>
       <c r="K101" s="9"/>
       <c r="L101" s="9"/>
       <c r="M101" s="9"/>
       <c r="N101" s="9"/>
       <c r="O101" s="9"/>
-      <c r="P101" s="25"/>
+      <c r="P101" s="23"/>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B102" s="23"/>
-      <c r="C102" s="25"/>
-      <c r="D102" s="25"/>
-      <c r="E102" s="25"/>
-      <c r="F102" s="25"/>
-      <c r="G102" s="25"/>
-      <c r="H102" s="25"/>
+      <c r="B102" s="35"/>
+      <c r="C102" s="23"/>
+      <c r="D102" s="23"/>
+      <c r="E102" s="23"/>
+      <c r="F102" s="23"/>
+      <c r="G102" s="23"/>
+      <c r="H102" s="23"/>
       <c r="I102" s="9"/>
-      <c r="J102" s="9"/>
+      <c r="J102" s="23"/>
       <c r="K102" s="9"/>
       <c r="L102" s="9"/>
       <c r="M102" s="9"/>
       <c r="N102" s="9"/>
       <c r="O102" s="9"/>
-      <c r="P102" s="25"/>
+      <c r="P102" s="23"/>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B103" s="23"/>
-      <c r="C103" s="25"/>
-      <c r="D103" s="25"/>
-      <c r="E103" s="25"/>
-      <c r="F103" s="25"/>
-      <c r="G103" s="25"/>
-      <c r="H103" s="25"/>
+      <c r="B103" s="35"/>
+      <c r="C103" s="23"/>
+      <c r="D103" s="23"/>
+      <c r="E103" s="23"/>
+      <c r="F103" s="23"/>
+      <c r="G103" s="23"/>
+      <c r="H103" s="23"/>
       <c r="I103" s="9"/>
-      <c r="J103" s="9"/>
+      <c r="J103" s="23"/>
       <c r="K103" s="9"/>
       <c r="L103" s="9"/>
       <c r="M103" s="9"/>
       <c r="N103" s="9"/>
       <c r="O103" s="9"/>
-      <c r="P103" s="25"/>
+      <c r="P103" s="23"/>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B104" s="23"/>
-      <c r="C104" s="25"/>
-      <c r="D104" s="25"/>
-      <c r="E104" s="25"/>
-      <c r="F104" s="25"/>
-      <c r="G104" s="25"/>
-      <c r="H104" s="25"/>
+      <c r="B104" s="35"/>
+      <c r="C104" s="23"/>
+      <c r="D104" s="23"/>
+      <c r="E104" s="23"/>
+      <c r="F104" s="23"/>
+      <c r="G104" s="23"/>
+      <c r="H104" s="23"/>
       <c r="I104" s="9"/>
-      <c r="J104" s="9"/>
+      <c r="J104" s="23"/>
       <c r="K104" s="9"/>
       <c r="L104" s="9"/>
       <c r="M104" s="9"/>
       <c r="N104" s="9"/>
       <c r="O104" s="9"/>
-      <c r="P104" s="25"/>
+      <c r="P104" s="23"/>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B105" s="23"/>
-      <c r="C105" s="25"/>
-      <c r="D105" s="25"/>
-      <c r="E105" s="25"/>
-      <c r="F105" s="25"/>
-      <c r="G105" s="25"/>
-      <c r="H105" s="25"/>
+      <c r="B105" s="35"/>
+      <c r="C105" s="23"/>
+      <c r="D105" s="23"/>
+      <c r="E105" s="23"/>
+      <c r="F105" s="23"/>
+      <c r="G105" s="23"/>
+      <c r="H105" s="23"/>
       <c r="I105" s="9"/>
-      <c r="J105" s="9"/>
+      <c r="J105" s="23"/>
       <c r="K105" s="9"/>
       <c r="L105" s="9"/>
       <c r="M105" s="9"/>
       <c r="N105" s="9"/>
       <c r="O105" s="9"/>
-      <c r="P105" s="25"/>
+      <c r="P105" s="23"/>
     </row>
     <row r="106" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="B106" s="23"/>
-      <c r="C106" s="25"/>
-      <c r="D106" s="25"/>
-      <c r="E106" s="25"/>
-      <c r="F106" s="25"/>
-      <c r="G106" s="25"/>
-      <c r="H106" s="25"/>
+      <c r="B106" s="35"/>
+      <c r="C106" s="23"/>
+      <c r="D106" s="23"/>
+      <c r="E106" s="23"/>
+      <c r="F106" s="23"/>
+      <c r="G106" s="23"/>
+      <c r="H106" s="23"/>
       <c r="I106" s="9"/>
-      <c r="J106" s="9"/>
+      <c r="J106" s="23"/>
       <c r="K106" s="9"/>
       <c r="L106" s="9"/>
       <c r="M106" s="9"/>
       <c r="N106" s="9"/>
       <c r="O106" s="9"/>
-      <c r="P106" s="25"/>
+      <c r="P106" s="23"/>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B107" s="23"/>
-      <c r="C107" s="25"/>
-      <c r="D107" s="25"/>
-      <c r="E107" s="25"/>
-      <c r="F107" s="25"/>
-      <c r="G107" s="25"/>
-      <c r="H107" s="25"/>
+      <c r="B107" s="35"/>
+      <c r="C107" s="23"/>
+      <c r="D107" s="23"/>
+      <c r="E107" s="23"/>
+      <c r="F107" s="23"/>
+      <c r="G107" s="23"/>
+      <c r="H107" s="23"/>
       <c r="I107" s="9"/>
-      <c r="J107" s="9"/>
+      <c r="J107" s="23"/>
       <c r="K107" s="9"/>
       <c r="L107" s="9"/>
       <c r="M107" s="9"/>
       <c r="N107" s="9"/>
       <c r="O107" s="9"/>
-      <c r="P107" s="25"/>
+      <c r="P107" s="23"/>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B108" s="23"/>
-      <c r="C108" s="25"/>
-      <c r="D108" s="25"/>
-      <c r="E108" s="25"/>
-      <c r="F108" s="25"/>
-      <c r="G108" s="25"/>
-      <c r="H108" s="25"/>
+      <c r="B108" s="35"/>
+      <c r="C108" s="23"/>
+      <c r="D108" s="23"/>
+      <c r="E108" s="23"/>
+      <c r="F108" s="23"/>
+      <c r="G108" s="23"/>
+      <c r="H108" s="23"/>
       <c r="I108" s="9"/>
-      <c r="J108" s="9"/>
+      <c r="J108" s="23"/>
       <c r="K108" s="9"/>
       <c r="L108" s="9"/>
       <c r="M108" s="9"/>
       <c r="N108" s="9"/>
       <c r="O108" s="9"/>
-      <c r="P108" s="25"/>
+      <c r="P108" s="23"/>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B109" s="23"/>
-      <c r="C109" s="25"/>
-      <c r="D109" s="25"/>
-      <c r="E109" s="25"/>
-      <c r="F109" s="25"/>
-      <c r="G109" s="25"/>
-      <c r="H109" s="25"/>
+      <c r="B109" s="35"/>
+      <c r="C109" s="23"/>
+      <c r="D109" s="23"/>
+      <c r="E109" s="23"/>
+      <c r="F109" s="23"/>
+      <c r="G109" s="23"/>
+      <c r="H109" s="23"/>
       <c r="I109" s="9"/>
-      <c r="J109" s="9"/>
+      <c r="J109" s="23"/>
       <c r="K109" s="9"/>
       <c r="L109" s="9"/>
       <c r="M109" s="9"/>
       <c r="N109" s="9"/>
       <c r="O109" s="9"/>
-      <c r="P109" s="25"/>
+      <c r="P109" s="23"/>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="B110" s="23"/>
-      <c r="C110" s="25"/>
-      <c r="D110" s="25"/>
-      <c r="E110" s="25"/>
-      <c r="F110" s="25"/>
-      <c r="G110" s="25"/>
-      <c r="H110" s="25"/>
+      <c r="B110" s="35"/>
+      <c r="C110" s="23"/>
+      <c r="D110" s="23"/>
+      <c r="E110" s="23"/>
+      <c r="F110" s="23"/>
+      <c r="G110" s="23"/>
+      <c r="H110" s="23"/>
       <c r="I110" s="9"/>
-      <c r="J110" s="9"/>
+      <c r="J110" s="23"/>
       <c r="K110" s="9"/>
       <c r="L110" s="9"/>
       <c r="M110" s="9"/>
       <c r="N110" s="9"/>
       <c r="O110" s="9"/>
-      <c r="P110" s="25"/>
+      <c r="P110" s="23"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="B111" s="23"/>
-      <c r="C111" s="25"/>
-      <c r="D111" s="25"/>
-      <c r="E111" s="25"/>
-      <c r="F111" s="25"/>
-      <c r="G111" s="25"/>
-      <c r="H111" s="25"/>
+      <c r="B111" s="35"/>
+      <c r="C111" s="23"/>
+      <c r="D111" s="23"/>
+      <c r="E111" s="23"/>
+      <c r="F111" s="23"/>
+      <c r="G111" s="23"/>
+      <c r="H111" s="23"/>
       <c r="I111" s="9"/>
-      <c r="J111" s="9"/>
+      <c r="J111" s="23"/>
       <c r="K111" s="9"/>
       <c r="L111" s="9"/>
       <c r="M111" s="9"/>
       <c r="N111" s="9"/>
       <c r="O111" s="9"/>
-      <c r="P111" s="25"/>
+      <c r="P111" s="23"/>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B112" s="23"/>
-      <c r="C112" s="25"/>
-      <c r="D112" s="25"/>
-      <c r="E112" s="25"/>
-      <c r="F112" s="25"/>
-      <c r="G112" s="25"/>
-      <c r="H112" s="25"/>
+      <c r="B112" s="35"/>
+      <c r="C112" s="23"/>
+      <c r="D112" s="23"/>
+      <c r="E112" s="23"/>
+      <c r="F112" s="23"/>
+      <c r="G112" s="23"/>
+      <c r="H112" s="23"/>
       <c r="I112" s="9"/>
-      <c r="J112" s="9"/>
+      <c r="J112" s="23"/>
       <c r="K112" s="9"/>
       <c r="L112" s="9"/>
       <c r="M112" s="9"/>
       <c r="N112" s="9"/>
       <c r="O112" s="9"/>
-      <c r="P112" s="25"/>
+      <c r="P112" s="23"/>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B113" s="23"/>
-      <c r="C113" s="25"/>
-      <c r="D113" s="25"/>
-      <c r="E113" s="25"/>
-      <c r="F113" s="25"/>
-      <c r="G113" s="25"/>
-      <c r="H113" s="25"/>
+      <c r="B113" s="35"/>
+      <c r="C113" s="23"/>
+      <c r="D113" s="23"/>
+      <c r="E113" s="23"/>
+      <c r="F113" s="23"/>
+      <c r="G113" s="23"/>
+      <c r="H113" s="23"/>
       <c r="I113" s="9"/>
-      <c r="J113" s="9"/>
+      <c r="J113" s="23"/>
       <c r="K113" s="9"/>
       <c r="L113" s="9"/>
       <c r="M113" s="9"/>
       <c r="N113" s="9"/>
       <c r="O113" s="9"/>
-      <c r="P113" s="25"/>
+      <c r="P113" s="23"/>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="B114" s="23"/>
-      <c r="C114" s="25"/>
-      <c r="D114" s="25"/>
-      <c r="E114" s="25"/>
-      <c r="F114" s="25"/>
-      <c r="G114" s="25"/>
-      <c r="H114" s="25"/>
+      <c r="B114" s="35"/>
+      <c r="C114" s="23"/>
+      <c r="D114" s="23"/>
+      <c r="E114" s="23"/>
+      <c r="F114" s="23"/>
+      <c r="G114" s="23"/>
+      <c r="H114" s="23"/>
       <c r="I114" s="9"/>
-      <c r="J114" s="9"/>
+      <c r="J114" s="23"/>
       <c r="K114" s="9"/>
       <c r="L114" s="9"/>
       <c r="M114" s="9"/>
       <c r="N114" s="9"/>
       <c r="O114" s="9"/>
-      <c r="P114" s="25"/>
+      <c r="P114" s="23"/>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="B115" s="23"/>
-      <c r="C115" s="25"/>
-      <c r="D115" s="25"/>
-      <c r="E115" s="25"/>
-      <c r="F115" s="25"/>
-      <c r="G115" s="25"/>
-      <c r="H115" s="25"/>
+      <c r="B115" s="35"/>
+      <c r="C115" s="23"/>
+      <c r="D115" s="23"/>
+      <c r="E115" s="23"/>
+      <c r="F115" s="23"/>
+      <c r="G115" s="23"/>
+      <c r="H115" s="23"/>
       <c r="I115" s="9"/>
-      <c r="J115" s="9"/>
+      <c r="J115" s="23"/>
       <c r="K115" s="9"/>
       <c r="L115" s="9"/>
       <c r="M115" s="9"/>
       <c r="N115" s="9"/>
       <c r="O115" s="9"/>
-      <c r="P115" s="25"/>
+      <c r="P115" s="23"/>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="B116" s="23"/>
-      <c r="C116" s="25"/>
-      <c r="D116" s="25"/>
-      <c r="E116" s="25"/>
-      <c r="F116" s="25"/>
-      <c r="G116" s="25"/>
-      <c r="H116" s="25"/>
+      <c r="B116" s="35"/>
+      <c r="C116" s="23"/>
+      <c r="D116" s="23"/>
+      <c r="E116" s="23"/>
+      <c r="F116" s="23"/>
+      <c r="G116" s="23"/>
+      <c r="H116" s="23"/>
       <c r="I116" s="9"/>
-      <c r="J116" s="9"/>
+      <c r="J116" s="23"/>
       <c r="K116" s="9"/>
       <c r="L116" s="9"/>
       <c r="M116" s="9"/>
       <c r="N116" s="9"/>
       <c r="O116" s="9"/>
-      <c r="P116" s="25"/>
+      <c r="P116" s="23"/>
     </row>
     <row r="117" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="B117" s="23"/>
-      <c r="C117" s="25"/>
-      <c r="D117" s="25"/>
-      <c r="E117" s="25"/>
-      <c r="F117" s="25"/>
-      <c r="G117" s="25"/>
-      <c r="H117" s="25"/>
+      <c r="B117" s="35"/>
+      <c r="C117" s="23"/>
+      <c r="D117" s="23"/>
+      <c r="E117" s="23"/>
+      <c r="F117" s="23"/>
+      <c r="G117" s="23"/>
+      <c r="H117" s="23"/>
       <c r="I117" s="9"/>
-      <c r="J117" s="9"/>
+      <c r="J117" s="23"/>
       <c r="K117" s="9"/>
       <c r="L117" s="9"/>
       <c r="M117" s="9"/>
       <c r="N117" s="9"/>
       <c r="O117" s="9"/>
-      <c r="P117" s="25"/>
+      <c r="P117" s="23"/>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B118" s="23"/>
-      <c r="C118" s="25"/>
-      <c r="D118" s="25"/>
-      <c r="E118" s="25"/>
-      <c r="F118" s="25"/>
-      <c r="G118" s="25"/>
-      <c r="H118" s="25"/>
+      <c r="B118" s="35"/>
+      <c r="C118" s="23"/>
+      <c r="D118" s="23"/>
+      <c r="E118" s="23"/>
+      <c r="F118" s="23"/>
+      <c r="G118" s="23"/>
+      <c r="H118" s="23"/>
       <c r="I118" s="9"/>
-      <c r="J118" s="9"/>
+      <c r="J118" s="23"/>
       <c r="K118" s="9"/>
       <c r="L118" s="9"/>
       <c r="M118" s="9"/>
       <c r="N118" s="9"/>
       <c r="O118" s="9"/>
-      <c r="P118" s="25"/>
+      <c r="P118" s="23"/>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B119" s="24"/>
-      <c r="C119" s="26"/>
-      <c r="D119" s="26"/>
+      <c r="B119" s="36"/>
+      <c r="C119" s="24"/>
+      <c r="D119" s="24"/>
     </row>
   </sheetData>
   <sortState ref="A48:A58">
     <sortCondition ref="A48"/>
   </sortState>
   <mergeCells count="15">
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="G2:G3"/>
@@ -3513,6 +3509,11 @@
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="N2:N3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>

--- a/folder/ДИСПЕТЧЕРА.xlsx
+++ b/folder/ДИСПЕТЧЕРА.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="-15" windowWidth="19260" windowHeight="6030"/>
@@ -11,12 +11,12 @@
     <sheet name="Комментарии к расчету" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="150">
   <si>
     <t>ФИО</t>
   </si>
@@ -474,16 +474,22 @@
   <si>
     <t>КОРОЛЕВА ЕВГЕНИЯ ЭДУАРДОВНА</t>
   </si>
+  <si>
+    <t>Иванчина Сa Сa</t>
+  </si>
+  <si>
+    <t>Наплекова Нa Сa</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -532,6 +538,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="11">
@@ -649,7 +662,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -706,18 +719,8 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -736,13 +739,29 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -821,6 +840,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -855,6 +875,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1030,20 +1051,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P121"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.7109375" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="116.25" customHeight="1">
+    <row r="1" spans="1:16" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -1073,77 +1094,77 @@
       <c r="O1" s="9"/>
       <c r="P1" s="9"/>
     </row>
-    <row r="2" spans="1:16" ht="37.5" customHeight="1">
+    <row r="2" spans="1:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="35" t="s">
+      <c r="M2" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="35" t="s">
+      <c r="N2" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="30" t="s">
+      <c r="O2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="30" t="s">
+      <c r="P2" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="48" customHeight="1">
+    <row r="3" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
@@ -1154,16 +1175,16 @@
       <c r="F4" s="24"/>
       <c r="G4" s="24"/>
       <c r="H4" s="24"/>
-      <c r="I4" s="36"/>
+      <c r="I4" s="26"/>
       <c r="J4" s="24"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
-      <c r="M4" s="36"/>
+      <c r="M4" s="26"/>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
       <c r="P4" s="24"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>48</v>
       </c>
@@ -1174,16 +1195,16 @@
       <c r="F5" s="24"/>
       <c r="G5" s="24"/>
       <c r="H5" s="24"/>
-      <c r="I5" s="36"/>
+      <c r="I5" s="26"/>
       <c r="J5" s="24"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
-      <c r="M5" s="36"/>
+      <c r="M5" s="26"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
       <c r="P5" s="24"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>138</v>
       </c>
@@ -1194,16 +1215,16 @@
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
       <c r="H6" s="24"/>
-      <c r="I6" s="36"/>
+      <c r="I6" s="26"/>
       <c r="J6" s="24"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
-      <c r="M6" s="36"/>
+      <c r="M6" s="26"/>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
       <c r="P6" s="24"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>38</v>
       </c>
@@ -1214,16 +1235,16 @@
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
       <c r="H7" s="24"/>
-      <c r="I7" s="36"/>
+      <c r="I7" s="26"/>
       <c r="J7" s="24"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
-      <c r="M7" s="36"/>
+      <c r="M7" s="26"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
       <c r="P7" s="24"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>39</v>
       </c>
@@ -1234,16 +1255,16 @@
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
       <c r="H8" s="24"/>
-      <c r="I8" s="36"/>
+      <c r="I8" s="26"/>
       <c r="J8" s="24"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
-      <c r="M8" s="36"/>
+      <c r="M8" s="26"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
       <c r="P8" s="24"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>66</v>
       </c>
@@ -1254,16 +1275,16 @@
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
       <c r="H9" s="24"/>
-      <c r="I9" s="36"/>
+      <c r="I9" s="26"/>
       <c r="J9" s="24"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
-      <c r="M9" s="36"/>
+      <c r="M9" s="26"/>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
       <c r="P9" s="24"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>40</v>
       </c>
@@ -1274,16 +1295,16 @@
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
       <c r="H10" s="24"/>
-      <c r="I10" s="36"/>
+      <c r="I10" s="26"/>
       <c r="J10" s="24"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
-      <c r="M10" s="36"/>
+      <c r="M10" s="26"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
       <c r="P10" s="24"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>41</v>
       </c>
@@ -1294,16 +1315,16 @@
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
-      <c r="I11" s="36"/>
+      <c r="I11" s="26"/>
       <c r="J11" s="24"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
-      <c r="M11" s="36"/>
+      <c r="M11" s="26"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
       <c r="P11" s="24"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>42</v>
       </c>
@@ -1314,16 +1335,16 @@
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
-      <c r="I12" s="36"/>
+      <c r="I12" s="26"/>
       <c r="J12" s="24"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
-      <c r="M12" s="36"/>
+      <c r="M12" s="26"/>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
       <c r="P12" s="24"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>43</v>
       </c>
@@ -1334,16 +1355,16 @@
       <c r="F13" s="24"/>
       <c r="G13" s="24"/>
       <c r="H13" s="24"/>
-      <c r="I13" s="36"/>
+      <c r="I13" s="26"/>
       <c r="J13" s="24"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
-      <c r="M13" s="36"/>
+      <c r="M13" s="26"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
       <c r="P13" s="24"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>44</v>
       </c>
@@ -1354,16 +1375,16 @@
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
       <c r="H14" s="24"/>
-      <c r="I14" s="36"/>
+      <c r="I14" s="26"/>
       <c r="J14" s="24"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
-      <c r="M14" s="36"/>
+      <c r="M14" s="26"/>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
       <c r="P14" s="24"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>139</v>
       </c>
@@ -1374,16 +1395,16 @@
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
       <c r="H15" s="24"/>
-      <c r="I15" s="36"/>
+      <c r="I15" s="26"/>
       <c r="J15" s="24"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
-      <c r="M15" s="36"/>
+      <c r="M15" s="26"/>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
       <c r="P15" s="24"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>46</v>
       </c>
@@ -1394,16 +1415,16 @@
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
       <c r="H16" s="24"/>
-      <c r="I16" s="36"/>
+      <c r="I16" s="26"/>
       <c r="J16" s="24"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
-      <c r="M16" s="36"/>
+      <c r="M16" s="26"/>
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
       <c r="P16" s="24"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>47</v>
       </c>
@@ -1414,16 +1435,16 @@
       <c r="F17" s="24"/>
       <c r="G17" s="24"/>
       <c r="H17" s="24"/>
-      <c r="I17" s="36"/>
+      <c r="I17" s="26"/>
       <c r="J17" s="24"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
-      <c r="M17" s="36"/>
+      <c r="M17" s="26"/>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
       <c r="P17" s="24"/>
     </row>
-    <row r="18" spans="1:16" ht="30">
+    <row r="18" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>49</v>
       </c>
@@ -1455,7 +1476,7 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I18" s="36" t="e">
+      <c r="I18" s="26" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -1471,7 +1492,7 @@
         <f>SUM(L5:L17)</f>
         <v>0</v>
       </c>
-      <c r="M18" s="36" t="e">
+      <c r="M18" s="26" t="e">
         <f>AVERAGE(M5:M17)</f>
         <v>#DIV/0!</v>
       </c>
@@ -1488,7 +1509,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>59</v>
       </c>
@@ -1499,16 +1520,16 @@
       <c r="F19" s="24"/>
       <c r="G19" s="24"/>
       <c r="H19" s="24"/>
-      <c r="I19" s="36"/>
+      <c r="I19" s="26"/>
       <c r="J19" s="24"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
-      <c r="M19" s="36"/>
+      <c r="M19" s="26"/>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
       <c r="P19" s="24"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>140</v>
       </c>
@@ -1519,16 +1540,16 @@
       <c r="F20" s="24"/>
       <c r="G20" s="24"/>
       <c r="H20" s="24"/>
-      <c r="I20" s="36"/>
+      <c r="I20" s="26"/>
       <c r="J20" s="24"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
-      <c r="M20" s="36"/>
+      <c r="M20" s="26"/>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
       <c r="P20" s="24"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>50</v>
       </c>
@@ -1539,16 +1560,16 @@
       <c r="F21" s="24"/>
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
-      <c r="I21" s="36"/>
+      <c r="I21" s="26"/>
       <c r="J21" s="24"/>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
-      <c r="M21" s="36"/>
+      <c r="M21" s="26"/>
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
       <c r="P21" s="24"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>63</v>
       </c>
@@ -1559,16 +1580,16 @@
       <c r="F22" s="24"/>
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
-      <c r="I22" s="36"/>
+      <c r="I22" s="26"/>
       <c r="J22" s="24"/>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
-      <c r="M22" s="36"/>
+      <c r="M22" s="26"/>
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
       <c r="P22" s="24"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>51</v>
       </c>
@@ -1579,16 +1600,16 @@
       <c r="F23" s="24"/>
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
-      <c r="I23" s="36"/>
+      <c r="I23" s="26"/>
       <c r="J23" s="24"/>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
-      <c r="M23" s="36"/>
+      <c r="M23" s="26"/>
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
       <c r="P23" s="24"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>52</v>
       </c>
@@ -1599,16 +1620,16 @@
       <c r="F24" s="24"/>
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
-      <c r="I24" s="36"/>
+      <c r="I24" s="26"/>
       <c r="J24" s="24"/>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
-      <c r="M24" s="36"/>
+      <c r="M24" s="26"/>
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
       <c r="P24" s="24"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>53</v>
       </c>
@@ -1619,16 +1640,16 @@
       <c r="F25" s="24"/>
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
-      <c r="I25" s="36"/>
+      <c r="I25" s="26"/>
       <c r="J25" s="24"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
-      <c r="M25" s="36"/>
+      <c r="M25" s="26"/>
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
       <c r="P25" s="24"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>54</v>
       </c>
@@ -1639,16 +1660,16 @@
       <c r="F26" s="24"/>
       <c r="G26" s="24"/>
       <c r="H26" s="24"/>
-      <c r="I26" s="36"/>
+      <c r="I26" s="26"/>
       <c r="J26" s="24"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
-      <c r="M26" s="36"/>
+      <c r="M26" s="26"/>
       <c r="N26" s="9"/>
       <c r="O26" s="9"/>
       <c r="P26" s="24"/>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>55</v>
       </c>
@@ -1659,16 +1680,16 @@
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
       <c r="H27" s="24"/>
-      <c r="I27" s="36"/>
+      <c r="I27" s="26"/>
       <c r="J27" s="24"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
-      <c r="M27" s="36"/>
+      <c r="M27" s="26"/>
       <c r="N27" s="9"/>
       <c r="O27" s="9"/>
       <c r="P27" s="24"/>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>143</v>
       </c>
@@ -1679,16 +1700,16 @@
       <c r="F28" s="24"/>
       <c r="G28" s="24"/>
       <c r="H28" s="24"/>
-      <c r="I28" s="36"/>
+      <c r="I28" s="26"/>
       <c r="J28" s="24"/>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
-      <c r="M28" s="36"/>
+      <c r="M28" s="26"/>
       <c r="N28" s="9"/>
       <c r="O28" s="9"/>
       <c r="P28" s="24"/>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>56</v>
       </c>
@@ -1699,16 +1720,16 @@
       <c r="F29" s="24"/>
       <c r="G29" s="24"/>
       <c r="H29" s="24"/>
-      <c r="I29" s="36"/>
+      <c r="I29" s="26"/>
       <c r="J29" s="24"/>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
-      <c r="M29" s="36"/>
+      <c r="M29" s="26"/>
       <c r="N29" s="9"/>
       <c r="O29" s="9"/>
       <c r="P29" s="24"/>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>57</v>
       </c>
@@ -1719,16 +1740,16 @@
       <c r="F30" s="24"/>
       <c r="G30" s="24"/>
       <c r="H30" s="24"/>
-      <c r="I30" s="36"/>
+      <c r="I30" s="26"/>
       <c r="J30" s="24"/>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
-      <c r="M30" s="36"/>
+      <c r="M30" s="26"/>
       <c r="N30" s="9"/>
       <c r="O30" s="9"/>
       <c r="P30" s="24"/>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>58</v>
       </c>
@@ -1739,16 +1760,16 @@
       <c r="F31" s="24"/>
       <c r="G31" s="24"/>
       <c r="H31" s="24"/>
-      <c r="I31" s="36"/>
+      <c r="I31" s="26"/>
       <c r="J31" s="24"/>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
-      <c r="M31" s="36"/>
+      <c r="M31" s="26"/>
       <c r="N31" s="9"/>
       <c r="O31" s="9"/>
       <c r="P31" s="24"/>
     </row>
-    <row r="32" spans="1:16" ht="30">
+    <row r="32" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>60</v>
       </c>
@@ -1780,7 +1801,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I32" s="36" t="e">
+      <c r="I32" s="26" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1796,7 +1817,7 @@
         <f>SUM(L20:L31)</f>
         <v>0</v>
       </c>
-      <c r="M32" s="36" t="e">
+      <c r="M32" s="26" t="e">
         <f>AVERAGE(M20:M31)</f>
         <v>#DIV/0!</v>
       </c>
@@ -1813,7 +1834,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
         <v>72</v>
       </c>
@@ -1824,16 +1845,16 @@
       <c r="F33" s="24"/>
       <c r="G33" s="24"/>
       <c r="H33" s="24"/>
-      <c r="I33" s="36"/>
+      <c r="I33" s="26"/>
       <c r="J33" s="24"/>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
-      <c r="M33" s="36"/>
+      <c r="M33" s="26"/>
       <c r="N33" s="9"/>
       <c r="O33" s="9"/>
       <c r="P33" s="24"/>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="s">
         <v>82</v>
       </c>
@@ -1844,16 +1865,16 @@
       <c r="F34" s="24"/>
       <c r="G34" s="24"/>
       <c r="H34" s="24"/>
-      <c r="I34" s="36"/>
+      <c r="I34" s="26"/>
       <c r="J34" s="24"/>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
-      <c r="M34" s="36"/>
+      <c r="M34" s="26"/>
       <c r="N34" s="9"/>
       <c r="O34" s="9"/>
       <c r="P34" s="24"/>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>61</v>
       </c>
@@ -1864,16 +1885,16 @@
       <c r="F35" s="24"/>
       <c r="G35" s="24"/>
       <c r="H35" s="24"/>
-      <c r="I35" s="36"/>
+      <c r="I35" s="26"/>
       <c r="J35" s="24"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
-      <c r="M35" s="36"/>
+      <c r="M35" s="26"/>
       <c r="N35" s="9"/>
       <c r="O35" s="9"/>
       <c r="P35" s="24"/>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>62</v>
       </c>
@@ -1884,16 +1905,16 @@
       <c r="F36" s="24"/>
       <c r="G36" s="24"/>
       <c r="H36" s="24"/>
-      <c r="I36" s="36"/>
+      <c r="I36" s="26"/>
       <c r="J36" s="24"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
-      <c r="M36" s="36"/>
+      <c r="M36" s="26"/>
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
       <c r="P36" s="24"/>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>64</v>
       </c>
@@ -1904,16 +1925,16 @@
       <c r="F37" s="24"/>
       <c r="G37" s="24"/>
       <c r="H37" s="24"/>
-      <c r="I37" s="36"/>
+      <c r="I37" s="26"/>
       <c r="J37" s="24"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
-      <c r="M37" s="36"/>
+      <c r="M37" s="26"/>
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
       <c r="P37" s="24"/>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>65</v>
       </c>
@@ -1924,16 +1945,16 @@
       <c r="F38" s="24"/>
       <c r="G38" s="24"/>
       <c r="H38" s="24"/>
-      <c r="I38" s="36"/>
+      <c r="I38" s="26"/>
       <c r="J38" s="24"/>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
-      <c r="M38" s="36"/>
+      <c r="M38" s="26"/>
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
       <c r="P38" s="24"/>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>67</v>
       </c>
@@ -1944,16 +1965,16 @@
       <c r="F39" s="24"/>
       <c r="G39" s="24"/>
       <c r="H39" s="24"/>
-      <c r="I39" s="36"/>
+      <c r="I39" s="26"/>
       <c r="J39" s="24"/>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
-      <c r="M39" s="36"/>
+      <c r="M39" s="26"/>
       <c r="N39" s="9"/>
       <c r="O39" s="9"/>
       <c r="P39" s="24"/>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>68</v>
       </c>
@@ -1964,16 +1985,16 @@
       <c r="F40" s="24"/>
       <c r="G40" s="24"/>
       <c r="H40" s="24"/>
-      <c r="I40" s="36"/>
+      <c r="I40" s="26"/>
       <c r="J40" s="24"/>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
-      <c r="M40" s="36"/>
+      <c r="M40" s="26"/>
       <c r="N40" s="9"/>
       <c r="O40" s="9"/>
       <c r="P40" s="24"/>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>145</v>
       </c>
@@ -1984,16 +2005,16 @@
       <c r="F41" s="24"/>
       <c r="G41" s="24"/>
       <c r="H41" s="24"/>
-      <c r="I41" s="36"/>
+      <c r="I41" s="26"/>
       <c r="J41" s="24"/>
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
-      <c r="M41" s="36"/>
+      <c r="M41" s="26"/>
       <c r="N41" s="9"/>
       <c r="O41" s="9"/>
       <c r="P41" s="24"/>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>69</v>
       </c>
@@ -2004,16 +2025,16 @@
       <c r="F42" s="24"/>
       <c r="G42" s="24"/>
       <c r="H42" s="24"/>
-      <c r="I42" s="36"/>
+      <c r="I42" s="26"/>
       <c r="J42" s="24"/>
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
-      <c r="M42" s="36"/>
+      <c r="M42" s="26"/>
       <c r="N42" s="9"/>
       <c r="O42" s="9"/>
       <c r="P42" s="24"/>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>70</v>
       </c>
@@ -2024,16 +2045,16 @@
       <c r="F43" s="24"/>
       <c r="G43" s="24"/>
       <c r="H43" s="24"/>
-      <c r="I43" s="36"/>
+      <c r="I43" s="26"/>
       <c r="J43" s="24"/>
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
-      <c r="M43" s="36"/>
+      <c r="M43" s="26"/>
       <c r="N43" s="9"/>
       <c r="O43" s="9"/>
       <c r="P43" s="24"/>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>71</v>
       </c>
@@ -2044,16 +2065,16 @@
       <c r="F44" s="24"/>
       <c r="G44" s="24"/>
       <c r="H44" s="24"/>
-      <c r="I44" s="36"/>
+      <c r="I44" s="26"/>
       <c r="J44" s="24"/>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
-      <c r="M44" s="36"/>
+      <c r="M44" s="26"/>
       <c r="N44" s="9"/>
       <c r="O44" s="9"/>
       <c r="P44" s="24"/>
     </row>
-    <row r="45" spans="1:16" ht="30">
+    <row r="45" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
         <v>73</v>
       </c>
@@ -2085,7 +2106,7 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I45" s="36" t="e">
+      <c r="I45" s="26" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -2101,7 +2122,7 @@
         <f>SUM(L34:L44)</f>
         <v>0</v>
       </c>
-      <c r="M45" s="36" t="e">
+      <c r="M45" s="26" t="e">
         <f>AVERAGE(M34:M44)</f>
         <v>#DIV/0!</v>
       </c>
@@ -2118,7 +2139,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
         <v>83</v>
       </c>
@@ -2129,16 +2150,16 @@
       <c r="F46" s="24"/>
       <c r="G46" s="24"/>
       <c r="H46" s="24"/>
-      <c r="I46" s="36"/>
+      <c r="I46" s="26"/>
       <c r="J46" s="24"/>
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
-      <c r="M46" s="36"/>
+      <c r="M46" s="26"/>
       <c r="N46" s="9"/>
       <c r="O46" s="9"/>
       <c r="P46" s="24"/>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="23" t="s">
         <v>45</v>
       </c>
@@ -2149,16 +2170,16 @@
       <c r="F47" s="24"/>
       <c r="G47" s="24"/>
       <c r="H47" s="24"/>
-      <c r="I47" s="36"/>
+      <c r="I47" s="26"/>
       <c r="J47" s="24"/>
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
-      <c r="M47" s="36"/>
+      <c r="M47" s="26"/>
       <c r="N47" s="9"/>
       <c r="O47" s="9"/>
       <c r="P47" s="24"/>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>74</v>
       </c>
@@ -2169,16 +2190,16 @@
       <c r="F48" s="24"/>
       <c r="G48" s="24"/>
       <c r="H48" s="24"/>
-      <c r="I48" s="36"/>
+      <c r="I48" s="26"/>
       <c r="J48" s="24"/>
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
-      <c r="M48" s="36"/>
+      <c r="M48" s="26"/>
       <c r="N48" s="9"/>
       <c r="O48" s="9"/>
       <c r="P48" s="24"/>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>75</v>
       </c>
@@ -2189,16 +2210,16 @@
       <c r="F49" s="24"/>
       <c r="G49" s="24"/>
       <c r="H49" s="24"/>
-      <c r="I49" s="36"/>
+      <c r="I49" s="26"/>
       <c r="J49" s="24"/>
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
-      <c r="M49" s="36"/>
+      <c r="M49" s="26"/>
       <c r="N49" s="9"/>
       <c r="O49" s="9"/>
       <c r="P49" s="24"/>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>141</v>
       </c>
@@ -2209,16 +2230,16 @@
       <c r="F50" s="24"/>
       <c r="G50" s="24"/>
       <c r="H50" s="24"/>
-      <c r="I50" s="36"/>
+      <c r="I50" s="26"/>
       <c r="J50" s="24"/>
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
-      <c r="M50" s="36"/>
+      <c r="M50" s="26"/>
       <c r="N50" s="9"/>
       <c r="O50" s="9"/>
       <c r="P50" s="24"/>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>76</v>
       </c>
@@ -2229,16 +2250,16 @@
       <c r="F51" s="24"/>
       <c r="G51" s="24"/>
       <c r="H51" s="24"/>
-      <c r="I51" s="36"/>
+      <c r="I51" s="26"/>
       <c r="J51" s="24"/>
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
-      <c r="M51" s="36"/>
+      <c r="M51" s="26"/>
       <c r="N51" s="9"/>
       <c r="O51" s="9"/>
       <c r="P51" s="24"/>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>77</v>
       </c>
@@ -2249,16 +2270,16 @@
       <c r="F52" s="24"/>
       <c r="G52" s="24"/>
       <c r="H52" s="24"/>
-      <c r="I52" s="36"/>
+      <c r="I52" s="26"/>
       <c r="J52" s="24"/>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
-      <c r="M52" s="36"/>
+      <c r="M52" s="26"/>
       <c r="N52" s="9"/>
       <c r="O52" s="9"/>
       <c r="P52" s="24"/>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>146</v>
       </c>
@@ -2269,16 +2290,16 @@
       <c r="F53" s="24"/>
       <c r="G53" s="24"/>
       <c r="H53" s="24"/>
-      <c r="I53" s="36"/>
+      <c r="I53" s="26"/>
       <c r="J53" s="24"/>
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
-      <c r="M53" s="36"/>
+      <c r="M53" s="26"/>
       <c r="N53" s="9"/>
       <c r="O53" s="9"/>
       <c r="P53" s="24"/>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>78</v>
       </c>
@@ -2289,16 +2310,16 @@
       <c r="F54" s="24"/>
       <c r="G54" s="24"/>
       <c r="H54" s="24"/>
-      <c r="I54" s="36"/>
+      <c r="I54" s="26"/>
       <c r="J54" s="24"/>
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
-      <c r="M54" s="36"/>
+      <c r="M54" s="26"/>
       <c r="N54" s="9"/>
       <c r="O54" s="9"/>
       <c r="P54" s="24"/>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>142</v>
       </c>
@@ -2309,16 +2330,16 @@
       <c r="F55" s="24"/>
       <c r="G55" s="24"/>
       <c r="H55" s="24"/>
-      <c r="I55" s="36"/>
+      <c r="I55" s="26"/>
       <c r="J55" s="24"/>
       <c r="K55" s="9"/>
       <c r="L55" s="9"/>
-      <c r="M55" s="36"/>
+      <c r="M55" s="26"/>
       <c r="N55" s="9"/>
       <c r="O55" s="9"/>
       <c r="P55" s="24"/>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>79</v>
       </c>
@@ -2329,16 +2350,16 @@
       <c r="F56" s="24"/>
       <c r="G56" s="24"/>
       <c r="H56" s="24"/>
-      <c r="I56" s="36"/>
+      <c r="I56" s="26"/>
       <c r="J56" s="24"/>
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
-      <c r="M56" s="36"/>
+      <c r="M56" s="26"/>
       <c r="N56" s="9"/>
       <c r="O56" s="9"/>
       <c r="P56" s="24"/>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>80</v>
       </c>
@@ -2349,16 +2370,16 @@
       <c r="F57" s="24"/>
       <c r="G57" s="24"/>
       <c r="H57" s="24"/>
-      <c r="I57" s="36"/>
+      <c r="I57" s="26"/>
       <c r="J57" s="24"/>
       <c r="K57" s="9"/>
       <c r="L57" s="9"/>
-      <c r="M57" s="36"/>
+      <c r="M57" s="26"/>
       <c r="N57" s="9"/>
       <c r="O57" s="9"/>
       <c r="P57" s="24"/>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>81</v>
       </c>
@@ -2369,16 +2390,16 @@
       <c r="F58" s="24"/>
       <c r="G58" s="24"/>
       <c r="H58" s="24"/>
-      <c r="I58" s="36"/>
+      <c r="I58" s="26"/>
       <c r="J58" s="24"/>
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
-      <c r="M58" s="36"/>
+      <c r="M58" s="26"/>
       <c r="N58" s="9"/>
       <c r="O58" s="9"/>
       <c r="P58" s="24"/>
     </row>
-    <row r="59" spans="1:16" ht="30">
+    <row r="59" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
         <v>84</v>
       </c>
@@ -2410,7 +2431,7 @@
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I59" s="36" t="e">
+      <c r="I59" s="26" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -2426,7 +2447,7 @@
         <f>SUM(L47:L58)</f>
         <v>0</v>
       </c>
-      <c r="M59" s="36" t="e">
+      <c r="M59" s="26" t="e">
         <f>AVERAGE(M47:M58)</f>
         <v>#DIV/0!</v>
       </c>
@@ -2443,7 +2464,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="19" t="s">
         <v>2</v>
       </c>
@@ -2475,7 +2496,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I60" s="36" t="e">
+      <c r="I60" s="26" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -2491,7 +2512,7 @@
         <f>SUM(L18,L32,L45,L59)</f>
         <v>0</v>
       </c>
-      <c r="M60" s="36" t="e">
+      <c r="M60" s="26" t="e">
         <f t="shared" ref="M60:P60" si="5">AVERAGE(M18,M32,M45,M59)</f>
         <v>#DIV/0!</v>
       </c>
@@ -2508,7 +2529,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>3</v>
       </c>
@@ -2519,16 +2540,16 @@
       <c r="F61" s="24"/>
       <c r="G61" s="24"/>
       <c r="H61" s="24"/>
-      <c r="I61" s="36"/>
+      <c r="I61" s="26"/>
       <c r="J61" s="24"/>
       <c r="K61" s="9"/>
       <c r="L61" s="9"/>
-      <c r="M61" s="36"/>
+      <c r="M61" s="26"/>
       <c r="N61" s="9"/>
       <c r="O61" s="9"/>
       <c r="P61" s="24"/>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>91</v>
       </c>
@@ -2539,16 +2560,16 @@
       <c r="F62" s="24"/>
       <c r="G62" s="24"/>
       <c r="H62" s="24"/>
-      <c r="I62" s="36"/>
+      <c r="I62" s="26"/>
       <c r="J62" s="24"/>
       <c r="K62" s="9"/>
       <c r="L62" s="9"/>
-      <c r="M62" s="36"/>
+      <c r="M62" s="26"/>
       <c r="N62" s="9"/>
       <c r="O62" s="9"/>
       <c r="P62" s="24"/>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="20" t="s">
         <v>85</v>
       </c>
@@ -2559,16 +2580,16 @@
       <c r="F63" s="24"/>
       <c r="G63" s="24"/>
       <c r="H63" s="24"/>
-      <c r="I63" s="36"/>
+      <c r="I63" s="26"/>
       <c r="J63" s="24"/>
       <c r="K63" s="9"/>
       <c r="L63" s="9"/>
-      <c r="M63" s="36"/>
+      <c r="M63" s="26"/>
       <c r="N63" s="9"/>
       <c r="O63" s="9"/>
       <c r="P63" s="24"/>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="21" t="s">
         <v>86</v>
       </c>
@@ -2579,16 +2600,16 @@
       <c r="F64" s="24"/>
       <c r="G64" s="24"/>
       <c r="H64" s="24"/>
-      <c r="I64" s="36"/>
+      <c r="I64" s="26"/>
       <c r="J64" s="24"/>
       <c r="K64" s="9"/>
       <c r="L64" s="9"/>
-      <c r="M64" s="36"/>
+      <c r="M64" s="26"/>
       <c r="N64" s="9"/>
       <c r="O64" s="9"/>
       <c r="P64" s="24"/>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="21" t="s">
         <v>87</v>
       </c>
@@ -2599,16 +2620,16 @@
       <c r="F65" s="24"/>
       <c r="G65" s="24"/>
       <c r="H65" s="24"/>
-      <c r="I65" s="36"/>
+      <c r="I65" s="26"/>
       <c r="J65" s="24"/>
       <c r="K65" s="9"/>
       <c r="L65" s="9"/>
-      <c r="M65" s="36"/>
+      <c r="M65" s="26"/>
       <c r="N65" s="9"/>
       <c r="O65" s="9"/>
       <c r="P65" s="24"/>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="21" t="s">
         <v>88</v>
       </c>
@@ -2619,16 +2640,16 @@
       <c r="F66" s="24"/>
       <c r="G66" s="24"/>
       <c r="H66" s="24"/>
-      <c r="I66" s="36"/>
+      <c r="I66" s="26"/>
       <c r="J66" s="24"/>
       <c r="K66" s="9"/>
       <c r="L66" s="9"/>
-      <c r="M66" s="36"/>
+      <c r="M66" s="26"/>
       <c r="N66" s="9"/>
       <c r="O66" s="9"/>
       <c r="P66" s="24"/>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="21" t="s">
         <v>89</v>
       </c>
@@ -2639,16 +2660,16 @@
       <c r="F67" s="24"/>
       <c r="G67" s="24"/>
       <c r="H67" s="24"/>
-      <c r="I67" s="36"/>
+      <c r="I67" s="26"/>
       <c r="J67" s="24"/>
       <c r="K67" s="9"/>
       <c r="L67" s="9"/>
-      <c r="M67" s="36"/>
+      <c r="M67" s="26"/>
       <c r="N67" s="9"/>
       <c r="O67" s="9"/>
       <c r="P67" s="24"/>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="20" t="s">
         <v>90</v>
       </c>
@@ -2659,16 +2680,16 @@
       <c r="F68" s="24"/>
       <c r="G68" s="24"/>
       <c r="H68" s="24"/>
-      <c r="I68" s="36"/>
+      <c r="I68" s="26"/>
       <c r="J68" s="24"/>
       <c r="K68" s="9"/>
       <c r="L68" s="9"/>
-      <c r="M68" s="36"/>
+      <c r="M68" s="26"/>
       <c r="N68" s="9"/>
       <c r="O68" s="9"/>
       <c r="P68" s="24"/>
     </row>
-    <row r="69" spans="1:16" ht="30">
+    <row r="69" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
         <v>92</v>
       </c>
@@ -2700,7 +2721,7 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I69" s="36" t="e">
+      <c r="I69" s="26" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -2716,7 +2737,7 @@
         <f>SUM(L63:L68)</f>
         <v>0</v>
       </c>
-      <c r="M69" s="36" t="e">
+      <c r="M69" s="26" t="e">
         <f>AVERAGE(M63:M68)</f>
         <v>#DIV/0!</v>
       </c>
@@ -2733,7 +2754,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>93</v>
       </c>
@@ -2744,16 +2765,16 @@
       <c r="F70" s="24"/>
       <c r="G70" s="24"/>
       <c r="H70" s="24"/>
-      <c r="I70" s="36"/>
+      <c r="I70" s="26"/>
       <c r="J70" s="24"/>
       <c r="K70" s="9"/>
       <c r="L70" s="9"/>
-      <c r="M70" s="36"/>
+      <c r="M70" s="26"/>
       <c r="N70" s="9"/>
       <c r="O70" s="9"/>
       <c r="P70" s="24"/>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="21" t="s">
         <v>94</v>
       </c>
@@ -2764,16 +2785,16 @@
       <c r="F71" s="24"/>
       <c r="G71" s="24"/>
       <c r="H71" s="24"/>
-      <c r="I71" s="36"/>
+      <c r="I71" s="26"/>
       <c r="J71" s="24"/>
       <c r="K71" s="9"/>
       <c r="L71" s="9"/>
-      <c r="M71" s="36"/>
+      <c r="M71" s="26"/>
       <c r="N71" s="9"/>
       <c r="O71" s="9"/>
       <c r="P71" s="24"/>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="21" t="s">
         <v>95</v>
       </c>
@@ -2784,16 +2805,16 @@
       <c r="F72" s="24"/>
       <c r="G72" s="24"/>
       <c r="H72" s="24"/>
-      <c r="I72" s="36"/>
+      <c r="I72" s="26"/>
       <c r="J72" s="24"/>
       <c r="K72" s="9"/>
       <c r="L72" s="9"/>
-      <c r="M72" s="36"/>
+      <c r="M72" s="26"/>
       <c r="N72" s="9"/>
       <c r="O72" s="9"/>
       <c r="P72" s="24"/>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="21" t="s">
         <v>96</v>
       </c>
@@ -2804,16 +2825,16 @@
       <c r="F73" s="24"/>
       <c r="G73" s="24"/>
       <c r="H73" s="24"/>
-      <c r="I73" s="36"/>
+      <c r="I73" s="26"/>
       <c r="J73" s="24"/>
       <c r="K73" s="9"/>
       <c r="L73" s="9"/>
-      <c r="M73" s="36"/>
+      <c r="M73" s="26"/>
       <c r="N73" s="9"/>
       <c r="O73" s="9"/>
       <c r="P73" s="24"/>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="22" t="s">
         <v>97</v>
       </c>
@@ -2824,16 +2845,16 @@
       <c r="F74" s="24"/>
       <c r="G74" s="24"/>
       <c r="H74" s="24"/>
-      <c r="I74" s="36"/>
+      <c r="I74" s="26"/>
       <c r="J74" s="24"/>
       <c r="K74" s="9"/>
       <c r="L74" s="9"/>
-      <c r="M74" s="36"/>
+      <c r="M74" s="26"/>
       <c r="N74" s="9"/>
       <c r="O74" s="9"/>
       <c r="P74" s="24"/>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="21" t="s">
         <v>98</v>
       </c>
@@ -2844,16 +2865,16 @@
       <c r="F75" s="24"/>
       <c r="G75" s="24"/>
       <c r="H75" s="24"/>
-      <c r="I75" s="36"/>
+      <c r="I75" s="26"/>
       <c r="J75" s="24"/>
       <c r="K75" s="9"/>
       <c r="L75" s="9"/>
-      <c r="M75" s="36"/>
+      <c r="M75" s="26"/>
       <c r="N75" s="9"/>
       <c r="O75" s="9"/>
       <c r="P75" s="24"/>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="20" t="s">
         <v>99</v>
       </c>
@@ -2864,16 +2885,16 @@
       <c r="F76" s="24"/>
       <c r="G76" s="24"/>
       <c r="H76" s="24"/>
-      <c r="I76" s="36"/>
+      <c r="I76" s="26"/>
       <c r="J76" s="24"/>
       <c r="K76" s="9"/>
       <c r="L76" s="9"/>
-      <c r="M76" s="36"/>
+      <c r="M76" s="26"/>
       <c r="N76" s="9"/>
       <c r="O76" s="9"/>
       <c r="P76" s="24"/>
     </row>
-    <row r="77" spans="1:16" ht="30">
+    <row r="77" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
         <v>100</v>
       </c>
@@ -2905,7 +2926,7 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I77" s="36" t="e">
+      <c r="I77" s="26" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
@@ -2921,7 +2942,7 @@
         <f>SUM(L71:L76)</f>
         <v>0</v>
       </c>
-      <c r="M77" s="36" t="e">
+      <c r="M77" s="26" t="e">
         <f>AVERAGE(M71:M76)</f>
         <v>#DIV/0!</v>
       </c>
@@ -2938,7 +2959,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>101</v>
       </c>
@@ -2949,16 +2970,16 @@
       <c r="F78" s="24"/>
       <c r="G78" s="24"/>
       <c r="H78" s="24"/>
-      <c r="I78" s="36"/>
+      <c r="I78" s="26"/>
       <c r="J78" s="24"/>
       <c r="K78" s="9"/>
       <c r="L78" s="9"/>
-      <c r="M78" s="36"/>
+      <c r="M78" s="26"/>
       <c r="N78" s="9"/>
       <c r="O78" s="9"/>
       <c r="P78" s="24"/>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="21" t="s">
         <v>102</v>
       </c>
@@ -2969,16 +2990,16 @@
       <c r="F79" s="24"/>
       <c r="G79" s="24"/>
       <c r="H79" s="24"/>
-      <c r="I79" s="36"/>
+      <c r="I79" s="26"/>
       <c r="J79" s="24"/>
       <c r="K79" s="9"/>
       <c r="L79" s="9"/>
-      <c r="M79" s="36"/>
+      <c r="M79" s="26"/>
       <c r="N79" s="9"/>
       <c r="O79" s="9"/>
       <c r="P79" s="24"/>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="21" t="s">
         <v>103</v>
       </c>
@@ -2989,16 +3010,16 @@
       <c r="F80" s="24"/>
       <c r="G80" s="24"/>
       <c r="H80" s="24"/>
-      <c r="I80" s="36"/>
+      <c r="I80" s="26"/>
       <c r="J80" s="24"/>
       <c r="K80" s="9"/>
       <c r="L80" s="9"/>
-      <c r="M80" s="36"/>
+      <c r="M80" s="26"/>
       <c r="N80" s="9"/>
       <c r="O80" s="9"/>
       <c r="P80" s="24"/>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="21" t="s">
         <v>104</v>
       </c>
@@ -3009,16 +3030,16 @@
       <c r="F81" s="24"/>
       <c r="G81" s="24"/>
       <c r="H81" s="24"/>
-      <c r="I81" s="36"/>
+      <c r="I81" s="26"/>
       <c r="J81" s="24"/>
       <c r="K81" s="9"/>
       <c r="L81" s="9"/>
-      <c r="M81" s="36"/>
+      <c r="M81" s="26"/>
       <c r="N81" s="9"/>
       <c r="O81" s="9"/>
       <c r="P81" s="24"/>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="21" t="s">
         <v>105</v>
       </c>
@@ -3029,16 +3050,16 @@
       <c r="F82" s="24"/>
       <c r="G82" s="24"/>
       <c r="H82" s="24"/>
-      <c r="I82" s="36"/>
+      <c r="I82" s="26"/>
       <c r="J82" s="24"/>
       <c r="K82" s="9"/>
       <c r="L82" s="9"/>
-      <c r="M82" s="36"/>
+      <c r="M82" s="26"/>
       <c r="N82" s="9"/>
       <c r="O82" s="9"/>
       <c r="P82" s="24"/>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="20" t="s">
         <v>106</v>
       </c>
@@ -3049,16 +3070,16 @@
       <c r="F83" s="24"/>
       <c r="G83" s="24"/>
       <c r="H83" s="24"/>
-      <c r="I83" s="36"/>
+      <c r="I83" s="26"/>
       <c r="J83" s="24"/>
       <c r="K83" s="9"/>
       <c r="L83" s="9"/>
-      <c r="M83" s="36"/>
+      <c r="M83" s="26"/>
       <c r="N83" s="9"/>
       <c r="O83" s="9"/>
       <c r="P83" s="24"/>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="20" t="s">
         <v>107</v>
       </c>
@@ -3069,16 +3090,16 @@
       <c r="F84" s="24"/>
       <c r="G84" s="24"/>
       <c r="H84" s="24"/>
-      <c r="I84" s="36"/>
+      <c r="I84" s="26"/>
       <c r="J84" s="24"/>
       <c r="K84" s="9"/>
       <c r="L84" s="9"/>
-      <c r="M84" s="36"/>
+      <c r="M84" s="26"/>
       <c r="N84" s="9"/>
       <c r="O84" s="9"/>
       <c r="P84" s="24"/>
     </row>
-    <row r="85" spans="1:16" ht="30">
+    <row r="85" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="16" t="s">
         <v>108</v>
       </c>
@@ -3110,7 +3131,7 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I85" s="36" t="e">
+      <c r="I85" s="26" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
@@ -3126,7 +3147,7 @@
         <f>SUM(L79:L84)</f>
         <v>0</v>
       </c>
-      <c r="M85" s="36" t="e">
+      <c r="M85" s="26" t="e">
         <f>AVERAGE(M79:M84)</f>
         <v>#DIV/0!</v>
       </c>
@@ -3143,7 +3164,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>109</v>
       </c>
@@ -3154,16 +3175,16 @@
       <c r="F86" s="24"/>
       <c r="G86" s="24"/>
       <c r="H86" s="24"/>
-      <c r="I86" s="36"/>
+      <c r="I86" s="26"/>
       <c r="J86" s="24"/>
       <c r="K86" s="9"/>
       <c r="L86" s="9"/>
-      <c r="M86" s="36"/>
+      <c r="M86" s="26"/>
       <c r="N86" s="9"/>
       <c r="O86" s="9"/>
       <c r="P86" s="24"/>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="21" t="s">
         <v>110</v>
       </c>
@@ -3174,16 +3195,16 @@
       <c r="F87" s="24"/>
       <c r="G87" s="24"/>
       <c r="H87" s="24"/>
-      <c r="I87" s="36"/>
+      <c r="I87" s="26"/>
       <c r="J87" s="24"/>
       <c r="K87" s="9"/>
       <c r="L87" s="9"/>
-      <c r="M87" s="36"/>
+      <c r="M87" s="26"/>
       <c r="N87" s="9"/>
       <c r="O87" s="9"/>
       <c r="P87" s="24"/>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="21" t="s">
         <v>111</v>
       </c>
@@ -3194,16 +3215,16 @@
       <c r="F88" s="24"/>
       <c r="G88" s="24"/>
       <c r="H88" s="24"/>
-      <c r="I88" s="36"/>
+      <c r="I88" s="26"/>
       <c r="J88" s="24"/>
       <c r="K88" s="9"/>
       <c r="L88" s="9"/>
-      <c r="M88" s="36"/>
+      <c r="M88" s="26"/>
       <c r="N88" s="9"/>
       <c r="O88" s="9"/>
       <c r="P88" s="24"/>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="21" t="s">
         <v>112</v>
       </c>
@@ -3214,16 +3235,16 @@
       <c r="F89" s="24"/>
       <c r="G89" s="24"/>
       <c r="H89" s="24"/>
-      <c r="I89" s="36"/>
+      <c r="I89" s="26"/>
       <c r="J89" s="24"/>
       <c r="K89" s="9"/>
       <c r="L89" s="9"/>
-      <c r="M89" s="36"/>
+      <c r="M89" s="26"/>
       <c r="N89" s="9"/>
       <c r="O89" s="9"/>
       <c r="P89" s="24"/>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="21" t="s">
         <v>147</v>
       </c>
@@ -3234,16 +3255,16 @@
       <c r="F90" s="24"/>
       <c r="G90" s="24"/>
       <c r="H90" s="24"/>
-      <c r="I90" s="36"/>
+      <c r="I90" s="26"/>
       <c r="J90" s="24"/>
       <c r="K90" s="9"/>
       <c r="L90" s="9"/>
-      <c r="M90" s="36"/>
+      <c r="M90" s="26"/>
       <c r="N90" s="9"/>
       <c r="O90" s="9"/>
       <c r="P90" s="24"/>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="21" t="s">
         <v>113</v>
       </c>
@@ -3254,16 +3275,16 @@
       <c r="F91" s="24"/>
       <c r="G91" s="24"/>
       <c r="H91" s="24"/>
-      <c r="I91" s="36"/>
+      <c r="I91" s="26"/>
       <c r="J91" s="24"/>
       <c r="K91" s="9"/>
       <c r="L91" s="9"/>
-      <c r="M91" s="36"/>
+      <c r="M91" s="26"/>
       <c r="N91" s="9"/>
       <c r="O91" s="9"/>
       <c r="P91" s="24"/>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="20" t="s">
         <v>114</v>
       </c>
@@ -3274,16 +3295,16 @@
       <c r="F92" s="24"/>
       <c r="G92" s="24"/>
       <c r="H92" s="24"/>
-      <c r="I92" s="36"/>
+      <c r="I92" s="26"/>
       <c r="J92" s="24"/>
       <c r="K92" s="9"/>
       <c r="L92" s="9"/>
-      <c r="M92" s="36"/>
+      <c r="M92" s="26"/>
       <c r="N92" s="9"/>
       <c r="O92" s="9"/>
       <c r="P92" s="24"/>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="21" t="s">
         <v>115</v>
       </c>
@@ -3294,16 +3315,16 @@
       <c r="F93" s="24"/>
       <c r="G93" s="24"/>
       <c r="H93" s="24"/>
-      <c r="I93" s="36"/>
+      <c r="I93" s="26"/>
       <c r="J93" s="24"/>
       <c r="K93" s="9"/>
       <c r="L93" s="9"/>
-      <c r="M93" s="36"/>
+      <c r="M93" s="26"/>
       <c r="N93" s="9"/>
       <c r="O93" s="9"/>
       <c r="P93" s="24"/>
     </row>
-    <row r="94" spans="1:16" ht="30">
+    <row r="94" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="16" t="s">
         <v>116</v>
       </c>
@@ -3335,7 +3356,7 @@
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I94" s="36" t="e">
+      <c r="I94" s="26" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -3351,7 +3372,7 @@
         <f>SUM(L87:L93)</f>
         <v>0</v>
       </c>
-      <c r="M94" s="36" t="e">
+      <c r="M94" s="26" t="e">
         <f>AVERAGE(M87:M93)</f>
         <v>#DIV/0!</v>
       </c>
@@ -3368,7 +3389,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>4</v>
       </c>
@@ -3400,7 +3421,7 @@
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I95" s="36" t="e">
+      <c r="I95" s="26" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
@@ -3416,7 +3437,7 @@
         <f>SUM(L69,L77,L85,L94)</f>
         <v>0</v>
       </c>
-      <c r="M95" s="36" t="e">
+      <c r="M95" s="26" t="e">
         <f t="shared" ref="M95:P95" si="11">AVERAGE(M69,M77,M85,M94)</f>
         <v>#DIV/0!</v>
       </c>
@@ -3433,7 +3454,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>5</v>
       </c>
@@ -3444,16 +3465,16 @@
       <c r="F96" s="24"/>
       <c r="G96" s="24"/>
       <c r="H96" s="24"/>
-      <c r="I96" s="36"/>
+      <c r="I96" s="26"/>
       <c r="J96" s="24"/>
       <c r="K96" s="9"/>
       <c r="L96" s="9"/>
-      <c r="M96" s="36"/>
+      <c r="M96" s="26"/>
       <c r="N96" s="9"/>
       <c r="O96" s="9"/>
       <c r="P96" s="24"/>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>144</v>
       </c>
@@ -3464,16 +3485,16 @@
       <c r="F97" s="24"/>
       <c r="G97" s="24"/>
       <c r="H97" s="24"/>
-      <c r="I97" s="36"/>
+      <c r="I97" s="26"/>
       <c r="J97" s="24"/>
       <c r="K97" s="9"/>
       <c r="L97" s="9"/>
-      <c r="M97" s="36"/>
+      <c r="M97" s="26"/>
       <c r="N97" s="9"/>
       <c r="O97" s="9"/>
       <c r="P97" s="24"/>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
         <v>117</v>
       </c>
@@ -3484,16 +3505,16 @@
       <c r="F98" s="24"/>
       <c r="G98" s="24"/>
       <c r="H98" s="24"/>
-      <c r="I98" s="36"/>
+      <c r="I98" s="26"/>
       <c r="J98" s="24"/>
       <c r="K98" s="9"/>
       <c r="L98" s="9"/>
-      <c r="M98" s="36"/>
+      <c r="M98" s="26"/>
       <c r="N98" s="9"/>
       <c r="O98" s="9"/>
       <c r="P98" s="24"/>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
         <v>118</v>
       </c>
@@ -3504,16 +3525,16 @@
       <c r="F99" s="24"/>
       <c r="G99" s="24"/>
       <c r="H99" s="24"/>
-      <c r="I99" s="36"/>
+      <c r="I99" s="26"/>
       <c r="J99" s="24"/>
       <c r="K99" s="9"/>
       <c r="L99" s="9"/>
-      <c r="M99" s="36"/>
+      <c r="M99" s="26"/>
       <c r="N99" s="9"/>
       <c r="O99" s="9"/>
       <c r="P99" s="24"/>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
         <v>119</v>
       </c>
@@ -3524,16 +3545,16 @@
       <c r="F100" s="24"/>
       <c r="G100" s="24"/>
       <c r="H100" s="24"/>
-      <c r="I100" s="36"/>
+      <c r="I100" s="26"/>
       <c r="J100" s="24"/>
       <c r="K100" s="9"/>
       <c r="L100" s="9"/>
-      <c r="M100" s="36"/>
+      <c r="M100" s="26"/>
       <c r="N100" s="9"/>
       <c r="O100" s="9"/>
       <c r="P100" s="24"/>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
         <v>120</v>
       </c>
@@ -3544,16 +3565,16 @@
       <c r="F101" s="24"/>
       <c r="G101" s="24"/>
       <c r="H101" s="24"/>
-      <c r="I101" s="36"/>
+      <c r="I101" s="26"/>
       <c r="J101" s="24"/>
       <c r="K101" s="9"/>
       <c r="L101" s="9"/>
-      <c r="M101" s="36"/>
+      <c r="M101" s="26"/>
       <c r="N101" s="9"/>
       <c r="O101" s="9"/>
       <c r="P101" s="24"/>
     </row>
-    <row r="102" spans="1:16">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
         <v>121</v>
       </c>
@@ -3564,16 +3585,16 @@
       <c r="F102" s="24"/>
       <c r="G102" s="24"/>
       <c r="H102" s="24"/>
-      <c r="I102" s="36"/>
+      <c r="I102" s="26"/>
       <c r="J102" s="24"/>
       <c r="K102" s="9"/>
       <c r="L102" s="9"/>
-      <c r="M102" s="36"/>
+      <c r="M102" s="26"/>
       <c r="N102" s="9"/>
       <c r="O102" s="9"/>
       <c r="P102" s="24"/>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
         <v>122</v>
       </c>
@@ -3584,16 +3605,16 @@
       <c r="F103" s="24"/>
       <c r="G103" s="24"/>
       <c r="H103" s="24"/>
-      <c r="I103" s="36"/>
+      <c r="I103" s="26"/>
       <c r="J103" s="24"/>
       <c r="K103" s="9"/>
       <c r="L103" s="9"/>
-      <c r="M103" s="36"/>
+      <c r="M103" s="26"/>
       <c r="N103" s="9"/>
       <c r="O103" s="9"/>
       <c r="P103" s="24"/>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
         <v>123</v>
       </c>
@@ -3604,16 +3625,16 @@
       <c r="F104" s="24"/>
       <c r="G104" s="24"/>
       <c r="H104" s="24"/>
-      <c r="I104" s="36"/>
+      <c r="I104" s="26"/>
       <c r="J104" s="24"/>
       <c r="K104" s="9"/>
       <c r="L104" s="9"/>
-      <c r="M104" s="36"/>
+      <c r="M104" s="26"/>
       <c r="N104" s="9"/>
       <c r="O104" s="9"/>
       <c r="P104" s="24"/>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
         <v>124</v>
       </c>
@@ -3624,16 +3645,16 @@
       <c r="F105" s="24"/>
       <c r="G105" s="24"/>
       <c r="H105" s="24"/>
-      <c r="I105" s="36"/>
+      <c r="I105" s="26"/>
       <c r="J105" s="24"/>
       <c r="K105" s="9"/>
       <c r="L105" s="9"/>
-      <c r="M105" s="36"/>
+      <c r="M105" s="26"/>
       <c r="N105" s="9"/>
       <c r="O105" s="9"/>
       <c r="P105" s="24"/>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
         <v>125</v>
       </c>
@@ -3644,16 +3665,16 @@
       <c r="F106" s="24"/>
       <c r="G106" s="24"/>
       <c r="H106" s="24"/>
-      <c r="I106" s="36"/>
+      <c r="I106" s="26"/>
       <c r="J106" s="24"/>
       <c r="K106" s="9"/>
       <c r="L106" s="9"/>
-      <c r="M106" s="36"/>
+      <c r="M106" s="26"/>
       <c r="N106" s="9"/>
       <c r="O106" s="9"/>
       <c r="P106" s="24"/>
     </row>
-    <row r="107" spans="1:16" ht="30">
+    <row r="107" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="16" t="s">
         <v>126</v>
       </c>
@@ -3685,7 +3706,7 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I107" s="36" t="e">
+      <c r="I107" s="26" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -3701,7 +3722,7 @@
         <f>SUM(L98:L106)</f>
         <v>0</v>
       </c>
-      <c r="M107" s="36" t="e">
+      <c r="M107" s="26" t="e">
         <f>AVERAGE(M98:M106)</f>
         <v>#DIV/0!</v>
       </c>
@@ -3718,7 +3739,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>127</v>
       </c>
@@ -3729,16 +3750,16 @@
       <c r="F108" s="24"/>
       <c r="G108" s="24"/>
       <c r="H108" s="24"/>
-      <c r="I108" s="36"/>
+      <c r="I108" s="26"/>
       <c r="J108" s="24"/>
       <c r="K108" s="9"/>
       <c r="L108" s="9"/>
-      <c r="M108" s="36"/>
+      <c r="M108" s="26"/>
       <c r="N108" s="9"/>
       <c r="O108" s="9"/>
       <c r="P108" s="24"/>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
         <v>128</v>
       </c>
@@ -3749,16 +3770,16 @@
       <c r="F109" s="24"/>
       <c r="G109" s="24"/>
       <c r="H109" s="24"/>
-      <c r="I109" s="36"/>
+      <c r="I109" s="26"/>
       <c r="J109" s="24"/>
       <c r="K109" s="9"/>
       <c r="L109" s="9"/>
-      <c r="M109" s="36"/>
+      <c r="M109" s="26"/>
       <c r="N109" s="9"/>
       <c r="O109" s="9"/>
       <c r="P109" s="24"/>
     </row>
-    <row r="110" spans="1:16">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
         <v>129</v>
       </c>
@@ -3769,16 +3790,16 @@
       <c r="F110" s="24"/>
       <c r="G110" s="24"/>
       <c r="H110" s="24"/>
-      <c r="I110" s="36"/>
+      <c r="I110" s="26"/>
       <c r="J110" s="24"/>
       <c r="K110" s="9"/>
       <c r="L110" s="9"/>
-      <c r="M110" s="36"/>
+      <c r="M110" s="26"/>
       <c r="N110" s="9"/>
       <c r="O110" s="9"/>
       <c r="P110" s="24"/>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="s">
         <v>130</v>
       </c>
@@ -3789,16 +3810,16 @@
       <c r="F111" s="24"/>
       <c r="G111" s="24"/>
       <c r="H111" s="24"/>
-      <c r="I111" s="36"/>
+      <c r="I111" s="26"/>
       <c r="J111" s="24"/>
       <c r="K111" s="9"/>
       <c r="L111" s="9"/>
-      <c r="M111" s="36"/>
+      <c r="M111" s="26"/>
       <c r="N111" s="9"/>
       <c r="O111" s="9"/>
       <c r="P111" s="24"/>
     </row>
-    <row r="112" spans="1:16">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
         <v>131</v>
       </c>
@@ -3809,16 +3830,16 @@
       <c r="F112" s="24"/>
       <c r="G112" s="24"/>
       <c r="H112" s="24"/>
-      <c r="I112" s="36"/>
+      <c r="I112" s="26"/>
       <c r="J112" s="24"/>
       <c r="K112" s="9"/>
       <c r="L112" s="9"/>
-      <c r="M112" s="36"/>
+      <c r="M112" s="26"/>
       <c r="N112" s="9"/>
       <c r="O112" s="9"/>
       <c r="P112" s="24"/>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
         <v>132</v>
       </c>
@@ -3829,16 +3850,16 @@
       <c r="F113" s="24"/>
       <c r="G113" s="24"/>
       <c r="H113" s="24"/>
-      <c r="I113" s="36"/>
+      <c r="I113" s="26"/>
       <c r="J113" s="24"/>
       <c r="K113" s="9"/>
       <c r="L113" s="9"/>
-      <c r="M113" s="36"/>
+      <c r="M113" s="26"/>
       <c r="N113" s="9"/>
       <c r="O113" s="9"/>
       <c r="P113" s="24"/>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
         <v>133</v>
       </c>
@@ -3849,16 +3870,16 @@
       <c r="F114" s="24"/>
       <c r="G114" s="24"/>
       <c r="H114" s="24"/>
-      <c r="I114" s="36"/>
+      <c r="I114" s="26"/>
       <c r="J114" s="24"/>
       <c r="K114" s="9"/>
       <c r="L114" s="9"/>
-      <c r="M114" s="36"/>
+      <c r="M114" s="26"/>
       <c r="N114" s="9"/>
       <c r="O114" s="9"/>
       <c r="P114" s="24"/>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="s">
         <v>134</v>
       </c>
@@ -3869,16 +3890,16 @@
       <c r="F115" s="24"/>
       <c r="G115" s="24"/>
       <c r="H115" s="24"/>
-      <c r="I115" s="36"/>
+      <c r="I115" s="26"/>
       <c r="J115" s="24"/>
       <c r="K115" s="9"/>
       <c r="L115" s="9"/>
-      <c r="M115" s="36"/>
+      <c r="M115" s="26"/>
       <c r="N115" s="9"/>
       <c r="O115" s="9"/>
       <c r="P115" s="24"/>
     </row>
-    <row r="116" spans="1:16">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
         <v>135</v>
       </c>
@@ -3889,18 +3910,18 @@
       <c r="F116" s="24"/>
       <c r="G116" s="24"/>
       <c r="H116" s="24"/>
-      <c r="I116" s="36"/>
+      <c r="I116" s="26"/>
       <c r="J116" s="24"/>
       <c r="K116" s="9"/>
       <c r="L116" s="9"/>
-      <c r="M116" s="36"/>
+      <c r="M116" s="26"/>
       <c r="N116" s="9"/>
       <c r="O116" s="9"/>
       <c r="P116" s="24"/>
     </row>
-    <row r="117" spans="1:16">
-      <c r="A117" s="9" t="s">
-        <v>136</v>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A117" s="27" t="s">
+        <v>148</v>
       </c>
       <c r="B117" s="9"/>
       <c r="C117" s="24"/>
@@ -3909,216 +3930,261 @@
       <c r="F117" s="24"/>
       <c r="G117" s="24"/>
       <c r="H117" s="24"/>
-      <c r="I117" s="36"/>
+      <c r="I117" s="26"/>
       <c r="J117" s="24"/>
       <c r="K117" s="9"/>
       <c r="L117" s="9"/>
-      <c r="M117" s="36"/>
+      <c r="M117" s="26"/>
       <c r="N117" s="9"/>
       <c r="O117" s="9"/>
       <c r="P117" s="24"/>
     </row>
-    <row r="118" spans="1:16" ht="30">
-      <c r="A118" s="16" t="s">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A118" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B118" s="9"/>
+      <c r="C118" s="24"/>
+      <c r="D118" s="24"/>
+      <c r="E118" s="24"/>
+      <c r="F118" s="24"/>
+      <c r="G118" s="24"/>
+      <c r="H118" s="24"/>
+      <c r="I118" s="26"/>
+      <c r="J118" s="24"/>
+      <c r="K118" s="9"/>
+      <c r="L118" s="9"/>
+      <c r="M118" s="26"/>
+      <c r="N118" s="9"/>
+      <c r="O118" s="9"/>
+      <c r="P118" s="24"/>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A119" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B119" s="9"/>
+      <c r="C119" s="24"/>
+      <c r="D119" s="24"/>
+      <c r="E119" s="24"/>
+      <c r="F119" s="24"/>
+      <c r="G119" s="24"/>
+      <c r="H119" s="24"/>
+      <c r="I119" s="26"/>
+      <c r="J119" s="24"/>
+      <c r="K119" s="9"/>
+      <c r="L119" s="9"/>
+      <c r="M119" s="26"/>
+      <c r="N119" s="9"/>
+      <c r="O119" s="9"/>
+      <c r="P119" s="24"/>
+    </row>
+    <row r="120" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="B118" s="9">
-        <f>SUM(B109:B117)</f>
-        <v>0</v>
-      </c>
-      <c r="C118" s="24" t="e">
-        <f t="shared" ref="C118:J118" si="13">AVERAGE(C109:C117)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D118" s="24" t="e">
+      <c r="B120" s="9">
+        <f>SUM(B109:B119)</f>
+        <v>0</v>
+      </c>
+      <c r="C120" s="24" t="e">
+        <f t="shared" ref="C120:J120" si="13">AVERAGE(C109:C119)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D120" s="24" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E118" s="24" t="e">
+      <c r="E120" s="24" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F118" s="24" t="e">
+      <c r="F120" s="24" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G118" s="24" t="e">
+      <c r="G120" s="24" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H118" s="24" t="e">
+      <c r="H120" s="24" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I118" s="36" t="e">
+      <c r="I120" s="26" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J118" s="24" t="e">
+      <c r="J120" s="24" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K118" s="9">
-        <f>SUM(K109:K117)</f>
-        <v>0</v>
-      </c>
-      <c r="L118" s="9">
-        <f>SUM(L109:L117)</f>
-        <v>0</v>
-      </c>
-      <c r="M118" s="36" t="e">
-        <f>AVERAGE(M109:M117)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N118" s="9" t="e">
-        <f>AVERAGE(N109:N117)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O118" s="9">
-        <f>SUM(O109:O117)</f>
-        <v>0</v>
-      </c>
-      <c r="P118" s="24" t="e">
-        <f>AVERAGE(P109:P117)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="119" spans="1:16">
-      <c r="A119" s="5" t="s">
+      <c r="K120" s="9">
+        <f>SUM(K109:K119)</f>
+        <v>0</v>
+      </c>
+      <c r="L120" s="9">
+        <f>SUM(L109:L119)</f>
+        <v>0</v>
+      </c>
+      <c r="M120" s="26" t="e">
+        <f>AVERAGE(M109:M119)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N120" s="9" t="e">
+        <f>AVERAGE(N109:N119)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O120" s="9">
+        <f>SUM(O109:O119)</f>
+        <v>0</v>
+      </c>
+      <c r="P120" s="24" t="e">
+        <f>AVERAGE(P109:P119)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A121" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B119" s="9">
-        <f>SUM(B107,B118)</f>
-        <v>0</v>
-      </c>
-      <c r="C119" s="24" t="e">
-        <f>AVERAGE(C107,C118)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D119" s="24" t="e">
-        <f t="shared" ref="D119:J119" si="14">AVERAGE(D107,D118)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E119" s="24" t="e">
+      <c r="B121" s="9">
+        <f>SUM(B107,B120)</f>
+        <v>0</v>
+      </c>
+      <c r="C121" s="24" t="e">
+        <f>AVERAGE(C107,C120)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D121" s="24" t="e">
+        <f t="shared" ref="D121:J121" si="14">AVERAGE(D107,D120)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E121" s="24" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F119" s="24" t="e">
+      <c r="F121" s="24" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G119" s="24" t="e">
+      <c r="G121" s="24" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H119" s="24" t="e">
+      <c r="H121" s="24" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I119" s="36" t="e">
+      <c r="I121" s="26" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J119" s="24" t="e">
+      <c r="J121" s="24" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K119" s="9">
-        <f>SUM(K107,K118)</f>
-        <v>0</v>
-      </c>
-      <c r="L119" s="9">
-        <f>SUM(L107,L118)</f>
-        <v>0</v>
-      </c>
-      <c r="M119" s="36" t="e">
-        <f t="shared" ref="M119:P119" si="15">AVERAGE(M107,M118)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N119" s="9" t="e">
+      <c r="K121" s="9">
+        <f>SUM(K107,K120)</f>
+        <v>0</v>
+      </c>
+      <c r="L121" s="9">
+        <f>SUM(L107,L120)</f>
+        <v>0</v>
+      </c>
+      <c r="M121" s="26" t="e">
+        <f t="shared" ref="M121:P121" si="15">AVERAGE(M107,M120)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N121" s="9" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O119" s="9">
-        <f>SUM(O107,O118)</f>
-        <v>0</v>
-      </c>
-      <c r="P119" s="24" t="e">
+      <c r="O121" s="9">
+        <f>SUM(O107,O120)</f>
+        <v>0</v>
+      </c>
+      <c r="P121" s="24" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="120" spans="1:16">
-      <c r="A120" s="6" t="s">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A122" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B120" s="9">
-        <f>SUM(B60,B95,B119)</f>
-        <v>0</v>
-      </c>
-      <c r="C120" s="24" t="e">
-        <f>AVERAGE(C60,C95,C119)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D120" s="24" t="e">
-        <f t="shared" ref="D120:J120" si="16">AVERAGE(D60,D95,D119)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E120" s="24" t="e">
+      <c r="B122" s="9">
+        <f>SUM(B60,B95,B121)</f>
+        <v>0</v>
+      </c>
+      <c r="C122" s="24" t="e">
+        <f>AVERAGE(C60,C95,C121)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D122" s="24" t="e">
+        <f t="shared" ref="D122:J122" si="16">AVERAGE(D60,D95,D121)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E122" s="24" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F120" s="24" t="e">
+      <c r="F122" s="24" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G120" s="24" t="e">
+      <c r="G122" s="24" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H120" s="24" t="e">
+      <c r="H122" s="24" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I120" s="36" t="e">
+      <c r="I122" s="26" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J120" s="24" t="e">
+      <c r="J122" s="24" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K120" s="9">
-        <f>SUM(K60,K95,K119)</f>
-        <v>0</v>
-      </c>
-      <c r="L120" s="9">
-        <f>SUM(L60,L95,L119)</f>
-        <v>0</v>
-      </c>
-      <c r="M120" s="36" t="e">
-        <f t="shared" ref="M120:P120" si="17">AVERAGE(M60,M95,M119)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N120" s="9" t="e">
+      <c r="K122" s="9">
+        <f>SUM(K60,K95,K121)</f>
+        <v>0</v>
+      </c>
+      <c r="L122" s="9">
+        <f>SUM(L60,L95,L121)</f>
+        <v>0</v>
+      </c>
+      <c r="M122" s="26" t="e">
+        <f t="shared" ref="M122:P122" si="17">AVERAGE(M60,M95,M121)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N122" s="9" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O120" s="9">
-        <f>SUM(O60,O95,O119)</f>
-        <v>0</v>
-      </c>
-      <c r="P120" s="24" t="e">
+      <c r="O122" s="9">
+        <f>SUM(O60,O95,O121)</f>
+        <v>0</v>
+      </c>
+      <c r="P122" s="24" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="121" spans="1:16" s="25" customFormat="1"/>
+    <row r="123" spans="1:16" s="25" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sortState ref="A49:A59">
     <sortCondition ref="A49"/>
   </sortState>
   <mergeCells count="15">
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="G2:G3"/>
@@ -4129,11 +4195,6 @@
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="N2:N3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -4141,21 +4202,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.140625" customWidth="1"/>
     <col min="2" max="2" width="33.5703125" customWidth="1"/>
     <col min="3" max="3" width="74" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>27</v>
       </c>
@@ -4166,7 +4227,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="240">
+    <row r="2" spans="1:3" ht="240" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>24</v>
       </c>
@@ -4177,7 +4238,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30" customHeight="1">
+    <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>30</v>
       </c>
@@ -4186,7 +4247,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="75">
+    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>33</v>
       </c>
@@ -4203,12 +4264,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/folder/ДИСПЕТЧЕРА.xlsx
+++ b/folder/ДИСПЕТЧЕРА.xlsx
@@ -475,10 +475,10 @@
     <t>КОРОЛЕВА ЕВГЕНИЯ ЭДУАРДОВНА</t>
   </si>
   <si>
-    <t>Иванчина Сa Сa</t>
-  </si>
-  <si>
-    <t>Наплекова Нa Сa</t>
+    <t>Иванчина C. C.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ильинская O. Н. </t>
   </si>
 </sst>
 </file>
@@ -541,9 +541,9 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="Courier New"/>
+      <family val="3"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -720,7 +720,9 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -4053,11 +4055,11 @@
         <v>0</v>
       </c>
       <c r="C121" s="24" t="e">
-        <f>AVERAGE(C107,C120)</f>
+        <f t="shared" ref="C121:J121" si="14">AVERAGE(C107,C120)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D121" s="24" t="e">
-        <f t="shared" ref="D121:J121" si="14">AVERAGE(D107,D120)</f>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E121" s="24" t="e">
@@ -4093,11 +4095,11 @@
         <v>0</v>
       </c>
       <c r="M121" s="26" t="e">
-        <f t="shared" ref="M121:P121" si="15">AVERAGE(M107,M120)</f>
+        <f>AVERAGE(M107,M120)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N121" s="9" t="e">
-        <f t="shared" si="15"/>
+        <f>AVERAGE(N107,N120)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O121" s="9">
@@ -4105,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="P121" s="24" t="e">
-        <f t="shared" si="15"/>
+        <f>AVERAGE(P107,P120)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4118,35 +4120,35 @@
         <v>0</v>
       </c>
       <c r="C122" s="24" t="e">
-        <f>AVERAGE(C60,C95,C121)</f>
+        <f t="shared" ref="C122:J122" si="15">AVERAGE(C60,C95,C121)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D122" s="24" t="e">
-        <f t="shared" ref="D122:J122" si="16">AVERAGE(D60,D95,D121)</f>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E122" s="24" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F122" s="24" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G122" s="24" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H122" s="24" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I122" s="26" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J122" s="24" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K122" s="9">
@@ -4158,11 +4160,11 @@
         <v>0</v>
       </c>
       <c r="M122" s="26" t="e">
-        <f t="shared" ref="M122:P122" si="17">AVERAGE(M60,M95,M121)</f>
+        <f>AVERAGE(M60,M95,M121)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N122" s="9" t="e">
-        <f t="shared" si="17"/>
+        <f>AVERAGE(N60,N95,N121)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O122" s="9">
@@ -4170,7 +4172,7 @@
         <v>0</v>
       </c>
       <c r="P122" s="24" t="e">
-        <f t="shared" si="17"/>
+        <f>AVERAGE(P60,P95,P121)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
